--- a/database/industries/folad/folad/product/monthly.xlsx
+++ b/database/industries/folad/folad/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\folad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA0E6C4-B947-4D73-9611-66F08BD5C324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -255,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,7 +443,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -454,7 +455,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -501,6 +502,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -536,6 +554,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,17 +722,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -752,7 +787,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -809,7 +844,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -866,7 +901,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -921,7 +956,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -978,7 +1013,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1035,7 +1070,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1090,7 +1125,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1302,7 +1337,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1394,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1497,13 +1532,13 @@
         <v>57</v>
       </c>
       <c r="AV11" s="11">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AW11" s="11">
         <v>107</v>
       </c>
       <c r="AX11" s="11">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="AY11" s="11">
         <v>100</v>
@@ -1512,13 +1547,13 @@
         <v>65</v>
       </c>
       <c r="BA11" s="11">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="BB11" s="11">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1656,7 +1691,7 @@
         <v>555</v>
       </c>
       <c r="AV12" s="13">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AW12" s="13">
         <v>470</v>
@@ -1665,19 +1700,19 @@
         <v>467</v>
       </c>
       <c r="AY12" s="13">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AZ12" s="13">
         <v>282</v>
       </c>
       <c r="BA12" s="13">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="BB12" s="13">
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1821,7 +1856,7 @@
         <v>34</v>
       </c>
       <c r="AX13" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY13" s="11">
         <v>24</v>
@@ -1830,13 +1865,13 @@
         <v>21</v>
       </c>
       <c r="BA13" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB13" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1974,7 +2009,7 @@
         <v>120</v>
       </c>
       <c r="AV14" s="13">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AW14" s="13">
         <v>124</v>
@@ -1989,13 +2024,13 @@
         <v>132</v>
       </c>
       <c r="BA14" s="13">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="BB14" s="13">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>61</v>
       </c>
@@ -2052,7 +2087,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>55</v>
       </c>
@@ -2211,13 +2246,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
         <v>57</v>
@@ -2370,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>63</v>
       </c>
@@ -2506,28 +2539,28 @@
         <v>706</v>
       </c>
       <c r="AV18" s="17">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AW18" s="17">
         <v>735</v>
       </c>
       <c r="AX18" s="17">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="AY18" s="17">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AZ18" s="17">
         <v>500</v>
       </c>
       <c r="BA18" s="17">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="BB18" s="17">
         <v>666</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2582,7 +2615,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2637,7 +2670,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2692,7 +2725,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
@@ -2849,7 +2882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2904,7 +2937,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
@@ -2961,7 +2994,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
@@ -3102,13 +3135,13 @@
         <v>67</v>
       </c>
       <c r="AW25" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AX25" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AY25" s="11">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AZ25" s="11">
         <v>29</v>
@@ -3120,7 +3153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>58</v>
       </c>
@@ -3267,7 +3300,7 @@
         <v>542</v>
       </c>
       <c r="AY26" s="13">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AZ26" s="13">
         <v>335</v>
@@ -3279,7 +3312,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>59</v>
       </c>
@@ -3426,7 +3459,7 @@
         <v>36</v>
       </c>
       <c r="AY27" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ27" s="11">
         <v>24</v>
@@ -3438,7 +3471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>60</v>
       </c>
@@ -3585,7 +3618,7 @@
         <v>128</v>
       </c>
       <c r="AY28" s="13">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AZ28" s="13">
         <v>108</v>
@@ -3597,7 +3630,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>61</v>
       </c>
@@ -3654,7 +3687,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>55</v>
       </c>
@@ -3813,13 +3846,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15" t="s">
         <v>57</v>
@@ -3972,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>65</v>
       </c>
@@ -4029,7 +4060,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>55</v>
       </c>
@@ -4188,13 +4219,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15" t="s">
         <v>57</v>
@@ -4347,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>63</v>
       </c>
@@ -4486,13 +4515,13 @@
         <v>585</v>
       </c>
       <c r="AW35" s="17">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AX35" s="17">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AY35" s="17">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="AZ35" s="17">
         <v>496</v>
@@ -4504,7 +4533,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4559,7 +4588,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4614,7 +4643,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4669,7 +4698,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>67</v>
       </c>
@@ -4826,7 +4855,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4881,7 +4910,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>67</v>
       </c>
@@ -4938,7 +4967,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>55</v>
       </c>
@@ -5079,13 +5108,13 @@
         <v>10550541</v>
       </c>
       <c r="AW42" s="11">
-        <v>38218781</v>
+        <v>38106528</v>
       </c>
       <c r="AX42" s="11">
-        <v>33644301</v>
+        <v>33644300</v>
       </c>
       <c r="AY42" s="11">
-        <v>10808699</v>
+        <v>8156854</v>
       </c>
       <c r="AZ42" s="11">
         <v>4269479</v>
@@ -5097,7 +5126,7 @@
         <v>6070281</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>58</v>
       </c>
@@ -5241,10 +5270,10 @@
         <v>95729317</v>
       </c>
       <c r="AX43" s="13">
-        <v>113965451</v>
+        <v>113965452</v>
       </c>
       <c r="AY43" s="13">
-        <v>79886872</v>
+        <v>79887387</v>
       </c>
       <c r="AZ43" s="13">
         <v>65597184</v>
@@ -5256,7 +5285,7 @@
         <v>67389429</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>59</v>
       </c>
@@ -5403,7 +5432,7 @@
         <v>10377534</v>
       </c>
       <c r="AY44" s="11">
-        <v>7601161</v>
+        <v>7601381</v>
       </c>
       <c r="AZ44" s="11">
         <v>7153245</v>
@@ -5415,7 +5444,7 @@
         <v>5765494</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>60</v>
       </c>
@@ -5562,7 +5591,7 @@
         <v>29328796</v>
       </c>
       <c r="AY45" s="13">
-        <v>26010519</v>
+        <v>26010864</v>
       </c>
       <c r="AZ45" s="13">
         <v>25324276</v>
@@ -5574,7 +5603,7 @@
         <v>28032905</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>69</v>
       </c>
@@ -5631,7 +5660,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>55</v>
       </c>
@@ -5790,7 +5819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>62</v>
       </c>
@@ -5949,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>70</v>
       </c>
@@ -6006,7 +6035,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>55</v>
       </c>
@@ -6165,7 +6194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>66</v>
       </c>
@@ -6324,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>71</v>
       </c>
@@ -6381,7 +6410,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>72</v>
       </c>
@@ -6540,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>63</v>
       </c>
@@ -6679,13 +6708,13 @@
         <v>120678354</v>
       </c>
       <c r="AW54" s="15">
-        <v>173612731</v>
+        <v>173500478</v>
       </c>
       <c r="AX54" s="15">
         <v>187316082</v>
       </c>
       <c r="AY54" s="15">
-        <v>124307251</v>
+        <v>121656486</v>
       </c>
       <c r="AZ54" s="15">
         <v>102344184</v>
@@ -6697,7 +6726,7 @@
         <v>107258109</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6752,7 +6781,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6807,7 +6836,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6862,7 +6891,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>73</v>
       </c>
@@ -7019,7 +7048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7074,7 +7103,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>74</v>
       </c>
@@ -7131,7 +7160,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>55</v>
       </c>
@@ -7272,13 +7301,13 @@
         <v>157470761194</v>
       </c>
       <c r="AW61" s="11">
-        <v>157278934156</v>
+        <v>157424783326</v>
       </c>
       <c r="AX61" s="11">
-        <v>159451663507</v>
+        <v>159147876817</v>
       </c>
       <c r="AY61" s="11">
-        <v>180144983333</v>
+        <v>180844382905</v>
       </c>
       <c r="AZ61" s="11">
         <v>147223413793</v>
@@ -7290,7 +7319,7 @@
         <v>159744236842</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>58</v>
       </c>
@@ -7434,10 +7463,10 @@
         <v>203246957537</v>
       </c>
       <c r="AX62" s="13">
-        <v>210268359779</v>
+        <v>210268360500</v>
       </c>
       <c r="AY62" s="13">
-        <v>201226377834</v>
+        <v>201455690433</v>
       </c>
       <c r="AZ62" s="13">
         <v>195812489552</v>
@@ -7449,7 +7478,7 @@
         <v>174584012953</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>59</v>
       </c>
@@ -7596,7 +7625,7 @@
         <v>288264833333</v>
       </c>
       <c r="AY63" s="11">
-        <v>304046440000</v>
+        <v>306628671711</v>
       </c>
       <c r="AZ63" s="11">
         <v>298051875000</v>
@@ -7608,7 +7637,7 @@
         <v>320305222222</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>60</v>
       </c>
@@ -7755,7 +7784,7 @@
         <v>229131218750</v>
       </c>
       <c r="AY64" s="13">
-        <v>232236776786</v>
+        <v>231300256339</v>
       </c>
       <c r="AZ64" s="13">
         <v>234484037037</v>
@@ -7767,7 +7796,7 @@
         <v>229777909836</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>76</v>
       </c>
@@ -7824,7 +7853,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>55</v>
       </c>

--- a/database/industries/folad/folad/product/monthly.xlsx
+++ b/database/industries/folad/folad/product/monthly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA0E6C4-B947-4D73-9611-66F08BD5C324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +34,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -187,6 +183,9 @@
     <t>ماه 7 منتهی به 1401/07</t>
   </si>
   <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -256,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,7 +442,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -455,7 +454,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -502,23 +501,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -554,23 +536,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -722,17 +687,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -787,7 +752,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -844,7 +809,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -901,7 +866,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -956,7 +921,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +978,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1035,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1125,7 +1090,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +1247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1337,7 +1302,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1359,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1403,157 +1368,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F11" s="11">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G11" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="11">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I11" s="11">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J11" s="11">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="K11" s="11">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="L11" s="11">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M11" s="11">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="N11" s="11">
+        <v>104</v>
+      </c>
+      <c r="O11" s="11">
+        <v>158</v>
+      </c>
+      <c r="P11" s="11">
+        <v>146</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>118</v>
+      </c>
+      <c r="R11" s="11">
+        <v>128</v>
+      </c>
+      <c r="S11" s="11">
+        <v>166</v>
+      </c>
+      <c r="T11" s="11">
+        <v>130</v>
+      </c>
+      <c r="U11" s="11">
+        <v>84</v>
+      </c>
+      <c r="V11" s="11">
+        <v>50</v>
+      </c>
+      <c r="W11" s="11">
+        <v>116</v>
+      </c>
+      <c r="X11" s="11">
+        <v>135</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>127</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>124</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>102</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>164</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>162</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>156</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>104</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>82</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>87</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>195</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>203</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>208</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>165</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>73</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>24</v>
+      </c>
+      <c r="AN11" s="11">
         <v>78</v>
       </c>
-      <c r="O11" s="11">
-        <v>104</v>
-      </c>
-      <c r="P11" s="11">
-        <v>158</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>146</v>
-      </c>
-      <c r="R11" s="11">
-        <v>118</v>
-      </c>
-      <c r="S11" s="11">
-        <v>128</v>
-      </c>
-      <c r="T11" s="11">
-        <v>166</v>
-      </c>
-      <c r="U11" s="11">
-        <v>130</v>
-      </c>
-      <c r="V11" s="11">
-        <v>84</v>
-      </c>
-      <c r="W11" s="11">
-        <v>50</v>
-      </c>
-      <c r="X11" s="11">
-        <v>116</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>135</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>127</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>124</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>102</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>164</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>162</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>156</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>104</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>82</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>87</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>195</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>203</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>208</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>165</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>73</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>24</v>
-      </c>
       <c r="AO11" s="11">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="AP11" s="11">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="AQ11" s="11">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AR11" s="11">
-        <v>59</v>
-      </c>
-      <c r="AS11" s="11">
         <v>81</v>
       </c>
-      <c r="AT11" s="11">
-        <v>191</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>57</v>
+      <c r="AS11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>228</v>
       </c>
       <c r="AV11" s="11">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="AW11" s="11">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AX11" s="11">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AY11" s="11">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AZ11" s="11">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="BA11" s="11">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="BB11" s="11">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1562,157 +1527,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="F12" s="13">
+        <v>363</v>
+      </c>
+      <c r="G12" s="13">
+        <v>248</v>
+      </c>
+      <c r="H12" s="13">
+        <v>242</v>
+      </c>
+      <c r="I12" s="13">
+        <v>400</v>
+      </c>
+      <c r="J12" s="13">
+        <v>343</v>
+      </c>
+      <c r="K12" s="13">
+        <v>410</v>
+      </c>
+      <c r="L12" s="13">
+        <v>446</v>
+      </c>
+      <c r="M12" s="13">
+        <v>410</v>
+      </c>
+      <c r="N12" s="13">
+        <v>399</v>
+      </c>
+      <c r="O12" s="13">
+        <v>401</v>
+      </c>
+      <c r="P12" s="13">
+        <v>434</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>340</v>
+      </c>
+      <c r="R12" s="13">
+        <v>345</v>
+      </c>
+      <c r="S12" s="13">
+        <v>312</v>
+      </c>
+      <c r="T12" s="13">
+        <v>354</v>
+      </c>
+      <c r="U12" s="13">
+        <v>329</v>
+      </c>
+      <c r="V12" s="13">
+        <v>364</v>
+      </c>
+      <c r="W12" s="13">
+        <v>424</v>
+      </c>
+      <c r="X12" s="13">
+        <v>456</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>343</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>392</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>368</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>412</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>309</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>358</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>288</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>364</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>381</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>402</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>407</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>457</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>288</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>234</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>222</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>323</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>342</v>
+      </c>
+      <c r="AP12" s="13">
         <v>386</v>
       </c>
-      <c r="G12" s="13">
-        <v>363</v>
-      </c>
-      <c r="H12" s="13">
-        <v>248</v>
-      </c>
-      <c r="I12" s="13">
-        <v>242</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="AQ12" s="13">
         <v>400</v>
       </c>
-      <c r="K12" s="13">
+      <c r="AR12" s="13">
+        <v>380</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>1542</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>555</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>485</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>470</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>467</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>353</v>
+      </c>
+      <c r="AY12" s="13">
+        <v>282</v>
+      </c>
+      <c r="AZ12" s="13">
         <v>343</v>
       </c>
-      <c r="L12" s="13">
-        <v>410</v>
-      </c>
-      <c r="M12" s="13">
-        <v>446</v>
-      </c>
-      <c r="N12" s="13">
-        <v>410</v>
-      </c>
-      <c r="O12" s="13">
-        <v>399</v>
-      </c>
-      <c r="P12" s="13">
-        <v>401</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>434</v>
-      </c>
-      <c r="R12" s="13">
-        <v>340</v>
-      </c>
-      <c r="S12" s="13">
-        <v>345</v>
-      </c>
-      <c r="T12" s="13">
-        <v>312</v>
-      </c>
-      <c r="U12" s="13">
-        <v>354</v>
-      </c>
-      <c r="V12" s="13">
-        <v>329</v>
-      </c>
-      <c r="W12" s="13">
-        <v>364</v>
-      </c>
-      <c r="X12" s="13">
-        <v>424</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>456</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>343</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>392</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>368</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>412</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>309</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>358</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>288</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>364</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>381</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>402</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>407</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>457</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>288</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>234</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>222</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>323</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>342</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>386</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>400</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>380</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>365</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>555</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>485</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>470</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>467</v>
-      </c>
-      <c r="AY12" s="13">
-        <v>353</v>
-      </c>
-      <c r="AZ12" s="13">
-        <v>282</v>
-      </c>
       <c r="BA12" s="13">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="BB12" s="13">
-        <v>395</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1721,46 +1686,46 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" s="11">
         <v>23</v>
       </c>
       <c r="G13" s="11">
+        <v>24</v>
+      </c>
+      <c r="H13" s="11">
+        <v>25</v>
+      </c>
+      <c r="I13" s="11">
         <v>23</v>
-      </c>
-      <c r="H13" s="11">
-        <v>24</v>
-      </c>
-      <c r="I13" s="11">
-        <v>25</v>
       </c>
       <c r="J13" s="11">
         <v>23</v>
       </c>
       <c r="K13" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" s="11">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M13" s="11">
         <v>26</v>
       </c>
       <c r="N13" s="11">
+        <v>24</v>
+      </c>
+      <c r="O13" s="11">
+        <v>23</v>
+      </c>
+      <c r="P13" s="11">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>24</v>
+      </c>
+      <c r="R13" s="11">
         <v>26</v>
-      </c>
-      <c r="O13" s="11">
-        <v>24</v>
-      </c>
-      <c r="P13" s="11">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>22</v>
-      </c>
-      <c r="R13" s="11">
-        <v>24</v>
       </c>
       <c r="S13" s="11">
         <v>26</v>
@@ -1769,109 +1734,109 @@
         <v>26</v>
       </c>
       <c r="U13" s="11">
+        <v>24</v>
+      </c>
+      <c r="V13" s="11">
+        <v>22</v>
+      </c>
+      <c r="W13" s="11">
+        <v>23</v>
+      </c>
+      <c r="X13" s="11">
         <v>26</v>
       </c>
-      <c r="V13" s="11">
+      <c r="Y13" s="11">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="11">
         <v>24</v>
       </c>
-      <c r="W13" s="11">
-        <v>22</v>
-      </c>
-      <c r="X13" s="11">
-        <v>23</v>
-      </c>
-      <c r="Y13" s="11">
+      <c r="AA13" s="11">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="11">
         <v>26</v>
       </c>
-      <c r="Z13" s="11">
-        <v>23</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>24</v>
-      </c>
-      <c r="AB13" s="11">
+      <c r="AC13" s="11">
         <v>25</v>
       </c>
-      <c r="AC13" s="11">
+      <c r="AD13" s="11">
         <v>26</v>
       </c>
-      <c r="AD13" s="11">
+      <c r="AE13" s="11">
+        <v>30</v>
+      </c>
+      <c r="AF13" s="11">
         <v>25</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>26</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>30</v>
       </c>
       <c r="AG13" s="11">
         <v>25</v>
       </c>
       <c r="AH13" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI13" s="11">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AJ13" s="11">
+        <v>27</v>
+      </c>
+      <c r="AK13" s="11">
         <v>26</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>27</v>
       </c>
       <c r="AL13" s="11">
         <v>26</v>
       </c>
       <c r="AM13" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN13" s="11">
+        <v>28</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>25</v>
+      </c>
+      <c r="AP13" s="11">
         <v>24</v>
       </c>
-      <c r="AO13" s="11">
-        <v>28</v>
-      </c>
-      <c r="AP13" s="11">
+      <c r="AQ13" s="11">
         <v>25</v>
       </c>
-      <c r="AQ13" s="11">
+      <c r="AR13" s="11">
+        <v>29</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>32</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>31</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>29</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>34</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>31</v>
+      </c>
+      <c r="AX13" s="11">
         <v>24</v>
       </c>
-      <c r="AR13" s="11">
-        <v>25</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>29</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>32</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>31</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>29</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>34</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>31</v>
-      </c>
       <c r="AY13" s="11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ13" s="11">
+        <v>19</v>
+      </c>
+      <c r="BA13" s="11">
+        <v>20</v>
+      </c>
+      <c r="BB13" s="11">
         <v>21</v>
       </c>
-      <c r="BA13" s="11">
-        <v>19</v>
-      </c>
-      <c r="BB13" s="11">
-        <v>20</v>
-      </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1880,157 +1845,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F14" s="13">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G14" s="13">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H14" s="13">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="I14" s="13">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="J14" s="13">
         <v>121</v>
       </c>
       <c r="K14" s="13">
+        <v>125</v>
+      </c>
+      <c r="L14" s="13">
+        <v>135</v>
+      </c>
+      <c r="M14" s="13">
+        <v>125</v>
+      </c>
+      <c r="N14" s="13">
+        <v>126</v>
+      </c>
+      <c r="O14" s="13">
+        <v>117</v>
+      </c>
+      <c r="P14" s="13">
         <v>121</v>
       </c>
-      <c r="L14" s="13">
+      <c r="Q14" s="13">
+        <v>115</v>
+      </c>
+      <c r="R14" s="13">
+        <v>131</v>
+      </c>
+      <c r="S14" s="13">
+        <v>122</v>
+      </c>
+      <c r="T14" s="13">
+        <v>121</v>
+      </c>
+      <c r="U14" s="13">
         <v>125</v>
       </c>
-      <c r="M14" s="13">
-        <v>135</v>
-      </c>
-      <c r="N14" s="13">
+      <c r="V14" s="13">
+        <v>109</v>
+      </c>
+      <c r="W14" s="13">
+        <v>104</v>
+      </c>
+      <c r="X14" s="13">
         <v>125</v>
       </c>
-      <c r="O14" s="13">
-        <v>126</v>
-      </c>
-      <c r="P14" s="13">
-        <v>117</v>
-      </c>
-      <c r="Q14" s="13">
+      <c r="Y14" s="13">
+        <v>129</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>134</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>118</v>
+      </c>
+      <c r="AB14" s="13">
         <v>121</v>
       </c>
-      <c r="R14" s="13">
-        <v>115</v>
-      </c>
-      <c r="S14" s="13">
-        <v>131</v>
-      </c>
-      <c r="T14" s="13">
-        <v>122</v>
-      </c>
-      <c r="U14" s="13">
-        <v>121</v>
-      </c>
-      <c r="V14" s="13">
-        <v>125</v>
-      </c>
-      <c r="W14" s="13">
-        <v>109</v>
-      </c>
-      <c r="X14" s="13">
-        <v>104</v>
-      </c>
-      <c r="Y14" s="13">
-        <v>125</v>
-      </c>
-      <c r="Z14" s="13">
-        <v>129</v>
-      </c>
-      <c r="AA14" s="13">
-        <v>134</v>
-      </c>
-      <c r="AB14" s="13">
-        <v>118</v>
-      </c>
       <c r="AC14" s="13">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD14" s="13">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AE14" s="13">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AF14" s="13">
         <v>123</v>
       </c>
       <c r="AG14" s="13">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AH14" s="13">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AI14" s="13">
+        <v>119</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>130</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>119</v>
+      </c>
+      <c r="AL14" s="13">
         <v>116</v>
       </c>
-      <c r="AJ14" s="13">
+      <c r="AM14" s="13">
+        <v>128</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>130</v>
+      </c>
+      <c r="AO14" s="13">
         <v>119</v>
       </c>
-      <c r="AK14" s="13">
-        <v>130</v>
-      </c>
-      <c r="AL14" s="13">
+      <c r="AP14" s="13">
+        <v>124</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>133</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>120</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>128</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>120</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>126</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>124</v>
+      </c>
+      <c r="AW14" s="13">
         <v>119</v>
       </c>
-      <c r="AM14" s="13">
-        <v>116</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>128</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>130</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>119</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>124</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>133</v>
-      </c>
-      <c r="AS14" s="13">
+      <c r="AX14" s="13">
+        <v>108</v>
+      </c>
+      <c r="AY14" s="13">
+        <v>132</v>
+      </c>
+      <c r="AZ14" s="13">
         <v>120</v>
       </c>
-      <c r="AT14" s="13">
-        <v>128</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>120</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>126</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>124</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>119</v>
-      </c>
-      <c r="AY14" s="13">
-        <v>108</v>
-      </c>
-      <c r="AZ14" s="13">
-        <v>132</v>
-      </c>
       <c r="BA14" s="13">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BB14" s="13">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>61</v>
       </c>
@@ -2087,7 +2052,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>55</v>
       </c>
@@ -2158,8 +2123,8 @@
       <c r="Y16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z16" s="11" t="s">
-        <v>57</v>
+      <c r="Z16" s="11">
+        <v>0</v>
       </c>
       <c r="AA16" s="11">
         <v>0</v>
@@ -2185,8 +2150,8 @@
       <c r="AH16" s="11">
         <v>0</v>
       </c>
-      <c r="AI16" s="11">
-        <v>0</v>
+      <c r="AI16" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ16" s="11" t="s">
         <v>57</v>
@@ -2246,7 +2211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>62</v>
       </c>
@@ -2315,8 +2280,8 @@
       <c r="Y17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Z17" s="15" t="s">
-        <v>57</v>
+      <c r="Z17" s="15">
+        <v>0</v>
       </c>
       <c r="AA17" s="15">
         <v>0</v>
@@ -2403,164 +2368,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17">
-        <v>618</v>
+        <v>547</v>
       </c>
       <c r="F18" s="17">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G18" s="17">
-        <v>550</v>
+        <v>431</v>
       </c>
       <c r="H18" s="17">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="I18" s="17">
-        <v>408</v>
+        <v>600</v>
       </c>
       <c r="J18" s="17">
-        <v>600</v>
+        <v>563</v>
       </c>
       <c r="K18" s="17">
-        <v>563</v>
+        <v>668</v>
       </c>
       <c r="L18" s="17">
-        <v>668</v>
+        <v>729</v>
       </c>
       <c r="M18" s="17">
-        <v>729</v>
+        <v>639</v>
       </c>
       <c r="N18" s="17">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="O18" s="17">
-        <v>653</v>
+        <v>699</v>
       </c>
       <c r="P18" s="17">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="Q18" s="17">
+        <v>597</v>
+      </c>
+      <c r="R18" s="17">
+        <v>630</v>
+      </c>
+      <c r="S18" s="17">
+        <v>626</v>
+      </c>
+      <c r="T18" s="17">
+        <v>631</v>
+      </c>
+      <c r="U18" s="17">
+        <v>562</v>
+      </c>
+      <c r="V18" s="17">
+        <v>545</v>
+      </c>
+      <c r="W18" s="17">
+        <v>667</v>
+      </c>
+      <c r="X18" s="17">
+        <v>742</v>
+      </c>
+      <c r="Y18" s="17">
+        <v>622</v>
+      </c>
+      <c r="Z18" s="17">
+        <v>674</v>
+      </c>
+      <c r="AA18" s="17">
+        <v>613</v>
+      </c>
+      <c r="AB18" s="17">
         <v>723</v>
       </c>
-      <c r="R18" s="17">
-        <v>597</v>
-      </c>
-      <c r="S18" s="17">
-        <v>630</v>
-      </c>
-      <c r="T18" s="17">
-        <v>626</v>
-      </c>
-      <c r="U18" s="17">
-        <v>631</v>
-      </c>
-      <c r="V18" s="17">
-        <v>562</v>
-      </c>
-      <c r="W18" s="17">
+      <c r="AC18" s="17">
+        <v>620</v>
+      </c>
+      <c r="AD18" s="17">
+        <v>659</v>
+      </c>
+      <c r="AE18" s="17">
         <v>545</v>
       </c>
-      <c r="X18" s="17">
+      <c r="AF18" s="17">
+        <v>594</v>
+      </c>
+      <c r="AG18" s="17">
+        <v>603</v>
+      </c>
+      <c r="AH18" s="17">
+        <v>735</v>
+      </c>
+      <c r="AI18" s="17">
+        <v>755</v>
+      </c>
+      <c r="AJ18" s="17">
+        <v>822</v>
+      </c>
+      <c r="AK18" s="17">
+        <v>598</v>
+      </c>
+      <c r="AL18" s="17">
+        <v>449</v>
+      </c>
+      <c r="AM18" s="17">
+        <v>398</v>
+      </c>
+      <c r="AN18" s="17">
+        <v>559</v>
+      </c>
+      <c r="AO18" s="17">
+        <v>490</v>
+      </c>
+      <c r="AP18" s="17">
+        <v>601</v>
+      </c>
+      <c r="AQ18" s="17">
+        <v>617</v>
+      </c>
+      <c r="AR18" s="17">
+        <v>610</v>
+      </c>
+      <c r="AS18" s="17">
+        <v>1702</v>
+      </c>
+      <c r="AT18" s="17">
+        <v>706</v>
+      </c>
+      <c r="AU18" s="17">
+        <v>868</v>
+      </c>
+      <c r="AV18" s="17">
+        <v>735</v>
+      </c>
+      <c r="AW18" s="17">
+        <v>709</v>
+      </c>
+      <c r="AX18" s="17">
+        <v>585</v>
+      </c>
+      <c r="AY18" s="17">
+        <v>500</v>
+      </c>
+      <c r="AZ18" s="17">
+        <v>645</v>
+      </c>
+      <c r="BA18" s="17">
         <v>667</v>
       </c>
-      <c r="Y18" s="17">
-        <v>742</v>
-      </c>
-      <c r="Z18" s="17">
-        <v>622</v>
-      </c>
-      <c r="AA18" s="17">
-        <v>674</v>
-      </c>
-      <c r="AB18" s="17">
-        <v>613</v>
-      </c>
-      <c r="AC18" s="17">
-        <v>723</v>
-      </c>
-      <c r="AD18" s="17">
-        <v>620</v>
-      </c>
-      <c r="AE18" s="17">
-        <v>659</v>
-      </c>
-      <c r="AF18" s="17">
-        <v>545</v>
-      </c>
-      <c r="AG18" s="17">
-        <v>594</v>
-      </c>
-      <c r="AH18" s="17">
-        <v>603</v>
-      </c>
-      <c r="AI18" s="17">
-        <v>735</v>
-      </c>
-      <c r="AJ18" s="17">
-        <v>755</v>
-      </c>
-      <c r="AK18" s="17">
-        <v>822</v>
-      </c>
-      <c r="AL18" s="17">
-        <v>598</v>
-      </c>
-      <c r="AM18" s="17">
-        <v>449</v>
-      </c>
-      <c r="AN18" s="17">
-        <v>398</v>
-      </c>
-      <c r="AO18" s="17">
-        <v>559</v>
-      </c>
-      <c r="AP18" s="17">
-        <v>490</v>
-      </c>
-      <c r="AQ18" s="17">
-        <v>601</v>
-      </c>
-      <c r="AR18" s="17">
-        <v>617</v>
-      </c>
-      <c r="AS18" s="17">
-        <v>610</v>
-      </c>
-      <c r="AT18" s="17">
-        <v>716</v>
-      </c>
-      <c r="AU18" s="17">
-        <v>706</v>
-      </c>
-      <c r="AV18" s="17">
-        <v>868</v>
-      </c>
-      <c r="AW18" s="17">
-        <v>735</v>
-      </c>
-      <c r="AX18" s="17">
-        <v>709</v>
-      </c>
-      <c r="AY18" s="17">
-        <v>585</v>
-      </c>
-      <c r="AZ18" s="17">
-        <v>500</v>
-      </c>
-      <c r="BA18" s="17">
-        <v>645</v>
-      </c>
       <c r="BB18" s="17">
-        <v>666</v>
+        <v>727</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2615,7 +2580,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2670,7 +2635,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2725,7 +2690,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
@@ -2882,7 +2847,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2937,7 +2902,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
@@ -2994,7 +2959,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
@@ -3003,157 +2968,157 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F25" s="11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G25" s="11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H25" s="11">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I25" s="11">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J25" s="11">
+        <v>45</v>
+      </c>
+      <c r="K25" s="11">
+        <v>64</v>
+      </c>
+      <c r="L25" s="11">
+        <v>60</v>
+      </c>
+      <c r="M25" s="11">
+        <v>133</v>
+      </c>
+      <c r="N25" s="11">
+        <v>128</v>
+      </c>
+      <c r="O25" s="11">
+        <v>50</v>
+      </c>
+      <c r="P25" s="11">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>114</v>
+      </c>
+      <c r="R25" s="11">
+        <v>145</v>
+      </c>
+      <c r="S25" s="11">
+        <v>128</v>
+      </c>
+      <c r="T25" s="11">
+        <v>141</v>
+      </c>
+      <c r="U25" s="11">
+        <v>193</v>
+      </c>
+      <c r="V25" s="11">
+        <v>118</v>
+      </c>
+      <c r="W25" s="11">
         <v>54</v>
       </c>
-      <c r="K25" s="11">
+      <c r="X25" s="11">
+        <v>135</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>147</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>125</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>62</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>84</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>92</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>172</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>122</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>137</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>101</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>138</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>56</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>191</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>233</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>159</v>
+      </c>
+      <c r="AM25" s="11">
+        <v>59</v>
+      </c>
+      <c r="AN25" s="11">
+        <v>80</v>
+      </c>
+      <c r="AO25" s="11">
+        <v>129</v>
+      </c>
+      <c r="AP25" s="11">
+        <v>62</v>
+      </c>
+      <c r="AQ25" s="11">
+        <v>91</v>
+      </c>
+      <c r="AR25" s="11">
+        <v>69</v>
+      </c>
+      <c r="AS25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU25" s="11">
+        <v>67</v>
+      </c>
+      <c r="AV25" s="11">
+        <v>242</v>
+      </c>
+      <c r="AW25" s="11">
+        <v>212</v>
+      </c>
+      <c r="AX25" s="11">
+        <v>41</v>
+      </c>
+      <c r="AY25" s="11">
+        <v>29</v>
+      </c>
+      <c r="AZ25" s="11">
         <v>45</v>
       </c>
-      <c r="L25" s="11">
-        <v>64</v>
-      </c>
-      <c r="M25" s="11">
-        <v>60</v>
-      </c>
-      <c r="N25" s="11">
-        <v>133</v>
-      </c>
-      <c r="O25" s="11">
-        <v>128</v>
-      </c>
-      <c r="P25" s="11">
-        <v>50</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>146</v>
-      </c>
-      <c r="R25" s="11">
-        <v>114</v>
-      </c>
-      <c r="S25" s="11">
-        <v>145</v>
-      </c>
-      <c r="T25" s="11">
-        <v>128</v>
-      </c>
-      <c r="U25" s="11">
-        <v>141</v>
-      </c>
-      <c r="V25" s="11">
-        <v>193</v>
-      </c>
-      <c r="W25" s="11">
-        <v>118</v>
-      </c>
-      <c r="X25" s="11">
-        <v>54</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>135</v>
-      </c>
-      <c r="Z25" s="11">
-        <v>147</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>125</v>
-      </c>
-      <c r="AB25" s="11">
-        <v>62</v>
-      </c>
-      <c r="AC25" s="11">
-        <v>84</v>
-      </c>
-      <c r="AD25" s="11">
-        <v>92</v>
-      </c>
-      <c r="AE25" s="11">
-        <v>172</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>122</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>137</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>101</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>138</v>
-      </c>
-      <c r="AJ25" s="11">
-        <v>56</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>191</v>
-      </c>
-      <c r="AL25" s="11">
-        <v>233</v>
-      </c>
-      <c r="AM25" s="11">
-        <v>159</v>
-      </c>
-      <c r="AN25" s="11">
-        <v>59</v>
-      </c>
-      <c r="AO25" s="11">
-        <v>80</v>
-      </c>
-      <c r="AP25" s="11">
-        <v>129</v>
-      </c>
-      <c r="AQ25" s="11">
-        <v>62</v>
-      </c>
-      <c r="AR25" s="11">
-        <v>91</v>
-      </c>
-      <c r="AS25" s="11">
-        <v>69</v>
-      </c>
-      <c r="AT25" s="11">
-        <v>84</v>
-      </c>
-      <c r="AU25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV25" s="11">
-        <v>67</v>
-      </c>
-      <c r="AW25" s="11">
-        <v>242</v>
-      </c>
-      <c r="AX25" s="11">
-        <v>212</v>
-      </c>
-      <c r="AY25" s="11">
-        <v>41</v>
-      </c>
-      <c r="AZ25" s="11">
-        <v>29</v>
-      </c>
       <c r="BA25" s="11">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="BB25" s="11">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>58</v>
       </c>
@@ -3162,157 +3127,157 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>360</v>
+        <v>285</v>
       </c>
       <c r="F26" s="13">
-        <v>285</v>
+        <v>503</v>
       </c>
       <c r="G26" s="13">
-        <v>503</v>
+        <v>298</v>
       </c>
       <c r="H26" s="13">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="I26" s="13">
-        <v>239</v>
+        <v>371</v>
       </c>
       <c r="J26" s="13">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="K26" s="13">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="L26" s="13">
-        <v>306</v>
+        <v>506</v>
       </c>
       <c r="M26" s="13">
-        <v>506</v>
+        <v>443</v>
       </c>
       <c r="N26" s="13">
-        <v>443</v>
+        <v>380</v>
       </c>
       <c r="O26" s="13">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P26" s="13">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="Q26" s="13">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="R26" s="13">
+        <v>354</v>
+      </c>
+      <c r="S26" s="13">
+        <v>280</v>
+      </c>
+      <c r="T26" s="13">
+        <v>334</v>
+      </c>
+      <c r="U26" s="13">
+        <v>391</v>
+      </c>
+      <c r="V26" s="13">
+        <v>250</v>
+      </c>
+      <c r="W26" s="13">
+        <v>271</v>
+      </c>
+      <c r="X26" s="13">
+        <v>539</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>438</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>374</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>323</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>388</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>384</v>
+      </c>
+      <c r="AD26" s="13">
+        <v>365</v>
+      </c>
+      <c r="AE26" s="13">
+        <v>322</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>326</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>359</v>
+      </c>
+      <c r="AH26" s="13">
+        <v>454</v>
+      </c>
+      <c r="AI26" s="13">
+        <v>334</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>395</v>
+      </c>
+      <c r="AK26" s="13">
+        <v>335</v>
+      </c>
+      <c r="AL26" s="13">
+        <v>301</v>
+      </c>
+      <c r="AM26" s="13">
+        <v>236</v>
+      </c>
+      <c r="AN26" s="13">
+        <v>341</v>
+      </c>
+      <c r="AO26" s="13">
+        <v>335</v>
+      </c>
+      <c r="AP26" s="13">
+        <v>372</v>
+      </c>
+      <c r="AQ26" s="13">
+        <v>391</v>
+      </c>
+      <c r="AR26" s="13">
         <v>398</v>
       </c>
-      <c r="S26" s="13">
-        <v>354</v>
-      </c>
-      <c r="T26" s="13">
-        <v>280</v>
-      </c>
-      <c r="U26" s="13">
-        <v>334</v>
-      </c>
-      <c r="V26" s="13">
-        <v>391</v>
-      </c>
-      <c r="W26" s="13">
-        <v>250</v>
-      </c>
-      <c r="X26" s="13">
-        <v>271</v>
-      </c>
-      <c r="Y26" s="13">
-        <v>539</v>
-      </c>
-      <c r="Z26" s="13">
-        <v>438</v>
-      </c>
-      <c r="AA26" s="13">
-        <v>374</v>
-      </c>
-      <c r="AB26" s="13">
-        <v>323</v>
-      </c>
-      <c r="AC26" s="13">
-        <v>388</v>
-      </c>
-      <c r="AD26" s="13">
-        <v>384</v>
-      </c>
-      <c r="AE26" s="13">
-        <v>365</v>
-      </c>
-      <c r="AF26" s="13">
-        <v>322</v>
-      </c>
-      <c r="AG26" s="13">
-        <v>326</v>
-      </c>
-      <c r="AH26" s="13">
-        <v>359</v>
-      </c>
-      <c r="AI26" s="13">
-        <v>454</v>
-      </c>
-      <c r="AJ26" s="13">
-        <v>334</v>
-      </c>
-      <c r="AK26" s="13">
+      <c r="AS26" s="13">
+        <v>1583</v>
+      </c>
+      <c r="AT26" s="13">
+        <v>627</v>
+      </c>
+      <c r="AU26" s="13">
+        <v>373</v>
+      </c>
+      <c r="AV26" s="13">
+        <v>471</v>
+      </c>
+      <c r="AW26" s="13">
+        <v>542</v>
+      </c>
+      <c r="AX26" s="13">
         <v>395</v>
       </c>
-      <c r="AL26" s="13">
+      <c r="AY26" s="13">
         <v>335</v>
       </c>
-      <c r="AM26" s="13">
-        <v>301</v>
-      </c>
-      <c r="AN26" s="13">
-        <v>236</v>
-      </c>
-      <c r="AO26" s="13">
-        <v>341</v>
-      </c>
-      <c r="AP26" s="13">
-        <v>335</v>
-      </c>
-      <c r="AQ26" s="13">
-        <v>372</v>
-      </c>
-      <c r="AR26" s="13">
-        <v>391</v>
-      </c>
-      <c r="AS26" s="13">
-        <v>398</v>
-      </c>
-      <c r="AT26" s="13">
-        <v>368</v>
-      </c>
-      <c r="AU26" s="13">
-        <v>627</v>
-      </c>
-      <c r="AV26" s="13">
-        <v>373</v>
-      </c>
-      <c r="AW26" s="13">
-        <v>471</v>
-      </c>
-      <c r="AX26" s="13">
-        <v>542</v>
-      </c>
-      <c r="AY26" s="13">
-        <v>395</v>
-      </c>
       <c r="AZ26" s="13">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="BA26" s="13">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="BB26" s="13">
-        <v>386</v>
+        <v>406</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>59</v>
       </c>
@@ -3321,157 +3286,157 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F27" s="11">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G27" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H27" s="11">
         <v>28</v>
       </c>
       <c r="I27" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J27" s="11">
         <v>25</v>
       </c>
       <c r="K27" s="11">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L27" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M27" s="11">
         <v>22</v>
       </c>
       <c r="N27" s="11">
+        <v>25</v>
+      </c>
+      <c r="O27" s="11">
         <v>22</v>
       </c>
-      <c r="O27" s="11">
-        <v>25</v>
-      </c>
       <c r="P27" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="11">
         <v>23</v>
       </c>
       <c r="R27" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S27" s="11">
+        <v>31</v>
+      </c>
+      <c r="T27" s="11">
         <v>25</v>
       </c>
-      <c r="T27" s="11">
-        <v>31</v>
-      </c>
       <c r="U27" s="11">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V27" s="11">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="W27" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X27" s="11">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Y27" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z27" s="11">
+        <v>28</v>
+      </c>
+      <c r="AA27" s="11">
         <v>27</v>
-      </c>
-      <c r="AA27" s="11">
-        <v>28</v>
       </c>
       <c r="AB27" s="11">
         <v>27</v>
       </c>
       <c r="AC27" s="11">
+        <v>38</v>
+      </c>
+      <c r="AD27" s="11">
+        <v>25</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>29</v>
+      </c>
+      <c r="AF27" s="11">
+        <v>37</v>
+      </c>
+      <c r="AG27" s="11">
+        <v>25</v>
+      </c>
+      <c r="AH27" s="11">
+        <v>22</v>
+      </c>
+      <c r="AI27" s="11">
+        <v>25</v>
+      </c>
+      <c r="AJ27" s="11">
+        <v>26</v>
+      </c>
+      <c r="AK27" s="11">
+        <v>29</v>
+      </c>
+      <c r="AL27" s="11">
         <v>27</v>
       </c>
-      <c r="AD27" s="11">
-        <v>38</v>
-      </c>
-      <c r="AE27" s="11">
+      <c r="AM27" s="11">
         <v>25</v>
-      </c>
-      <c r="AF27" s="11">
-        <v>29</v>
-      </c>
-      <c r="AG27" s="11">
-        <v>37</v>
-      </c>
-      <c r="AH27" s="11">
-        <v>25</v>
-      </c>
-      <c r="AI27" s="11">
-        <v>22</v>
-      </c>
-      <c r="AJ27" s="11">
-        <v>25</v>
-      </c>
-      <c r="AK27" s="11">
-        <v>26</v>
-      </c>
-      <c r="AL27" s="11">
-        <v>29</v>
-      </c>
-      <c r="AM27" s="11">
-        <v>27</v>
       </c>
       <c r="AN27" s="11">
         <v>25</v>
       </c>
       <c r="AO27" s="11">
+        <v>20</v>
+      </c>
+      <c r="AP27" s="11">
         <v>25</v>
-      </c>
-      <c r="AP27" s="11">
-        <v>20</v>
       </c>
       <c r="AQ27" s="11">
         <v>25</v>
       </c>
       <c r="AR27" s="11">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AS27" s="11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AT27" s="11">
         <v>30</v>
       </c>
       <c r="AU27" s="11">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AV27" s="11">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AW27" s="11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AX27" s="11">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AY27" s="11">
         <v>24</v>
       </c>
       <c r="AZ27" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA27" s="11">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BB27" s="11">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>60</v>
       </c>
@@ -3480,157 +3445,157 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="F28" s="13">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="G28" s="13">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H28" s="13">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="I28" s="13">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="J28" s="13">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K28" s="13">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L28" s="13">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="M28" s="13">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="N28" s="13">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="O28" s="13">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="P28" s="13">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="13">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="R28" s="13">
         <v>123</v>
       </c>
       <c r="S28" s="13">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="T28" s="13">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U28" s="13">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V28" s="13">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="W28" s="13">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="X28" s="13">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="Y28" s="13">
+        <v>138</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>149</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>113</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>120</v>
+      </c>
+      <c r="AC28" s="13">
         <v>132</v>
       </c>
-      <c r="Z28" s="13">
-        <v>138</v>
-      </c>
-      <c r="AA28" s="13">
-        <v>149</v>
-      </c>
-      <c r="AB28" s="13">
+      <c r="AD28" s="13">
+        <v>110</v>
+      </c>
+      <c r="AE28" s="13">
+        <v>136</v>
+      </c>
+      <c r="AF28" s="13">
+        <v>125</v>
+      </c>
+      <c r="AG28" s="13">
+        <v>112</v>
+      </c>
+      <c r="AH28" s="13">
+        <v>117</v>
+      </c>
+      <c r="AI28" s="13">
+        <v>114</v>
+      </c>
+      <c r="AJ28" s="13">
+        <v>125</v>
+      </c>
+      <c r="AK28" s="13">
         <v>113</v>
       </c>
-      <c r="AC28" s="13">
+      <c r="AL28" s="13">
+        <v>125</v>
+      </c>
+      <c r="AM28" s="13">
+        <v>117</v>
+      </c>
+      <c r="AN28" s="13">
+        <v>129</v>
+      </c>
+      <c r="AO28" s="13">
         <v>120</v>
       </c>
-      <c r="AD28" s="13">
-        <v>132</v>
-      </c>
-      <c r="AE28" s="13">
-        <v>110</v>
-      </c>
-      <c r="AF28" s="13">
-        <v>136</v>
-      </c>
-      <c r="AG28" s="13">
-        <v>125</v>
-      </c>
-      <c r="AH28" s="13">
+      <c r="AP28" s="13">
+        <v>127</v>
+      </c>
+      <c r="AQ28" s="13">
+        <v>130</v>
+      </c>
+      <c r="AR28" s="13">
         <v>112</v>
       </c>
-      <c r="AI28" s="13">
-        <v>117</v>
-      </c>
-      <c r="AJ28" s="13">
-        <v>114</v>
-      </c>
-      <c r="AK28" s="13">
-        <v>125</v>
-      </c>
-      <c r="AL28" s="13">
-        <v>113</v>
-      </c>
-      <c r="AM28" s="13">
-        <v>125</v>
-      </c>
-      <c r="AN28" s="13">
-        <v>117</v>
-      </c>
-      <c r="AO28" s="13">
-        <v>129</v>
-      </c>
-      <c r="AP28" s="13">
+      <c r="AS28" s="13">
+        <v>127</v>
+      </c>
+      <c r="AT28" s="13">
         <v>120</v>
-      </c>
-      <c r="AQ28" s="13">
-        <v>127</v>
-      </c>
-      <c r="AR28" s="13">
-        <v>130</v>
-      </c>
-      <c r="AS28" s="13">
-        <v>112</v>
-      </c>
-      <c r="AT28" s="13">
-        <v>125</v>
       </c>
       <c r="AU28" s="13">
         <v>120</v>
       </c>
       <c r="AV28" s="13">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AW28" s="13">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AX28" s="13">
+        <v>114</v>
+      </c>
+      <c r="AY28" s="13">
+        <v>108</v>
+      </c>
+      <c r="AZ28" s="13">
         <v>128</v>
       </c>
-      <c r="AY28" s="13">
-        <v>114</v>
-      </c>
-      <c r="AZ28" s="13">
-        <v>108</v>
-      </c>
       <c r="BA28" s="13">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BB28" s="13">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>61</v>
       </c>
@@ -3687,7 +3652,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>55</v>
       </c>
@@ -3758,8 +3723,8 @@
       <c r="Y30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z30" s="11" t="s">
-        <v>57</v>
+      <c r="Z30" s="11">
+        <v>0</v>
       </c>
       <c r="AA30" s="11">
         <v>0</v>
@@ -3785,8 +3750,8 @@
       <c r="AH30" s="11">
         <v>0</v>
       </c>
-      <c r="AI30" s="11">
-        <v>0</v>
+      <c r="AI30" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ30" s="11" t="s">
         <v>57</v>
@@ -3846,7 +3811,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>62</v>
       </c>
@@ -3915,8 +3880,8 @@
       <c r="Y31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Z31" s="15" t="s">
-        <v>57</v>
+      <c r="Z31" s="15">
+        <v>0</v>
       </c>
       <c r="AA31" s="15">
         <v>0</v>
@@ -4003,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>65</v>
       </c>
@@ -4060,7 +4025,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>55</v>
       </c>
@@ -4131,8 +4096,8 @@
       <c r="Y33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z33" s="11" t="s">
-        <v>57</v>
+      <c r="Z33" s="11">
+        <v>0</v>
       </c>
       <c r="AA33" s="11">
         <v>0</v>
@@ -4158,8 +4123,8 @@
       <c r="AH33" s="11">
         <v>0</v>
       </c>
-      <c r="AI33" s="11">
-        <v>0</v>
+      <c r="AI33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ33" s="11" t="s">
         <v>57</v>
@@ -4219,7 +4184,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>66</v>
       </c>
@@ -4288,8 +4253,8 @@
       <c r="Y34" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Z34" s="15" t="s">
-        <v>57</v>
+      <c r="Z34" s="15">
+        <v>0</v>
       </c>
       <c r="AA34" s="15">
         <v>0</v>
@@ -4376,164 +4341,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17">
-        <v>528</v>
+        <v>382</v>
       </c>
       <c r="F35" s="17">
-        <v>382</v>
+        <v>693</v>
       </c>
       <c r="G35" s="17">
-        <v>693</v>
+        <v>498</v>
       </c>
       <c r="H35" s="17">
-        <v>498</v>
+        <v>390</v>
       </c>
       <c r="I35" s="17">
-        <v>390</v>
+        <v>583</v>
       </c>
       <c r="J35" s="17">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="K35" s="17">
-        <v>589</v>
+        <v>503</v>
       </c>
       <c r="L35" s="17">
-        <v>503</v>
+        <v>725</v>
       </c>
       <c r="M35" s="17">
         <v>725</v>
       </c>
       <c r="N35" s="17">
-        <v>725</v>
+        <v>643</v>
       </c>
       <c r="O35" s="17">
-        <v>643</v>
+        <v>583</v>
       </c>
       <c r="P35" s="17">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="Q35" s="17">
-        <v>694</v>
+        <v>658</v>
       </c>
       <c r="R35" s="17">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="S35" s="17">
-        <v>647</v>
+        <v>573</v>
       </c>
       <c r="T35" s="17">
-        <v>573</v>
+        <v>628</v>
       </c>
       <c r="U35" s="17">
-        <v>628</v>
+        <v>731</v>
       </c>
       <c r="V35" s="17">
+        <v>469</v>
+      </c>
+      <c r="W35" s="17">
+        <v>437</v>
+      </c>
+      <c r="X35" s="17">
+        <v>835</v>
+      </c>
+      <c r="Y35" s="17">
+        <v>750</v>
+      </c>
+      <c r="Z35" s="17">
+        <v>676</v>
+      </c>
+      <c r="AA35" s="17">
+        <v>525</v>
+      </c>
+      <c r="AB35" s="17">
+        <v>619</v>
+      </c>
+      <c r="AC35" s="17">
+        <v>646</v>
+      </c>
+      <c r="AD35" s="17">
+        <v>672</v>
+      </c>
+      <c r="AE35" s="17">
+        <v>609</v>
+      </c>
+      <c r="AF35" s="17">
+        <v>625</v>
+      </c>
+      <c r="AG35" s="17">
+        <v>597</v>
+      </c>
+      <c r="AH35" s="17">
         <v>731</v>
       </c>
-      <c r="W35" s="17">
-        <v>469</v>
-      </c>
-      <c r="X35" s="17">
+      <c r="AI35" s="17">
+        <v>529</v>
+      </c>
+      <c r="AJ35" s="17">
+        <v>737</v>
+      </c>
+      <c r="AK35" s="17">
+        <v>710</v>
+      </c>
+      <c r="AL35" s="17">
+        <v>612</v>
+      </c>
+      <c r="AM35" s="17">
         <v>437</v>
       </c>
-      <c r="Y35" s="17">
-        <v>835</v>
-      </c>
-      <c r="Z35" s="17">
-        <v>750</v>
-      </c>
-      <c r="AA35" s="17">
-        <v>676</v>
-      </c>
-      <c r="AB35" s="17">
-        <v>525</v>
-      </c>
-      <c r="AC35" s="17">
-        <v>619</v>
-      </c>
-      <c r="AD35" s="17">
-        <v>646</v>
-      </c>
-      <c r="AE35" s="17">
-        <v>672</v>
-      </c>
-      <c r="AF35" s="17">
-        <v>609</v>
-      </c>
-      <c r="AG35" s="17">
-        <v>625</v>
-      </c>
-      <c r="AH35" s="17">
-        <v>597</v>
-      </c>
-      <c r="AI35" s="17">
-        <v>731</v>
-      </c>
-      <c r="AJ35" s="17">
-        <v>529</v>
-      </c>
-      <c r="AK35" s="17">
-        <v>737</v>
-      </c>
-      <c r="AL35" s="17">
-        <v>710</v>
-      </c>
-      <c r="AM35" s="17">
-        <v>612</v>
-      </c>
       <c r="AN35" s="17">
-        <v>437</v>
+        <v>575</v>
       </c>
       <c r="AO35" s="17">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="AP35" s="17">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="AQ35" s="17">
-        <v>586</v>
+        <v>637</v>
       </c>
       <c r="AR35" s="17">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="AS35" s="17">
-        <v>611</v>
+        <v>1739</v>
       </c>
       <c r="AT35" s="17">
-        <v>607</v>
+        <v>777</v>
       </c>
       <c r="AU35" s="17">
-        <v>777</v>
+        <v>585</v>
       </c>
       <c r="AV35" s="17">
-        <v>585</v>
+        <v>876</v>
       </c>
       <c r="AW35" s="17">
-        <v>876</v>
+        <v>918</v>
       </c>
       <c r="AX35" s="17">
-        <v>918</v>
+        <v>574</v>
       </c>
       <c r="AY35" s="17">
-        <v>574</v>
+        <v>496</v>
       </c>
       <c r="AZ35" s="17">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="BA35" s="17">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="BB35" s="17">
-        <v>564</v>
+        <v>633</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4588,7 +4553,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4643,7 +4608,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4698,7 +4663,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>67</v>
       </c>
@@ -4855,7 +4820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4910,7 +4875,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>67</v>
       </c>
@@ -4967,7 +4932,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>55</v>
       </c>
@@ -4976,157 +4941,157 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>342849</v>
+        <v>177376</v>
       </c>
       <c r="F42" s="11">
-        <v>177376</v>
+        <v>495653</v>
       </c>
       <c r="G42" s="11">
-        <v>495653</v>
+        <v>1234384</v>
       </c>
       <c r="H42" s="11">
-        <v>1234384</v>
+        <v>547108</v>
       </c>
       <c r="I42" s="11">
-        <v>547108</v>
+        <v>1762398</v>
       </c>
       <c r="J42" s="11">
-        <v>1762398</v>
+        <v>1488628</v>
       </c>
       <c r="K42" s="11">
-        <v>1488628</v>
+        <v>2224264</v>
       </c>
       <c r="L42" s="11">
-        <v>2224264</v>
+        <v>2309283</v>
       </c>
       <c r="M42" s="11">
-        <v>2309283</v>
+        <v>5430893</v>
       </c>
       <c r="N42" s="11">
-        <v>5430893</v>
+        <v>5543032</v>
       </c>
       <c r="O42" s="11">
-        <v>5543032</v>
+        <v>2224176</v>
       </c>
       <c r="P42" s="11">
-        <v>2224176</v>
+        <v>6068891</v>
       </c>
       <c r="Q42" s="11">
-        <v>6068891</v>
+        <v>4670460</v>
       </c>
       <c r="R42" s="11">
-        <v>4670460</v>
+        <v>5712026</v>
       </c>
       <c r="S42" s="11">
-        <v>5712026</v>
+        <v>5068672</v>
       </c>
       <c r="T42" s="11">
-        <v>5068672</v>
+        <v>5979214</v>
       </c>
       <c r="U42" s="11">
-        <v>5979214</v>
+        <v>8758369</v>
       </c>
       <c r="V42" s="11">
-        <v>8758369</v>
+        <v>5359149</v>
       </c>
       <c r="W42" s="11">
-        <v>5359149</v>
+        <v>2979910</v>
       </c>
       <c r="X42" s="11">
-        <v>2979910</v>
+        <v>7618166</v>
       </c>
       <c r="Y42" s="11">
-        <v>7618166</v>
+        <v>8683928</v>
       </c>
       <c r="Z42" s="11">
-        <v>8683928</v>
+        <v>7453984</v>
       </c>
       <c r="AA42" s="11">
-        <v>7453984</v>
+        <v>4945006</v>
       </c>
       <c r="AB42" s="11">
-        <v>4945006</v>
+        <v>6238752</v>
       </c>
       <c r="AC42" s="11">
-        <v>6238752</v>
+        <v>8652238</v>
       </c>
       <c r="AD42" s="11">
-        <v>8652238</v>
+        <v>16483131</v>
       </c>
       <c r="AE42" s="11">
-        <v>16483131</v>
+        <v>14013518</v>
       </c>
       <c r="AF42" s="11">
-        <v>14013518</v>
+        <v>16872492</v>
       </c>
       <c r="AG42" s="11">
-        <v>16872492</v>
+        <v>12262783</v>
       </c>
       <c r="AH42" s="11">
-        <v>12262783</v>
+        <v>18116251</v>
       </c>
       <c r="AI42" s="11">
-        <v>18116251</v>
+        <v>7660416</v>
       </c>
       <c r="AJ42" s="11">
-        <v>7660416</v>
+        <v>25674336</v>
       </c>
       <c r="AK42" s="11">
-        <v>25674336</v>
+        <v>31520150</v>
       </c>
       <c r="AL42" s="11">
-        <v>31520150</v>
+        <v>24439925</v>
       </c>
       <c r="AM42" s="11">
-        <v>24439925</v>
+        <v>9055956</v>
       </c>
       <c r="AN42" s="11">
-        <v>9055956</v>
+        <v>12287755</v>
       </c>
       <c r="AO42" s="11">
-        <v>12287755</v>
+        <v>21394841</v>
       </c>
       <c r="AP42" s="11">
-        <v>21394841</v>
+        <v>9063719</v>
       </c>
       <c r="AQ42" s="11">
-        <v>9063719</v>
+        <v>14699295</v>
       </c>
       <c r="AR42" s="11">
-        <v>14699295</v>
-      </c>
-      <c r="AS42" s="11">
         <v>11319145</v>
       </c>
-      <c r="AT42" s="11">
-        <v>12718064</v>
-      </c>
-      <c r="AU42" s="11" t="s">
-        <v>57</v>
+      <c r="AS42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU42" s="11">
+        <v>10550541</v>
       </c>
       <c r="AV42" s="11">
-        <v>10550541</v>
+        <v>38106528</v>
       </c>
       <c r="AW42" s="11">
-        <v>38106528</v>
+        <v>33644300</v>
       </c>
       <c r="AX42" s="11">
-        <v>33644300</v>
+        <v>8156854</v>
       </c>
       <c r="AY42" s="11">
-        <v>8156854</v>
+        <v>4269479</v>
       </c>
       <c r="AZ42" s="11">
-        <v>4269479</v>
+        <v>6967049</v>
       </c>
       <c r="BA42" s="11">
-        <v>6967049</v>
+        <v>6070281</v>
       </c>
       <c r="BB42" s="11">
-        <v>6070281</v>
+        <v>11061755</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>58</v>
       </c>
@@ -5135,157 +5100,157 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
-        <v>10979135</v>
+        <v>10371371</v>
       </c>
       <c r="F43" s="13">
-        <v>10371371</v>
+        <v>18825240</v>
       </c>
       <c r="G43" s="13">
-        <v>18825240</v>
+        <v>12411279</v>
       </c>
       <c r="H43" s="13">
-        <v>12411279</v>
+        <v>10952913</v>
       </c>
       <c r="I43" s="13">
-        <v>10952913</v>
+        <v>15385548</v>
       </c>
       <c r="J43" s="13">
-        <v>15385548</v>
+        <v>17214038</v>
       </c>
       <c r="K43" s="13">
-        <v>17214038</v>
+        <v>13587053</v>
       </c>
       <c r="L43" s="13">
-        <v>13587053</v>
+        <v>23698885</v>
       </c>
       <c r="M43" s="13">
-        <v>23698885</v>
+        <v>22991267</v>
       </c>
       <c r="N43" s="13">
-        <v>22991267</v>
+        <v>20735193</v>
       </c>
       <c r="O43" s="13">
-        <v>20735193</v>
+        <v>20008827</v>
       </c>
       <c r="P43" s="13">
-        <v>20008827</v>
+        <v>21023652</v>
       </c>
       <c r="Q43" s="13">
-        <v>21023652</v>
+        <v>19533443</v>
       </c>
       <c r="R43" s="13">
-        <v>19533443</v>
+        <v>16880012</v>
       </c>
       <c r="S43" s="13">
-        <v>16880012</v>
+        <v>13272093</v>
       </c>
       <c r="T43" s="13">
-        <v>13272093</v>
+        <v>15959923</v>
       </c>
       <c r="U43" s="13">
-        <v>15959923</v>
+        <v>19527022</v>
       </c>
       <c r="V43" s="13">
-        <v>19527022</v>
+        <v>13150471</v>
       </c>
       <c r="W43" s="13">
-        <v>13150471</v>
+        <v>14398408</v>
       </c>
       <c r="X43" s="13">
-        <v>14398408</v>
+        <v>30466139</v>
       </c>
       <c r="Y43" s="13">
-        <v>30466139</v>
+        <v>26093085</v>
       </c>
       <c r="Z43" s="13">
-        <v>26093085</v>
+        <v>25065548</v>
       </c>
       <c r="AA43" s="13">
-        <v>25065548</v>
+        <v>24107939</v>
       </c>
       <c r="AB43" s="13">
-        <v>24107939</v>
+        <v>32153658</v>
       </c>
       <c r="AC43" s="13">
-        <v>32153658</v>
+        <v>36484390</v>
       </c>
       <c r="AD43" s="13">
-        <v>36484390</v>
+        <v>39571364</v>
       </c>
       <c r="AE43" s="13">
-        <v>39571364</v>
+        <v>39012934</v>
       </c>
       <c r="AF43" s="13">
-        <v>39012934</v>
+        <v>41349493</v>
       </c>
       <c r="AG43" s="13">
-        <v>41349493</v>
+        <v>47108405</v>
       </c>
       <c r="AH43" s="13">
-        <v>47108405</v>
+        <v>66917633</v>
       </c>
       <c r="AI43" s="13">
-        <v>66917633</v>
+        <v>55166609</v>
       </c>
       <c r="AJ43" s="13">
-        <v>55166609</v>
+        <v>67748720</v>
       </c>
       <c r="AK43" s="13">
-        <v>67748720</v>
+        <v>59311777</v>
       </c>
       <c r="AL43" s="13">
-        <v>59311777</v>
+        <v>54940072</v>
       </c>
       <c r="AM43" s="13">
-        <v>54940072</v>
+        <v>46402949</v>
       </c>
       <c r="AN43" s="13">
-        <v>46402949</v>
+        <v>70262192</v>
       </c>
       <c r="AO43" s="13">
-        <v>70262192</v>
+        <v>70040208</v>
       </c>
       <c r="AP43" s="13">
-        <v>70040208</v>
+        <v>79923483</v>
       </c>
       <c r="AQ43" s="13">
-        <v>79923483</v>
+        <v>82095147</v>
       </c>
       <c r="AR43" s="13">
-        <v>82095147</v>
+        <v>85011509</v>
       </c>
       <c r="AS43" s="13">
-        <v>85011509</v>
+        <v>255430833</v>
       </c>
       <c r="AT43" s="13">
-        <v>75597229</v>
+        <v>109194516</v>
       </c>
       <c r="AU43" s="13">
-        <v>109194516</v>
+        <v>74052953</v>
       </c>
       <c r="AV43" s="13">
-        <v>74052953</v>
+        <v>95729317</v>
       </c>
       <c r="AW43" s="13">
-        <v>95729317</v>
+        <v>113965452</v>
       </c>
       <c r="AX43" s="13">
-        <v>113965452</v>
+        <v>79887387</v>
       </c>
       <c r="AY43" s="13">
-        <v>79887387</v>
+        <v>65597184</v>
       </c>
       <c r="AZ43" s="13">
-        <v>65597184</v>
+        <v>54977492</v>
       </c>
       <c r="BA43" s="13">
-        <v>54977492</v>
+        <v>67389426</v>
       </c>
       <c r="BB43" s="13">
-        <v>67389429</v>
+        <v>69094512</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>59</v>
       </c>
@@ -5294,157 +5259,157 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>1088166</v>
+        <v>701668</v>
       </c>
       <c r="F44" s="11">
-        <v>701668</v>
+        <v>1657286</v>
       </c>
       <c r="G44" s="11">
-        <v>1657286</v>
+        <v>2015239</v>
       </c>
       <c r="H44" s="11">
-        <v>2015239</v>
+        <v>2511836</v>
       </c>
       <c r="I44" s="11">
-        <v>2511836</v>
+        <v>2174539</v>
       </c>
       <c r="J44" s="11">
-        <v>2174539</v>
+        <v>2186772</v>
       </c>
       <c r="K44" s="11">
-        <v>2186772</v>
+        <v>1844697</v>
       </c>
       <c r="L44" s="11">
-        <v>1844697</v>
+        <v>2143035</v>
       </c>
       <c r="M44" s="11">
-        <v>2143035</v>
+        <v>2219023</v>
       </c>
       <c r="N44" s="11">
-        <v>2219023</v>
+        <v>2660180</v>
       </c>
       <c r="O44" s="11">
-        <v>2660180</v>
+        <v>2769274</v>
       </c>
       <c r="P44" s="11">
-        <v>2769274</v>
+        <v>2740837</v>
       </c>
       <c r="Q44" s="11">
-        <v>2740837</v>
+        <v>2724887</v>
       </c>
       <c r="R44" s="11">
-        <v>2724887</v>
+        <v>2744585</v>
       </c>
       <c r="S44" s="11">
-        <v>2744585</v>
+        <v>3316686</v>
       </c>
       <c r="T44" s="11">
-        <v>3316686</v>
+        <v>2577899</v>
       </c>
       <c r="U44" s="11">
-        <v>2577899</v>
+        <v>2161120</v>
       </c>
       <c r="V44" s="11">
-        <v>2161120</v>
+        <v>1749757</v>
       </c>
       <c r="W44" s="11">
-        <v>1749757</v>
+        <v>1827741</v>
       </c>
       <c r="X44" s="11">
-        <v>1827741</v>
+        <v>3366032</v>
       </c>
       <c r="Y44" s="11">
-        <v>3366032</v>
+        <v>3122918</v>
       </c>
       <c r="Z44" s="11">
-        <v>3122918</v>
+        <v>3397989</v>
       </c>
       <c r="AA44" s="11">
-        <v>3397989</v>
+        <v>3250810</v>
       </c>
       <c r="AB44" s="11">
-        <v>3250810</v>
+        <v>3700609</v>
       </c>
       <c r="AC44" s="11">
-        <v>3700609</v>
+        <v>5539489</v>
       </c>
       <c r="AD44" s="11">
-        <v>5539489</v>
+        <v>4381240</v>
       </c>
       <c r="AE44" s="11">
-        <v>4381240</v>
+        <v>5429270</v>
       </c>
       <c r="AF44" s="11">
-        <v>5429270</v>
+        <v>6923658</v>
       </c>
       <c r="AG44" s="11">
-        <v>6923658</v>
+        <v>5541805</v>
       </c>
       <c r="AH44" s="11">
-        <v>5541805</v>
+        <v>4949401</v>
       </c>
       <c r="AI44" s="11">
-        <v>4949401</v>
+        <v>5831556</v>
       </c>
       <c r="AJ44" s="11">
-        <v>5831556</v>
+        <v>5957563</v>
       </c>
       <c r="AK44" s="11">
-        <v>5957563</v>
+        <v>6967658</v>
       </c>
       <c r="AL44" s="11">
-        <v>6967658</v>
+        <v>6716386</v>
       </c>
       <c r="AM44" s="11">
-        <v>6716386</v>
+        <v>6605638</v>
       </c>
       <c r="AN44" s="11">
-        <v>6605638</v>
+        <v>7094069</v>
       </c>
       <c r="AO44" s="11">
-        <v>7094069</v>
+        <v>6092348</v>
       </c>
       <c r="AP44" s="11">
-        <v>6092348</v>
+        <v>7375570</v>
       </c>
       <c r="AQ44" s="11">
-        <v>7375570</v>
+        <v>7299364</v>
       </c>
       <c r="AR44" s="11">
-        <v>7299364</v>
+        <v>9414024</v>
       </c>
       <c r="AS44" s="11">
-        <v>9414024</v>
+        <v>8782818</v>
       </c>
       <c r="AT44" s="11">
-        <v>8782817</v>
+        <v>8728208</v>
       </c>
       <c r="AU44" s="11">
-        <v>8728208</v>
+        <v>7859694</v>
       </c>
       <c r="AV44" s="11">
-        <v>7859694</v>
+        <v>9785942</v>
       </c>
       <c r="AW44" s="11">
-        <v>9785942</v>
+        <v>10377534</v>
       </c>
       <c r="AX44" s="11">
-        <v>10377534</v>
+        <v>7601381</v>
       </c>
       <c r="AY44" s="11">
-        <v>7601381</v>
+        <v>7153245</v>
       </c>
       <c r="AZ44" s="11">
-        <v>7153245</v>
+        <v>6588859</v>
       </c>
       <c r="BA44" s="11">
-        <v>6588859</v>
+        <v>5765494</v>
       </c>
       <c r="BB44" s="11">
-        <v>5765494</v>
+        <v>6832748</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>60</v>
       </c>
@@ -5453,157 +5418,157 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>4152178</v>
+        <v>2665055</v>
       </c>
       <c r="F45" s="13">
-        <v>2665055</v>
+        <v>6214031</v>
       </c>
       <c r="G45" s="13">
-        <v>6214031</v>
+        <v>6648979</v>
       </c>
       <c r="H45" s="13">
-        <v>6648979</v>
+        <v>6140884</v>
       </c>
       <c r="I45" s="13">
-        <v>6140884</v>
+        <v>6821816</v>
       </c>
       <c r="J45" s="13">
-        <v>6821816</v>
+        <v>5395769</v>
       </c>
       <c r="K45" s="13">
-        <v>5395769</v>
+        <v>5605528</v>
       </c>
       <c r="L45" s="13">
-        <v>5605528</v>
+        <v>7072596</v>
       </c>
       <c r="M45" s="13">
-        <v>7072596</v>
+        <v>6820336</v>
       </c>
       <c r="N45" s="13">
-        <v>6820336</v>
+        <v>6294139</v>
       </c>
       <c r="O45" s="13">
-        <v>6294139</v>
+        <v>7707851</v>
       </c>
       <c r="P45" s="13">
-        <v>7707851</v>
+        <v>6614578</v>
       </c>
       <c r="Q45" s="13">
-        <v>6614578</v>
+        <v>7155159</v>
       </c>
       <c r="R45" s="13">
-        <v>7155159</v>
+        <v>7025593</v>
       </c>
       <c r="S45" s="13">
-        <v>7025593</v>
+        <v>7688409</v>
       </c>
       <c r="T45" s="13">
-        <v>7688409</v>
+        <v>7305495</v>
       </c>
       <c r="U45" s="13">
-        <v>7305495</v>
+        <v>7542576</v>
       </c>
       <c r="V45" s="13">
-        <v>7542576</v>
+        <v>5237042</v>
       </c>
       <c r="W45" s="13">
-        <v>5237042</v>
+        <v>6620214</v>
       </c>
       <c r="X45" s="13">
-        <v>6620214</v>
+        <v>10239418</v>
       </c>
       <c r="Y45" s="13">
-        <v>10239418</v>
+        <v>11269325</v>
       </c>
       <c r="Z45" s="13">
-        <v>11269325</v>
+        <v>12926683</v>
       </c>
       <c r="AA45" s="13">
-        <v>12926683</v>
+        <v>10609866</v>
       </c>
       <c r="AB45" s="13">
-        <v>10609866</v>
+        <v>13008132</v>
       </c>
       <c r="AC45" s="13">
-        <v>13008132</v>
+        <v>16671971</v>
       </c>
       <c r="AD45" s="13">
-        <v>16671971</v>
+        <v>14780366</v>
       </c>
       <c r="AE45" s="13">
-        <v>14780366</v>
+        <v>19914714</v>
       </c>
       <c r="AF45" s="13">
-        <v>19914714</v>
+        <v>19578474</v>
       </c>
       <c r="AG45" s="13">
-        <v>19578474</v>
+        <v>18740573</v>
       </c>
       <c r="AH45" s="13">
-        <v>18740573</v>
+        <v>21123134</v>
       </c>
       <c r="AI45" s="13">
-        <v>21123134</v>
+        <v>22195484</v>
       </c>
       <c r="AJ45" s="13">
-        <v>22195484</v>
+        <v>25120361</v>
       </c>
       <c r="AK45" s="13">
-        <v>25120361</v>
+        <v>23499295</v>
       </c>
       <c r="AL45" s="13">
-        <v>23499295</v>
+        <v>28115653</v>
       </c>
       <c r="AM45" s="13">
-        <v>28115653</v>
+        <v>27338079</v>
       </c>
       <c r="AN45" s="13">
-        <v>27338079</v>
+        <v>30934752</v>
       </c>
       <c r="AO45" s="13">
-        <v>30934752</v>
+        <v>28957328</v>
       </c>
       <c r="AP45" s="13">
-        <v>28957328</v>
+        <v>30704180</v>
       </c>
       <c r="AQ45" s="13">
-        <v>30704180</v>
+        <v>31198491</v>
       </c>
       <c r="AR45" s="13">
-        <v>31198491</v>
+        <v>27174403</v>
       </c>
       <c r="AS45" s="13">
-        <v>27174403</v>
+        <v>30372557</v>
       </c>
       <c r="AT45" s="13">
-        <v>30372557</v>
+        <v>28262693</v>
       </c>
       <c r="AU45" s="13">
-        <v>28262693</v>
+        <v>28215166</v>
       </c>
       <c r="AV45" s="13">
-        <v>28215166</v>
+        <v>29878691</v>
       </c>
       <c r="AW45" s="13">
-        <v>29878691</v>
+        <v>29328796</v>
       </c>
       <c r="AX45" s="13">
-        <v>29328796</v>
+        <v>26010864</v>
       </c>
       <c r="AY45" s="13">
-        <v>26010864</v>
+        <v>25324276</v>
       </c>
       <c r="AZ45" s="13">
-        <v>25324276</v>
+        <v>29530786</v>
       </c>
       <c r="BA45" s="13">
-        <v>29530786</v>
+        <v>28032905</v>
       </c>
       <c r="BB45" s="13">
-        <v>28032905</v>
+        <v>27105111</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>69</v>
       </c>
@@ -5660,7 +5625,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>55</v>
       </c>
@@ -5731,8 +5696,8 @@
       <c r="Y47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z47" s="11" t="s">
-        <v>57</v>
+      <c r="Z47" s="11">
+        <v>0</v>
       </c>
       <c r="AA47" s="11">
         <v>0</v>
@@ -5758,8 +5723,8 @@
       <c r="AH47" s="11">
         <v>0</v>
       </c>
-      <c r="AI47" s="11">
-        <v>0</v>
+      <c r="AI47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ47" s="11" t="s">
         <v>57</v>
@@ -5819,7 +5784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>62</v>
       </c>
@@ -5890,8 +5855,8 @@
       <c r="Y48" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Z48" s="15" t="s">
-        <v>57</v>
+      <c r="Z48" s="15">
+        <v>0</v>
       </c>
       <c r="AA48" s="15">
         <v>0</v>
@@ -5978,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>70</v>
       </c>
@@ -6035,7 +6000,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>55</v>
       </c>
@@ -6106,8 +6071,8 @@
       <c r="Y50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z50" s="11" t="s">
-        <v>57</v>
+      <c r="Z50" s="11">
+        <v>0</v>
       </c>
       <c r="AA50" s="11">
         <v>0</v>
@@ -6133,8 +6098,8 @@
       <c r="AH50" s="11">
         <v>0</v>
       </c>
-      <c r="AI50" s="11">
-        <v>0</v>
+      <c r="AI50" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ50" s="11" t="s">
         <v>57</v>
@@ -6194,7 +6159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>66</v>
       </c>
@@ -6265,8 +6230,8 @@
       <c r="Y51" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Z51" s="15" t="s">
-        <v>57</v>
+      <c r="Z51" s="15">
+        <v>0</v>
       </c>
       <c r="AA51" s="15">
         <v>0</v>
@@ -6353,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>71</v>
       </c>
@@ -6410,7 +6375,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>72</v>
       </c>
@@ -6481,8 +6446,8 @@
       <c r="Y53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z53" s="11" t="s">
-        <v>57</v>
+      <c r="Z53" s="11">
+        <v>0</v>
       </c>
       <c r="AA53" s="11">
         <v>0</v>
@@ -6569,164 +6534,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>16562328</v>
+        <v>13915470</v>
       </c>
       <c r="F54" s="15">
-        <v>13915470</v>
+        <v>27192210</v>
       </c>
       <c r="G54" s="15">
-        <v>27192210</v>
+        <v>22309881</v>
       </c>
       <c r="H54" s="15">
-        <v>22309881</v>
+        <v>20152741</v>
       </c>
       <c r="I54" s="15">
-        <v>20152741</v>
+        <v>26144301</v>
       </c>
       <c r="J54" s="15">
-        <v>26144301</v>
+        <v>26285207</v>
       </c>
       <c r="K54" s="15">
-        <v>26285207</v>
+        <v>23261542</v>
       </c>
       <c r="L54" s="15">
-        <v>23261542</v>
+        <v>35223799</v>
       </c>
       <c r="M54" s="15">
-        <v>35223799</v>
+        <v>37461519</v>
       </c>
       <c r="N54" s="15">
-        <v>37461519</v>
+        <v>35232544</v>
       </c>
       <c r="O54" s="15">
-        <v>35232544</v>
+        <v>32710128</v>
       </c>
       <c r="P54" s="15">
-        <v>32710128</v>
+        <v>36447958</v>
       </c>
       <c r="Q54" s="15">
-        <v>36447958</v>
+        <v>34083949</v>
       </c>
       <c r="R54" s="15">
-        <v>34083949</v>
+        <v>32362216</v>
       </c>
       <c r="S54" s="15">
-        <v>32362216</v>
+        <v>29345860</v>
       </c>
       <c r="T54" s="15">
-        <v>29345860</v>
+        <v>31822531</v>
       </c>
       <c r="U54" s="15">
-        <v>31822531</v>
+        <v>37989087</v>
       </c>
       <c r="V54" s="15">
-        <v>37989087</v>
+        <v>25496419</v>
       </c>
       <c r="W54" s="15">
-        <v>25496419</v>
+        <v>25826273</v>
       </c>
       <c r="X54" s="15">
-        <v>25826273</v>
+        <v>51689755</v>
       </c>
       <c r="Y54" s="15">
-        <v>51689755</v>
+        <v>49169256</v>
       </c>
       <c r="Z54" s="15">
-        <v>49169256</v>
+        <v>48844204</v>
       </c>
       <c r="AA54" s="15">
-        <v>48844204</v>
+        <v>42913621</v>
       </c>
       <c r="AB54" s="15">
-        <v>42913621</v>
+        <v>55101151</v>
       </c>
       <c r="AC54" s="15">
-        <v>55101151</v>
+        <v>67348088</v>
       </c>
       <c r="AD54" s="15">
-        <v>67348088</v>
+        <v>75216101</v>
       </c>
       <c r="AE54" s="15">
-        <v>75216101</v>
+        <v>78370436</v>
       </c>
       <c r="AF54" s="15">
-        <v>78370436</v>
+        <v>84724117</v>
       </c>
       <c r="AG54" s="15">
-        <v>84724117</v>
+        <v>83653566</v>
       </c>
       <c r="AH54" s="15">
-        <v>83653566</v>
+        <v>111106419</v>
       </c>
       <c r="AI54" s="15">
-        <v>111106419</v>
+        <v>90854065</v>
       </c>
       <c r="AJ54" s="15">
-        <v>90854065</v>
+        <v>124500980</v>
       </c>
       <c r="AK54" s="15">
-        <v>124500980</v>
+        <v>121298880</v>
       </c>
       <c r="AL54" s="15">
-        <v>121298880</v>
+        <v>114212036</v>
       </c>
       <c r="AM54" s="15">
-        <v>114212036</v>
+        <v>89402622</v>
       </c>
       <c r="AN54" s="15">
-        <v>89402622</v>
+        <v>120578768</v>
       </c>
       <c r="AO54" s="15">
-        <v>120578768</v>
+        <v>126484725</v>
       </c>
       <c r="AP54" s="15">
-        <v>126484725</v>
+        <v>127066952</v>
       </c>
       <c r="AQ54" s="15">
-        <v>127066952</v>
+        <v>135292297</v>
       </c>
       <c r="AR54" s="15">
-        <v>135292297</v>
+        <v>132919081</v>
       </c>
       <c r="AS54" s="15">
-        <v>132919081</v>
+        <v>294586208</v>
       </c>
       <c r="AT54" s="15">
-        <v>127470667</v>
+        <v>146185417</v>
       </c>
       <c r="AU54" s="15">
-        <v>146185417</v>
+        <v>120678354</v>
       </c>
       <c r="AV54" s="15">
-        <v>120678354</v>
+        <v>173500478</v>
       </c>
       <c r="AW54" s="15">
-        <v>173500478</v>
+        <v>187316082</v>
       </c>
       <c r="AX54" s="15">
-        <v>187316082</v>
+        <v>121656486</v>
       </c>
       <c r="AY54" s="15">
-        <v>121656486</v>
+        <v>102344184</v>
       </c>
       <c r="AZ54" s="15">
-        <v>102344184</v>
+        <v>98064186</v>
       </c>
       <c r="BA54" s="15">
-        <v>98064186</v>
+        <v>107258106</v>
       </c>
       <c r="BB54" s="15">
-        <v>107258109</v>
+        <v>114094126</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6781,7 +6746,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6836,7 +6801,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6891,7 +6856,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>73</v>
       </c>
@@ -7048,7 +7013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7103,7 +7068,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>74</v>
       </c>
@@ -7160,7 +7125,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>55</v>
       </c>
@@ -7169,157 +7134,157 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>26373000000</v>
+        <v>25339428571</v>
       </c>
       <c r="F61" s="11">
-        <v>25339428571</v>
+        <v>33043533333</v>
       </c>
       <c r="G61" s="11">
-        <v>33043533333</v>
+        <v>38574500000</v>
       </c>
       <c r="H61" s="11">
-        <v>38574500000</v>
+        <v>39079142857</v>
       </c>
       <c r="I61" s="11">
-        <v>39079142857</v>
+        <v>32637000000</v>
       </c>
       <c r="J61" s="11">
-        <v>32637000000</v>
+        <v>33080622222</v>
       </c>
       <c r="K61" s="11">
-        <v>33080622222</v>
+        <v>34754125000</v>
       </c>
       <c r="L61" s="11">
-        <v>34754125000</v>
+        <v>38488050000</v>
       </c>
       <c r="M61" s="11">
-        <v>38488050000</v>
+        <v>40833781955</v>
       </c>
       <c r="N61" s="11">
-        <v>40833781955</v>
+        <v>43304937500</v>
       </c>
       <c r="O61" s="11">
-        <v>43304937500</v>
+        <v>44483520000</v>
       </c>
       <c r="P61" s="11">
-        <v>44483520000</v>
+        <v>41567746575</v>
       </c>
       <c r="Q61" s="11">
-        <v>41567746575</v>
+        <v>40968947368</v>
       </c>
       <c r="R61" s="11">
-        <v>40968947368</v>
+        <v>39393282759</v>
       </c>
       <c r="S61" s="11">
-        <v>39393282759</v>
+        <v>39599000000</v>
       </c>
       <c r="T61" s="11">
-        <v>39599000000</v>
+        <v>42405773050</v>
       </c>
       <c r="U61" s="11">
-        <v>42405773050</v>
+        <v>45380150259</v>
       </c>
       <c r="V61" s="11">
-        <v>45380150259</v>
+        <v>45416516949</v>
       </c>
       <c r="W61" s="11">
-        <v>45416516949</v>
+        <v>55183518519</v>
       </c>
       <c r="X61" s="11">
-        <v>55183518519</v>
+        <v>56430859259</v>
       </c>
       <c r="Y61" s="11">
-        <v>56430859259</v>
+        <v>59074340136</v>
       </c>
       <c r="Z61" s="11">
-        <v>59074340136</v>
+        <v>59631872000</v>
       </c>
       <c r="AA61" s="11">
-        <v>59631872000</v>
+        <v>79758161290</v>
       </c>
       <c r="AB61" s="11">
-        <v>79758161290</v>
+        <v>74270857143</v>
       </c>
       <c r="AC61" s="11">
-        <v>74270857143</v>
+        <v>94046065217</v>
       </c>
       <c r="AD61" s="11">
-        <v>94046065217</v>
+        <v>95832156977</v>
       </c>
       <c r="AE61" s="11">
-        <v>95832156977</v>
+        <v>114864901639</v>
       </c>
       <c r="AF61" s="11">
-        <v>114864901639</v>
+        <v>123156875912</v>
       </c>
       <c r="AG61" s="11">
-        <v>123156875912</v>
+        <v>121413693069</v>
       </c>
       <c r="AH61" s="11">
-        <v>121413693069</v>
+        <v>131277181159</v>
       </c>
       <c r="AI61" s="11">
-        <v>131277181159</v>
+        <v>136793142857</v>
       </c>
       <c r="AJ61" s="11">
-        <v>136793142857</v>
+        <v>134420607330</v>
       </c>
       <c r="AK61" s="11">
-        <v>134420607330</v>
+        <v>135279613734</v>
       </c>
       <c r="AL61" s="11">
-        <v>135279613734</v>
+        <v>153710220126</v>
       </c>
       <c r="AM61" s="11">
-        <v>153710220126</v>
+        <v>153490779661</v>
       </c>
       <c r="AN61" s="11">
-        <v>153490779661</v>
+        <v>153596937500</v>
       </c>
       <c r="AO61" s="11">
-        <v>153596937500</v>
+        <v>165851480620</v>
       </c>
       <c r="AP61" s="11">
-        <v>165851480620</v>
+        <v>146189016129</v>
       </c>
       <c r="AQ61" s="11">
-        <v>146189016129</v>
+        <v>161530714286</v>
       </c>
       <c r="AR61" s="11">
-        <v>161530714286</v>
-      </c>
-      <c r="AS61" s="11">
         <v>164045579710</v>
       </c>
-      <c r="AT61" s="11">
-        <v>151405523810</v>
-      </c>
-      <c r="AU61" s="11" t="s">
-        <v>57</v>
+      <c r="AS61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU61" s="11">
+        <v>157470761194</v>
       </c>
       <c r="AV61" s="11">
-        <v>157470761194</v>
+        <v>157424783326</v>
       </c>
       <c r="AW61" s="11">
-        <v>157424783326</v>
+        <v>159147876817</v>
       </c>
       <c r="AX61" s="11">
-        <v>159147876817</v>
+        <v>180844382905</v>
       </c>
       <c r="AY61" s="11">
-        <v>180844382905</v>
+        <v>147223413793</v>
       </c>
       <c r="AZ61" s="11">
-        <v>147223413793</v>
+        <v>154823311111</v>
       </c>
       <c r="BA61" s="11">
-        <v>154823311111</v>
+        <v>159744236842</v>
       </c>
       <c r="BB61" s="11">
-        <v>159744236842</v>
+        <v>128625058140</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>58</v>
       </c>
@@ -7328,157 +7293,157 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>30497597222</v>
+        <v>36390775439</v>
       </c>
       <c r="F62" s="13">
-        <v>36390775439</v>
+        <v>37425924453</v>
       </c>
       <c r="G62" s="13">
-        <v>37425924453</v>
+        <v>41648587248</v>
       </c>
       <c r="H62" s="13">
-        <v>41648587248</v>
+        <v>45828087866</v>
       </c>
       <c r="I62" s="13">
-        <v>45828087866</v>
+        <v>41470479784</v>
       </c>
       <c r="J62" s="13">
-        <v>41470479784</v>
+        <v>41781645631</v>
       </c>
       <c r="K62" s="13">
-        <v>41781645631</v>
+        <v>44402133987</v>
       </c>
       <c r="L62" s="13">
-        <v>44402133987</v>
+        <v>46835741107</v>
       </c>
       <c r="M62" s="13">
-        <v>46835741107</v>
+        <v>51899022573</v>
       </c>
       <c r="N62" s="13">
-        <v>51899022573</v>
+        <v>54566297368</v>
       </c>
       <c r="O62" s="13">
-        <v>54566297368</v>
+        <v>52379128272</v>
       </c>
       <c r="P62" s="13">
-        <v>52379128272</v>
+        <v>50781768116</v>
       </c>
       <c r="Q62" s="13">
-        <v>50781768116</v>
+        <v>49079002513</v>
       </c>
       <c r="R62" s="13">
-        <v>49079002513</v>
+        <v>47683649718</v>
       </c>
       <c r="S62" s="13">
-        <v>47683649718</v>
+        <v>47400332143</v>
       </c>
       <c r="T62" s="13">
-        <v>47400332143</v>
+        <v>47784200599</v>
       </c>
       <c r="U62" s="13">
-        <v>47784200599</v>
+        <v>49941232737</v>
       </c>
       <c r="V62" s="13">
-        <v>49941232737</v>
+        <v>52601884000</v>
       </c>
       <c r="W62" s="13">
-        <v>52601884000</v>
+        <v>53130656827</v>
       </c>
       <c r="X62" s="13">
-        <v>53130656827</v>
+        <v>56523448980</v>
       </c>
       <c r="Y62" s="13">
-        <v>56523448980</v>
+        <v>59573253425</v>
       </c>
       <c r="Z62" s="13">
-        <v>59573253425</v>
+        <v>67020181818</v>
       </c>
       <c r="AA62" s="13">
-        <v>67020181818</v>
+        <v>74637582043</v>
       </c>
       <c r="AB62" s="13">
-        <v>74637582043</v>
+        <v>82870252577</v>
       </c>
       <c r="AC62" s="13">
-        <v>82870252577</v>
+        <v>95011432292</v>
       </c>
       <c r="AD62" s="13">
-        <v>95011432292</v>
+        <v>108414695890</v>
       </c>
       <c r="AE62" s="13">
-        <v>108414695890</v>
+        <v>121158180124</v>
       </c>
       <c r="AF62" s="13">
-        <v>121158180124</v>
+        <v>126838935583</v>
       </c>
       <c r="AG62" s="13">
-        <v>126838935583</v>
+        <v>131221183844</v>
       </c>
       <c r="AH62" s="13">
-        <v>131221183844</v>
+        <v>147395667401</v>
       </c>
       <c r="AI62" s="13">
-        <v>147395667401</v>
+        <v>165169488024</v>
       </c>
       <c r="AJ62" s="13">
-        <v>165169488024</v>
+        <v>171515746835</v>
       </c>
       <c r="AK62" s="13">
-        <v>171515746835</v>
+        <v>177050080597</v>
       </c>
       <c r="AL62" s="13">
-        <v>177050080597</v>
+        <v>182525156146</v>
       </c>
       <c r="AM62" s="13">
-        <v>182525156146</v>
+        <v>196622665254</v>
       </c>
       <c r="AN62" s="13">
-        <v>196622665254</v>
+        <v>206047483871</v>
       </c>
       <c r="AO62" s="13">
-        <v>206047483871</v>
+        <v>209075247761</v>
       </c>
       <c r="AP62" s="13">
-        <v>209075247761</v>
+        <v>214848072581</v>
       </c>
       <c r="AQ62" s="13">
-        <v>214848072581</v>
+        <v>209962012788</v>
       </c>
       <c r="AR62" s="13">
-        <v>209962012788</v>
+        <v>213596756281</v>
       </c>
       <c r="AS62" s="13">
-        <v>213596756281</v>
+        <v>193722178450</v>
       </c>
       <c r="AT62" s="13">
-        <v>205427252717</v>
+        <v>174153933014</v>
       </c>
       <c r="AU62" s="13">
-        <v>174153933014</v>
+        <v>198533386059</v>
       </c>
       <c r="AV62" s="13">
-        <v>198533386059</v>
+        <v>203246957537</v>
       </c>
       <c r="AW62" s="13">
-        <v>203246957537</v>
+        <v>210268360500</v>
       </c>
       <c r="AX62" s="13">
-        <v>210268360500</v>
+        <v>201455690433</v>
       </c>
       <c r="AY62" s="13">
-        <v>201455690433</v>
+        <v>195812489552</v>
       </c>
       <c r="AZ62" s="13">
-        <v>195812489552</v>
+        <v>180847013158</v>
       </c>
       <c r="BA62" s="13">
-        <v>180847013158</v>
+        <v>174584011884</v>
       </c>
       <c r="BB62" s="13">
-        <v>174584012953</v>
+        <v>170183527094</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>59</v>
       </c>
@@ -7487,157 +7452,157 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>45340250000</v>
+        <v>53974461538</v>
       </c>
       <c r="F63" s="11">
-        <v>53974461538</v>
+        <v>61380962963</v>
       </c>
       <c r="G63" s="11">
-        <v>61380962963</v>
+        <v>71972821429</v>
       </c>
       <c r="H63" s="11">
-        <v>71972821429</v>
+        <v>89708428571</v>
       </c>
       <c r="I63" s="11">
-        <v>89708428571</v>
+        <v>86981560000</v>
       </c>
       <c r="J63" s="11">
-        <v>86981560000</v>
+        <v>87470880000</v>
       </c>
       <c r="K63" s="11">
-        <v>87470880000</v>
+        <v>87842714286</v>
       </c>
       <c r="L63" s="11">
-        <v>87842714286</v>
+        <v>97410681818</v>
       </c>
       <c r="M63" s="11">
-        <v>97410681818</v>
+        <v>100864681818</v>
       </c>
       <c r="N63" s="11">
-        <v>100864681818</v>
+        <v>106407200000</v>
       </c>
       <c r="O63" s="11">
-        <v>106407200000</v>
+        <v>125876090909</v>
       </c>
       <c r="P63" s="11">
-        <v>125876090909</v>
+        <v>119166826087</v>
       </c>
       <c r="Q63" s="11">
-        <v>119166826087</v>
+        <v>118473347826</v>
       </c>
       <c r="R63" s="11">
-        <v>118473347826</v>
+        <v>109783400000</v>
       </c>
       <c r="S63" s="11">
-        <v>109783400000</v>
+        <v>106989870968</v>
       </c>
       <c r="T63" s="11">
-        <v>106989870968</v>
+        <v>103115960000</v>
       </c>
       <c r="U63" s="11">
-        <v>103115960000</v>
+        <v>102910476190</v>
       </c>
       <c r="V63" s="11">
-        <v>102910476190</v>
+        <v>102926882353</v>
       </c>
       <c r="W63" s="11">
-        <v>102926882353</v>
+        <v>101541166667</v>
       </c>
       <c r="X63" s="11">
-        <v>101541166667</v>
+        <v>116070068966</v>
       </c>
       <c r="Y63" s="11">
-        <v>116070068966</v>
+        <v>115663629630</v>
       </c>
       <c r="Z63" s="11">
-        <v>115663629630</v>
+        <v>121356750000</v>
       </c>
       <c r="AA63" s="11">
-        <v>121356750000</v>
+        <v>120400370370</v>
       </c>
       <c r="AB63" s="11">
-        <v>120400370370</v>
+        <v>137059592593</v>
       </c>
       <c r="AC63" s="11">
-        <v>137059592593</v>
+        <v>145776026316</v>
       </c>
       <c r="AD63" s="11">
-        <v>145776026316</v>
+        <v>175249600000</v>
       </c>
       <c r="AE63" s="11">
-        <v>175249600000</v>
+        <v>187216206897</v>
       </c>
       <c r="AF63" s="11">
-        <v>187216206897</v>
+        <v>187125891892</v>
       </c>
       <c r="AG63" s="11">
-        <v>187125891892</v>
+        <v>221672200000</v>
       </c>
       <c r="AH63" s="11">
-        <v>221672200000</v>
+        <v>224972772727</v>
       </c>
       <c r="AI63" s="11">
-        <v>224972772727</v>
+        <v>233262240000</v>
       </c>
       <c r="AJ63" s="11">
-        <v>233262240000</v>
+        <v>229137038462</v>
       </c>
       <c r="AK63" s="11">
-        <v>229137038462</v>
+        <v>240264068966</v>
       </c>
       <c r="AL63" s="11">
-        <v>240264068966</v>
+        <v>248755037037</v>
       </c>
       <c r="AM63" s="11">
-        <v>248755037037</v>
+        <v>264225520000</v>
       </c>
       <c r="AN63" s="11">
-        <v>264225520000</v>
+        <v>283762760000</v>
       </c>
       <c r="AO63" s="11">
-        <v>283762760000</v>
+        <v>304617400000</v>
       </c>
       <c r="AP63" s="11">
-        <v>304617400000</v>
+        <v>295022800000</v>
       </c>
       <c r="AQ63" s="11">
-        <v>295022800000</v>
+        <v>291974560000</v>
       </c>
       <c r="AR63" s="11">
-        <v>291974560000</v>
+        <v>294188250000</v>
       </c>
       <c r="AS63" s="11">
-        <v>294188250000</v>
+        <v>293699355606</v>
       </c>
       <c r="AT63" s="11">
-        <v>292760566667</v>
+        <v>290940266667</v>
       </c>
       <c r="AU63" s="11">
-        <v>290940266667</v>
+        <v>314387760000</v>
       </c>
       <c r="AV63" s="11">
-        <v>314387760000</v>
+        <v>305810687500</v>
       </c>
       <c r="AW63" s="11">
-        <v>305810687500</v>
+        <v>288264833333</v>
       </c>
       <c r="AX63" s="11">
-        <v>288264833333</v>
+        <v>306628671711</v>
       </c>
       <c r="AY63" s="11">
-        <v>306628671711</v>
+        <v>298051875000</v>
       </c>
       <c r="AZ63" s="11">
-        <v>298051875000</v>
+        <v>299493590909</v>
       </c>
       <c r="BA63" s="11">
-        <v>299493590909</v>
+        <v>320305222222</v>
       </c>
       <c r="BB63" s="11">
-        <v>320305222222</v>
+        <v>297076000000</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>60</v>
       </c>
@@ -7646,157 +7611,157 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>31696015267</v>
+        <v>34611103896</v>
       </c>
       <c r="F64" s="13">
-        <v>34611103896</v>
+        <v>41986695946</v>
       </c>
       <c r="G64" s="13">
-        <v>41986695946</v>
+        <v>47492707143</v>
       </c>
       <c r="H64" s="13">
-        <v>47492707143</v>
+        <v>56338385321</v>
       </c>
       <c r="I64" s="13">
-        <v>56338385321</v>
+        <v>51291849624</v>
       </c>
       <c r="J64" s="13">
-        <v>51291849624</v>
+        <v>50427747664</v>
       </c>
       <c r="K64" s="13">
-        <v>50427747664</v>
+        <v>50049357143</v>
       </c>
       <c r="L64" s="13">
-        <v>50049357143</v>
+        <v>51624788321</v>
       </c>
       <c r="M64" s="13">
-        <v>51624788321</v>
+        <v>53703433071</v>
       </c>
       <c r="N64" s="13">
-        <v>53703433071</v>
+        <v>57219445455</v>
       </c>
       <c r="O64" s="13">
-        <v>57219445455</v>
+        <v>59750782946</v>
       </c>
       <c r="P64" s="13">
-        <v>59750782946</v>
+        <v>59590792793</v>
       </c>
       <c r="Q64" s="13">
-        <v>59590792793</v>
+        <v>58172024390</v>
       </c>
       <c r="R64" s="13">
-        <v>58172024390</v>
+        <v>57118642276</v>
       </c>
       <c r="S64" s="13">
-        <v>57118642276</v>
+        <v>57376186567</v>
       </c>
       <c r="T64" s="13">
-        <v>57376186567</v>
+        <v>57074179688</v>
       </c>
       <c r="U64" s="13">
-        <v>57074179688</v>
+        <v>59861714286</v>
       </c>
       <c r="V64" s="13">
-        <v>59861714286</v>
+        <v>62345738095</v>
       </c>
       <c r="W64" s="13">
-        <v>62345738095</v>
+        <v>70427808511</v>
       </c>
       <c r="X64" s="13">
-        <v>70427808511</v>
+        <v>77571348485</v>
       </c>
       <c r="Y64" s="13">
-        <v>77571348485</v>
+        <v>81661775362</v>
       </c>
       <c r="Z64" s="13">
-        <v>81661775362</v>
+        <v>86756261745</v>
       </c>
       <c r="AA64" s="13">
-        <v>86756261745</v>
+        <v>93892619469</v>
       </c>
       <c r="AB64" s="13">
-        <v>93892619469</v>
+        <v>108401100000</v>
       </c>
       <c r="AC64" s="13">
-        <v>108401100000</v>
+        <v>126302810606</v>
       </c>
       <c r="AD64" s="13">
-        <v>126302810606</v>
+        <v>134366963636</v>
       </c>
       <c r="AE64" s="13">
-        <v>134366963636</v>
+        <v>146431720588</v>
       </c>
       <c r="AF64" s="13">
-        <v>146431720588</v>
+        <v>156627792000</v>
       </c>
       <c r="AG64" s="13">
-        <v>156627792000</v>
+        <v>167326544643</v>
       </c>
       <c r="AH64" s="13">
-        <v>167326544643</v>
+        <v>180539606838</v>
       </c>
       <c r="AI64" s="13">
-        <v>180539606838</v>
+        <v>194697228070</v>
       </c>
       <c r="AJ64" s="13">
-        <v>194697228070</v>
+        <v>200962888000</v>
       </c>
       <c r="AK64" s="13">
-        <v>200962888000</v>
+        <v>207958362832</v>
       </c>
       <c r="AL64" s="13">
-        <v>207958362832</v>
+        <v>224925224000</v>
       </c>
       <c r="AM64" s="13">
-        <v>224925224000</v>
+        <v>233658794872</v>
       </c>
       <c r="AN64" s="13">
-        <v>233658794872</v>
+        <v>239804279070</v>
       </c>
       <c r="AO64" s="13">
-        <v>239804279070</v>
+        <v>241311066667</v>
       </c>
       <c r="AP64" s="13">
-        <v>241311066667</v>
+        <v>241765196850</v>
       </c>
       <c r="AQ64" s="13">
-        <v>241765196850</v>
+        <v>239988392308</v>
       </c>
       <c r="AR64" s="13">
-        <v>239988392308</v>
+        <v>242628598214</v>
       </c>
       <c r="AS64" s="13">
-        <v>242628598214</v>
+        <v>242638527098</v>
       </c>
       <c r="AT64" s="13">
-        <v>242980456000</v>
+        <v>235522441667</v>
       </c>
       <c r="AU64" s="13">
-        <v>235522441667</v>
+        <v>235126383333</v>
       </c>
       <c r="AV64" s="13">
-        <v>235126383333</v>
+        <v>228081610687</v>
       </c>
       <c r="AW64" s="13">
-        <v>228081610687</v>
+        <v>229131218750</v>
       </c>
       <c r="AX64" s="13">
-        <v>229131218750</v>
+        <v>231300256339</v>
       </c>
       <c r="AY64" s="13">
-        <v>231300256339</v>
+        <v>234484037037</v>
       </c>
       <c r="AZ64" s="13">
-        <v>234484037037</v>
+        <v>230709265625</v>
       </c>
       <c r="BA64" s="13">
-        <v>230709265625</v>
+        <v>229777909836</v>
       </c>
       <c r="BB64" s="13">
-        <v>229777909836</v>
+        <v>229704330508</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>76</v>
       </c>
@@ -7853,7 +7818,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>55</v>
       </c>
@@ -7924,8 +7889,8 @@
       <c r="Y66" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z66" s="11" t="s">
-        <v>57</v>
+      <c r="Z66" s="11">
+        <v>0</v>
       </c>
       <c r="AA66" s="11">
         <v>0</v>
@@ -7951,8 +7916,8 @@
       <c r="AH66" s="11">
         <v>0</v>
       </c>
-      <c r="AI66" s="11">
-        <v>0</v>
+      <c r="AI66" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ66" s="11" t="s">
         <v>57</v>

--- a/database/industries/folad/folad/product/monthly.xlsx
+++ b/database/industries/folad/folad/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FE1E08-28CA-4605-833A-78CF2C0BE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -255,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,7 +443,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -454,7 +455,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -501,6 +502,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -536,6 +554,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,17 +722,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -752,7 +787,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -809,7 +844,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -866,7 +901,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -921,7 +956,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -978,7 +1013,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1035,7 +1070,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1090,7 +1125,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1302,7 +1337,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1394,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1368,157 +1403,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F11" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="11">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H11" s="11">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I11" s="11">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="J11" s="11">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="K11" s="11">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L11" s="11">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="M11" s="11">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="N11" s="11">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="O11" s="11">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="P11" s="11">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="11">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="R11" s="11">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="S11" s="11">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="T11" s="11">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="U11" s="11">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="V11" s="11">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="W11" s="11">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="X11" s="11">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Y11" s="11">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Z11" s="11">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="AA11" s="11">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="AB11" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC11" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD11" s="11">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="AE11" s="11">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="AF11" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AG11" s="11">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="AH11" s="11">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AI11" s="11">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AJ11" s="11">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="AK11" s="11">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="11">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="AM11" s="11">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AN11" s="11">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="AO11" s="11">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="AP11" s="11">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AQ11" s="11">
-        <v>59</v>
-      </c>
-      <c r="AR11" s="11">
         <v>81</v>
       </c>
+      <c r="AR11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AS11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT11" s="11" t="s">
-        <v>57</v>
+      <c r="AT11" s="11">
+        <v>228</v>
       </c>
       <c r="AU11" s="11">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="AV11" s="11">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AW11" s="11">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AX11" s="11">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AY11" s="11">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="AZ11" s="11">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="BA11" s="11">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="BB11" s="11">
-        <v>170</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1527,157 +1562,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>363</v>
+      </c>
+      <c r="F12" s="13">
+        <v>248</v>
+      </c>
+      <c r="G12" s="13">
+        <v>242</v>
+      </c>
+      <c r="H12" s="13">
+        <v>400</v>
+      </c>
+      <c r="I12" s="13">
+        <v>343</v>
+      </c>
+      <c r="J12" s="13">
+        <v>410</v>
+      </c>
+      <c r="K12" s="13">
+        <v>446</v>
+      </c>
+      <c r="L12" s="13">
+        <v>410</v>
+      </c>
+      <c r="M12" s="13">
+        <v>399</v>
+      </c>
+      <c r="N12" s="13">
+        <v>401</v>
+      </c>
+      <c r="O12" s="13">
+        <v>434</v>
+      </c>
+      <c r="P12" s="13">
+        <v>340</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>345</v>
+      </c>
+      <c r="R12" s="13">
+        <v>312</v>
+      </c>
+      <c r="S12" s="13">
+        <v>354</v>
+      </c>
+      <c r="T12" s="13">
+        <v>329</v>
+      </c>
+      <c r="U12" s="13">
+        <v>364</v>
+      </c>
+      <c r="V12" s="13">
+        <v>424</v>
+      </c>
+      <c r="W12" s="13">
+        <v>456</v>
+      </c>
+      <c r="X12" s="13">
+        <v>343</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>392</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>367</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>421</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>310</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>357</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>283</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>364</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>380</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>402</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>406</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>457</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>287</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>234</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>222</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>323</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>342</v>
+      </c>
+      <c r="AO12" s="13">
         <v>386</v>
       </c>
-      <c r="F12" s="13">
-        <v>363</v>
-      </c>
-      <c r="G12" s="13">
-        <v>248</v>
-      </c>
-      <c r="H12" s="13">
-        <v>242</v>
-      </c>
-      <c r="I12" s="13">
-        <v>400</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="AP12" s="13">
+        <v>401</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>380</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>1542</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>555</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>485</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>470</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>467</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>353</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>282</v>
+      </c>
+      <c r="AY12" s="13">
         <v>343</v>
       </c>
-      <c r="K12" s="13">
-        <v>410</v>
-      </c>
-      <c r="L12" s="13">
-        <v>446</v>
-      </c>
-      <c r="M12" s="13">
-        <v>410</v>
-      </c>
-      <c r="N12" s="13">
-        <v>399</v>
-      </c>
-      <c r="O12" s="13">
-        <v>401</v>
-      </c>
-      <c r="P12" s="13">
-        <v>434</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>340</v>
-      </c>
-      <c r="R12" s="13">
-        <v>345</v>
-      </c>
-      <c r="S12" s="13">
-        <v>312</v>
-      </c>
-      <c r="T12" s="13">
-        <v>354</v>
-      </c>
-      <c r="U12" s="13">
-        <v>329</v>
-      </c>
-      <c r="V12" s="13">
-        <v>364</v>
-      </c>
-      <c r="W12" s="13">
-        <v>424</v>
-      </c>
-      <c r="X12" s="13">
-        <v>456</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>343</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>392</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>368</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>412</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>309</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>358</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>288</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>364</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>381</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>402</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>407</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>457</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>288</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>234</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>222</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>323</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>342</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>386</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>400</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>380</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>1542</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>555</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>485</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>470</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>467</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>353</v>
-      </c>
-      <c r="AY12" s="13">
-        <v>282</v>
-      </c>
       <c r="AZ12" s="13">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="BA12" s="13">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="BB12" s="13">
-        <v>415</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1689,40 +1724,40 @@
         <v>23</v>
       </c>
       <c r="F13" s="11">
+        <v>24</v>
+      </c>
+      <c r="G13" s="11">
+        <v>25</v>
+      </c>
+      <c r="H13" s="11">
         <v>23</v>
-      </c>
-      <c r="G13" s="11">
-        <v>24</v>
-      </c>
-      <c r="H13" s="11">
-        <v>25</v>
       </c>
       <c r="I13" s="11">
         <v>23</v>
       </c>
       <c r="J13" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" s="11">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L13" s="11">
         <v>26</v>
       </c>
       <c r="M13" s="11">
+        <v>24</v>
+      </c>
+      <c r="N13" s="11">
+        <v>23</v>
+      </c>
+      <c r="O13" s="11">
+        <v>22</v>
+      </c>
+      <c r="P13" s="11">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="11">
         <v>26</v>
-      </c>
-      <c r="N13" s="11">
-        <v>24</v>
-      </c>
-      <c r="O13" s="11">
-        <v>23</v>
-      </c>
-      <c r="P13" s="11">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>24</v>
       </c>
       <c r="R13" s="11">
         <v>26</v>
@@ -1731,112 +1766,112 @@
         <v>26</v>
       </c>
       <c r="T13" s="11">
+        <v>24</v>
+      </c>
+      <c r="U13" s="11">
+        <v>22</v>
+      </c>
+      <c r="V13" s="11">
+        <v>23</v>
+      </c>
+      <c r="W13" s="11">
         <v>26</v>
       </c>
-      <c r="U13" s="11">
+      <c r="X13" s="11">
+        <v>23</v>
+      </c>
+      <c r="Y13" s="11">
         <v>24</v>
       </c>
-      <c r="V13" s="11">
-        <v>22</v>
-      </c>
-      <c r="W13" s="11">
-        <v>23</v>
-      </c>
-      <c r="X13" s="11">
-        <v>26</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>23</v>
-      </c>
       <c r="Z13" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA13" s="11">
         <v>25</v>
       </c>
       <c r="AB13" s="11">
+        <v>24</v>
+      </c>
+      <c r="AC13" s="11">
         <v>26</v>
       </c>
-      <c r="AC13" s="11">
+      <c r="AD13" s="11">
         <v>25</v>
       </c>
-      <c r="AD13" s="11">
-        <v>26</v>
-      </c>
       <c r="AE13" s="11">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AF13" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG13" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH13" s="11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI13" s="11">
         <v>26</v>
       </c>
       <c r="AJ13" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK13" s="11">
         <v>26</v>
       </c>
       <c r="AL13" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM13" s="11">
+        <v>28</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>25</v>
+      </c>
+      <c r="AO13" s="11">
         <v>24</v>
       </c>
-      <c r="AN13" s="11">
+      <c r="AP13" s="11">
+        <v>23</v>
+      </c>
+      <c r="AQ13" s="11">
         <v>28</v>
       </c>
-      <c r="AO13" s="11">
-        <v>25</v>
-      </c>
-      <c r="AP13" s="11">
+      <c r="AR13" s="11">
+        <v>32</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>31</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>29</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>34</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>31</v>
+      </c>
+      <c r="AW13" s="11">
         <v>24</v>
       </c>
-      <c r="AQ13" s="11">
-        <v>25</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>29</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>32</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>31</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>29</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>34</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>31</v>
-      </c>
       <c r="AX13" s="11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AY13" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ13" s="11">
+        <v>20</v>
+      </c>
+      <c r="BA13" s="11">
+        <v>22</v>
+      </c>
+      <c r="BB13" s="11">
         <v>19</v>
       </c>
-      <c r="BA13" s="11">
-        <v>20</v>
-      </c>
-      <c r="BB13" s="11">
-        <v>21</v>
-      </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1845,157 +1880,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F14" s="13">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G14" s="13">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="H14" s="13">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="I14" s="13">
         <v>121</v>
       </c>
       <c r="J14" s="13">
+        <v>125</v>
+      </c>
+      <c r="K14" s="13">
+        <v>135</v>
+      </c>
+      <c r="L14" s="13">
+        <v>125</v>
+      </c>
+      <c r="M14" s="13">
+        <v>126</v>
+      </c>
+      <c r="N14" s="13">
+        <v>117</v>
+      </c>
+      <c r="O14" s="13">
         <v>121</v>
       </c>
-      <c r="K14" s="13">
+      <c r="P14" s="13">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>131</v>
+      </c>
+      <c r="R14" s="13">
+        <v>122</v>
+      </c>
+      <c r="S14" s="13">
+        <v>121</v>
+      </c>
+      <c r="T14" s="13">
         <v>125</v>
       </c>
-      <c r="L14" s="13">
-        <v>135</v>
-      </c>
-      <c r="M14" s="13">
+      <c r="U14" s="13">
+        <v>109</v>
+      </c>
+      <c r="V14" s="13">
+        <v>104</v>
+      </c>
+      <c r="W14" s="13">
         <v>125</v>
       </c>
-      <c r="N14" s="13">
-        <v>126</v>
-      </c>
-      <c r="O14" s="13">
-        <v>117</v>
-      </c>
-      <c r="P14" s="13">
+      <c r="X14" s="13">
+        <v>129</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>134</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>118</v>
+      </c>
+      <c r="AA14" s="13">
         <v>121</v>
       </c>
-      <c r="Q14" s="13">
-        <v>115</v>
-      </c>
-      <c r="R14" s="13">
-        <v>131</v>
-      </c>
-      <c r="S14" s="13">
+      <c r="AB14" s="13">
+        <v>124</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>120</v>
+      </c>
+      <c r="AD14" s="13">
         <v>122</v>
-      </c>
-      <c r="T14" s="13">
-        <v>121</v>
-      </c>
-      <c r="U14" s="13">
-        <v>125</v>
-      </c>
-      <c r="V14" s="13">
-        <v>109</v>
-      </c>
-      <c r="W14" s="13">
-        <v>104</v>
-      </c>
-      <c r="X14" s="13">
-        <v>125</v>
-      </c>
-      <c r="Y14" s="13">
-        <v>129</v>
-      </c>
-      <c r="Z14" s="13">
-        <v>134</v>
-      </c>
-      <c r="AA14" s="13">
-        <v>118</v>
-      </c>
-      <c r="AB14" s="13">
-        <v>121</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>124</v>
-      </c>
-      <c r="AD14" s="13">
-        <v>119</v>
       </c>
       <c r="AE14" s="13">
         <v>123</v>
       </c>
       <c r="AF14" s="13">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AG14" s="13">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AH14" s="13">
+        <v>119</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>131</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>119</v>
+      </c>
+      <c r="AK14" s="13">
         <v>116</v>
       </c>
-      <c r="AI14" s="13">
+      <c r="AL14" s="13">
+        <v>128</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>130</v>
+      </c>
+      <c r="AN14" s="13">
         <v>119</v>
       </c>
-      <c r="AJ14" s="13">
-        <v>130</v>
-      </c>
-      <c r="AK14" s="13">
+      <c r="AO14" s="13">
+        <v>124</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>132</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>120</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>128</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>120</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>126</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>124</v>
+      </c>
+      <c r="AV14" s="13">
         <v>119</v>
       </c>
-      <c r="AL14" s="13">
-        <v>116</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>128</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>130</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>119</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>124</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>133</v>
-      </c>
-      <c r="AR14" s="13">
+      <c r="AW14" s="13">
+        <v>108</v>
+      </c>
+      <c r="AX14" s="13">
+        <v>132</v>
+      </c>
+      <c r="AY14" s="13">
         <v>120</v>
       </c>
-      <c r="AS14" s="13">
-        <v>128</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>120</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>126</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>124</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>119</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>108</v>
-      </c>
-      <c r="AY14" s="13">
-        <v>132</v>
-      </c>
       <c r="AZ14" s="13">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BA14" s="13">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="BB14" s="13">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>61</v>
       </c>
@@ -2052,7 +2087,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>55</v>
       </c>
@@ -2111,17 +2146,17 @@
       <c r="U16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y16" s="11" t="s">
-        <v>57</v>
+      <c r="V16" s="11">
+        <v>0</v>
+      </c>
+      <c r="W16" s="11">
+        <v>0</v>
+      </c>
+      <c r="X16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>0</v>
       </c>
       <c r="Z16" s="11">
         <v>0</v>
@@ -2147,8 +2182,8 @@
       <c r="AG16" s="11">
         <v>0</v>
       </c>
-      <c r="AH16" s="11">
-        <v>0</v>
+      <c r="AH16" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI16" s="11" t="s">
         <v>57</v>
@@ -2211,7 +2246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>62</v>
       </c>
@@ -2268,17 +2303,17 @@
       <c r="U17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="V17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y17" s="15" t="s">
-        <v>57</v>
+      <c r="V17" s="15">
+        <v>0</v>
+      </c>
+      <c r="W17" s="15">
+        <v>0</v>
+      </c>
+      <c r="X17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>0</v>
       </c>
       <c r="Z17" s="15">
         <v>0</v>
@@ -2368,164 +2403,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F18" s="17">
-        <v>550</v>
+        <v>431</v>
       </c>
       <c r="G18" s="17">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="H18" s="17">
-        <v>408</v>
+        <v>600</v>
       </c>
       <c r="I18" s="17">
+        <v>563</v>
+      </c>
+      <c r="J18" s="17">
+        <v>668</v>
+      </c>
+      <c r="K18" s="17">
+        <v>729</v>
+      </c>
+      <c r="L18" s="17">
+        <v>639</v>
+      </c>
+      <c r="M18" s="17">
+        <v>653</v>
+      </c>
+      <c r="N18" s="17">
+        <v>699</v>
+      </c>
+      <c r="O18" s="17">
+        <v>723</v>
+      </c>
+      <c r="P18" s="17">
+        <v>597</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>630</v>
+      </c>
+      <c r="R18" s="17">
+        <v>626</v>
+      </c>
+      <c r="S18" s="17">
+        <v>631</v>
+      </c>
+      <c r="T18" s="17">
+        <v>562</v>
+      </c>
+      <c r="U18" s="17">
+        <v>545</v>
+      </c>
+      <c r="V18" s="17">
+        <v>667</v>
+      </c>
+      <c r="W18" s="17">
+        <v>742</v>
+      </c>
+      <c r="X18" s="17">
+        <v>622</v>
+      </c>
+      <c r="Y18" s="17">
+        <v>671</v>
+      </c>
+      <c r="Z18" s="17">
+        <v>612</v>
+      </c>
+      <c r="AA18" s="17">
+        <v>732</v>
+      </c>
+      <c r="AB18" s="17">
+        <v>621</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>662</v>
+      </c>
+      <c r="AD18" s="17">
+        <v>535</v>
+      </c>
+      <c r="AE18" s="17">
+        <v>595</v>
+      </c>
+      <c r="AF18" s="17">
+        <v>599</v>
+      </c>
+      <c r="AG18" s="17">
+        <v>735</v>
+      </c>
+      <c r="AH18" s="17">
+        <v>755</v>
+      </c>
+      <c r="AI18" s="17">
+        <v>823</v>
+      </c>
+      <c r="AJ18" s="17">
+        <v>597</v>
+      </c>
+      <c r="AK18" s="17">
+        <v>467</v>
+      </c>
+      <c r="AL18" s="17">
+        <v>398</v>
+      </c>
+      <c r="AM18" s="17">
+        <v>560</v>
+      </c>
+      <c r="AN18" s="17">
+        <v>488</v>
+      </c>
+      <c r="AO18" s="17">
         <v>600</v>
       </c>
-      <c r="J18" s="17">
-        <v>563</v>
-      </c>
-      <c r="K18" s="17">
-        <v>668</v>
-      </c>
-      <c r="L18" s="17">
+      <c r="AP18" s="17">
+        <v>615</v>
+      </c>
+      <c r="AQ18" s="17">
+        <v>609</v>
+      </c>
+      <c r="AR18" s="17">
+        <v>1702</v>
+      </c>
+      <c r="AS18" s="17">
+        <v>706</v>
+      </c>
+      <c r="AT18" s="17">
+        <v>868</v>
+      </c>
+      <c r="AU18" s="17">
+        <v>735</v>
+      </c>
+      <c r="AV18" s="17">
+        <v>709</v>
+      </c>
+      <c r="AW18" s="17">
+        <v>585</v>
+      </c>
+      <c r="AX18" s="17">
+        <v>500</v>
+      </c>
+      <c r="AY18" s="17">
+        <v>645</v>
+      </c>
+      <c r="AZ18" s="17">
+        <v>667</v>
+      </c>
+      <c r="BA18" s="17">
         <v>729</v>
       </c>
-      <c r="M18" s="17">
-        <v>639</v>
-      </c>
-      <c r="N18" s="17">
-        <v>653</v>
-      </c>
-      <c r="O18" s="17">
-        <v>699</v>
-      </c>
-      <c r="P18" s="17">
-        <v>723</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>597</v>
-      </c>
-      <c r="R18" s="17">
-        <v>630</v>
-      </c>
-      <c r="S18" s="17">
-        <v>626</v>
-      </c>
-      <c r="T18" s="17">
-        <v>631</v>
-      </c>
-      <c r="U18" s="17">
-        <v>562</v>
-      </c>
-      <c r="V18" s="17">
-        <v>545</v>
-      </c>
-      <c r="W18" s="17">
-        <v>667</v>
-      </c>
-      <c r="X18" s="17">
-        <v>742</v>
-      </c>
-      <c r="Y18" s="17">
-        <v>622</v>
-      </c>
-      <c r="Z18" s="17">
-        <v>674</v>
-      </c>
-      <c r="AA18" s="17">
-        <v>613</v>
-      </c>
-      <c r="AB18" s="17">
-        <v>723</v>
-      </c>
-      <c r="AC18" s="17">
-        <v>620</v>
-      </c>
-      <c r="AD18" s="17">
-        <v>659</v>
-      </c>
-      <c r="AE18" s="17">
-        <v>545</v>
-      </c>
-      <c r="AF18" s="17">
-        <v>594</v>
-      </c>
-      <c r="AG18" s="17">
-        <v>603</v>
-      </c>
-      <c r="AH18" s="17">
-        <v>735</v>
-      </c>
-      <c r="AI18" s="17">
-        <v>755</v>
-      </c>
-      <c r="AJ18" s="17">
-        <v>822</v>
-      </c>
-      <c r="AK18" s="17">
-        <v>598</v>
-      </c>
-      <c r="AL18" s="17">
-        <v>449</v>
-      </c>
-      <c r="AM18" s="17">
-        <v>398</v>
-      </c>
-      <c r="AN18" s="17">
-        <v>559</v>
-      </c>
-      <c r="AO18" s="17">
-        <v>490</v>
-      </c>
-      <c r="AP18" s="17">
-        <v>601</v>
-      </c>
-      <c r="AQ18" s="17">
-        <v>617</v>
-      </c>
-      <c r="AR18" s="17">
-        <v>610</v>
-      </c>
-      <c r="AS18" s="17">
-        <v>1702</v>
-      </c>
-      <c r="AT18" s="17">
-        <v>706</v>
-      </c>
-      <c r="AU18" s="17">
-        <v>868</v>
-      </c>
-      <c r="AV18" s="17">
-        <v>735</v>
-      </c>
-      <c r="AW18" s="17">
-        <v>709</v>
-      </c>
-      <c r="AX18" s="17">
-        <v>585</v>
-      </c>
-      <c r="AY18" s="17">
-        <v>500</v>
-      </c>
-      <c r="AZ18" s="17">
-        <v>645</v>
-      </c>
-      <c r="BA18" s="17">
-        <v>667</v>
-      </c>
       <c r="BB18" s="17">
-        <v>727</v>
+        <v>807</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2580,7 +2615,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2635,7 +2670,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2690,7 +2725,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
@@ -2847,7 +2882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2902,7 +2937,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
@@ -2959,7 +2994,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
@@ -2968,157 +3003,157 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F25" s="11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G25" s="11">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H25" s="11">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="I25" s="11">
+        <v>45</v>
+      </c>
+      <c r="J25" s="11">
+        <v>64</v>
+      </c>
+      <c r="K25" s="11">
+        <v>60</v>
+      </c>
+      <c r="L25" s="11">
+        <v>133</v>
+      </c>
+      <c r="M25" s="11">
+        <v>128</v>
+      </c>
+      <c r="N25" s="11">
+        <v>50</v>
+      </c>
+      <c r="O25" s="11">
+        <v>146</v>
+      </c>
+      <c r="P25" s="11">
+        <v>114</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>145</v>
+      </c>
+      <c r="R25" s="11">
+        <v>128</v>
+      </c>
+      <c r="S25" s="11">
+        <v>141</v>
+      </c>
+      <c r="T25" s="11">
+        <v>193</v>
+      </c>
+      <c r="U25" s="11">
+        <v>118</v>
+      </c>
+      <c r="V25" s="11">
         <v>54</v>
       </c>
-      <c r="J25" s="11">
+      <c r="W25" s="11">
+        <v>135</v>
+      </c>
+      <c r="X25" s="11">
+        <v>147</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>125</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>62</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>84</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>92</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>172</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>122</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>137</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>101</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>138</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>56</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>191</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>233</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>159</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>59</v>
+      </c>
+      <c r="AM25" s="11">
+        <v>80</v>
+      </c>
+      <c r="AN25" s="11">
+        <v>129</v>
+      </c>
+      <c r="AO25" s="11">
+        <v>62</v>
+      </c>
+      <c r="AP25" s="11">
+        <v>91</v>
+      </c>
+      <c r="AQ25" s="11">
+        <v>69</v>
+      </c>
+      <c r="AR25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT25" s="11">
+        <v>67</v>
+      </c>
+      <c r="AU25" s="11">
+        <v>242</v>
+      </c>
+      <c r="AV25" s="11">
+        <v>212</v>
+      </c>
+      <c r="AW25" s="11">
+        <v>41</v>
+      </c>
+      <c r="AX25" s="11">
+        <v>29</v>
+      </c>
+      <c r="AY25" s="11">
         <v>45</v>
       </c>
-      <c r="K25" s="11">
-        <v>64</v>
-      </c>
-      <c r="L25" s="11">
-        <v>60</v>
-      </c>
-      <c r="M25" s="11">
-        <v>133</v>
-      </c>
-      <c r="N25" s="11">
-        <v>128</v>
-      </c>
-      <c r="O25" s="11">
-        <v>50</v>
-      </c>
-      <c r="P25" s="11">
-        <v>146</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>114</v>
-      </c>
-      <c r="R25" s="11">
-        <v>145</v>
-      </c>
-      <c r="S25" s="11">
-        <v>128</v>
-      </c>
-      <c r="T25" s="11">
-        <v>141</v>
-      </c>
-      <c r="U25" s="11">
-        <v>193</v>
-      </c>
-      <c r="V25" s="11">
-        <v>118</v>
-      </c>
-      <c r="W25" s="11">
-        <v>54</v>
-      </c>
-      <c r="X25" s="11">
-        <v>135</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>147</v>
-      </c>
-      <c r="Z25" s="11">
-        <v>125</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>62</v>
-      </c>
-      <c r="AB25" s="11">
-        <v>84</v>
-      </c>
-      <c r="AC25" s="11">
-        <v>92</v>
-      </c>
-      <c r="AD25" s="11">
-        <v>172</v>
-      </c>
-      <c r="AE25" s="11">
-        <v>122</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>137</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>101</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>138</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>56</v>
-      </c>
-      <c r="AJ25" s="11">
-        <v>191</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>233</v>
-      </c>
-      <c r="AL25" s="11">
-        <v>159</v>
-      </c>
-      <c r="AM25" s="11">
-        <v>59</v>
-      </c>
-      <c r="AN25" s="11">
-        <v>80</v>
-      </c>
-      <c r="AO25" s="11">
-        <v>129</v>
-      </c>
-      <c r="AP25" s="11">
-        <v>62</v>
-      </c>
-      <c r="AQ25" s="11">
-        <v>91</v>
-      </c>
-      <c r="AR25" s="11">
-        <v>69</v>
-      </c>
-      <c r="AS25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU25" s="11">
-        <v>67</v>
-      </c>
-      <c r="AV25" s="11">
-        <v>242</v>
-      </c>
-      <c r="AW25" s="11">
-        <v>212</v>
-      </c>
-      <c r="AX25" s="11">
-        <v>41</v>
-      </c>
-      <c r="AY25" s="11">
-        <v>29</v>
-      </c>
       <c r="AZ25" s="11">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="BA25" s="11">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="BB25" s="11">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>58</v>
       </c>
@@ -3127,157 +3162,157 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>285</v>
+        <v>503</v>
       </c>
       <c r="F26" s="13">
-        <v>503</v>
+        <v>298</v>
       </c>
       <c r="G26" s="13">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="H26" s="13">
-        <v>239</v>
+        <v>371</v>
       </c>
       <c r="I26" s="13">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="J26" s="13">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="K26" s="13">
-        <v>306</v>
+        <v>506</v>
       </c>
       <c r="L26" s="13">
-        <v>506</v>
+        <v>443</v>
       </c>
       <c r="M26" s="13">
-        <v>443</v>
+        <v>380</v>
       </c>
       <c r="N26" s="13">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O26" s="13">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="P26" s="13">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="Q26" s="13">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="R26" s="13">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="S26" s="13">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="T26" s="13">
+        <v>391</v>
+      </c>
+      <c r="U26" s="13">
+        <v>250</v>
+      </c>
+      <c r="V26" s="13">
+        <v>271</v>
+      </c>
+      <c r="W26" s="13">
+        <v>539</v>
+      </c>
+      <c r="X26" s="13">
+        <v>438</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>375</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>323</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>388</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>384</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>365</v>
+      </c>
+      <c r="AD26" s="13">
+        <v>322</v>
+      </c>
+      <c r="AE26" s="13">
+        <v>326</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>359</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>454</v>
+      </c>
+      <c r="AH26" s="13">
         <v>334</v>
       </c>
-      <c r="U26" s="13">
-        <v>391</v>
-      </c>
-      <c r="V26" s="13">
-        <v>250</v>
-      </c>
-      <c r="W26" s="13">
-        <v>271</v>
-      </c>
-      <c r="X26" s="13">
-        <v>539</v>
-      </c>
-      <c r="Y26" s="13">
-        <v>438</v>
-      </c>
-      <c r="Z26" s="13">
-        <v>374</v>
-      </c>
-      <c r="AA26" s="13">
-        <v>323</v>
-      </c>
-      <c r="AB26" s="13">
-        <v>388</v>
-      </c>
-      <c r="AC26" s="13">
-        <v>384</v>
-      </c>
-      <c r="AD26" s="13">
-        <v>365</v>
-      </c>
-      <c r="AE26" s="13">
-        <v>322</v>
-      </c>
-      <c r="AF26" s="13">
-        <v>326</v>
-      </c>
-      <c r="AG26" s="13">
-        <v>359</v>
-      </c>
-      <c r="AH26" s="13">
-        <v>454</v>
-      </c>
       <c r="AI26" s="13">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="AJ26" s="13">
+        <v>335</v>
+      </c>
+      <c r="AK26" s="13">
+        <v>301</v>
+      </c>
+      <c r="AL26" s="13">
+        <v>235</v>
+      </c>
+      <c r="AM26" s="13">
+        <v>341</v>
+      </c>
+      <c r="AN26" s="13">
+        <v>335</v>
+      </c>
+      <c r="AO26" s="13">
+        <v>372</v>
+      </c>
+      <c r="AP26" s="13">
+        <v>390</v>
+      </c>
+      <c r="AQ26" s="13">
+        <v>396</v>
+      </c>
+      <c r="AR26" s="13">
+        <v>1583</v>
+      </c>
+      <c r="AS26" s="13">
+        <v>627</v>
+      </c>
+      <c r="AT26" s="13">
+        <v>373</v>
+      </c>
+      <c r="AU26" s="13">
+        <v>471</v>
+      </c>
+      <c r="AV26" s="13">
+        <v>542</v>
+      </c>
+      <c r="AW26" s="13">
         <v>395</v>
       </c>
-      <c r="AK26" s="13">
+      <c r="AX26" s="13">
         <v>335</v>
       </c>
-      <c r="AL26" s="13">
-        <v>301</v>
-      </c>
-      <c r="AM26" s="13">
-        <v>236</v>
-      </c>
-      <c r="AN26" s="13">
-        <v>341</v>
-      </c>
-      <c r="AO26" s="13">
-        <v>335</v>
-      </c>
-      <c r="AP26" s="13">
-        <v>372</v>
-      </c>
-      <c r="AQ26" s="13">
-        <v>391</v>
-      </c>
-      <c r="AR26" s="13">
-        <v>398</v>
-      </c>
-      <c r="AS26" s="13">
-        <v>1583</v>
-      </c>
-      <c r="AT26" s="13">
-        <v>627</v>
-      </c>
-      <c r="AU26" s="13">
-        <v>373</v>
-      </c>
-      <c r="AV26" s="13">
-        <v>471</v>
-      </c>
-      <c r="AW26" s="13">
-        <v>542</v>
-      </c>
-      <c r="AX26" s="13">
-        <v>395</v>
-      </c>
       <c r="AY26" s="13">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="AZ26" s="13">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="BA26" s="13">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="BB26" s="13">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>59</v>
       </c>
@@ -3286,157 +3321,157 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F27" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" s="11">
         <v>28</v>
       </c>
       <c r="H27" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I27" s="11">
         <v>25</v>
       </c>
       <c r="J27" s="11">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K27" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L27" s="11">
         <v>22</v>
       </c>
       <c r="M27" s="11">
+        <v>25</v>
+      </c>
+      <c r="N27" s="11">
         <v>22</v>
       </c>
-      <c r="N27" s="11">
-        <v>25</v>
-      </c>
       <c r="O27" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P27" s="11">
         <v>23</v>
       </c>
       <c r="Q27" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R27" s="11">
+        <v>31</v>
+      </c>
+      <c r="S27" s="11">
         <v>25</v>
       </c>
-      <c r="S27" s="11">
-        <v>31</v>
-      </c>
       <c r="T27" s="11">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U27" s="11">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V27" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W27" s="11">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="X27" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y27" s="11">
+        <v>28</v>
+      </c>
+      <c r="Z27" s="11">
         <v>27</v>
-      </c>
-      <c r="Z27" s="11">
-        <v>28</v>
       </c>
       <c r="AA27" s="11">
         <v>27</v>
       </c>
       <c r="AB27" s="11">
+        <v>38</v>
+      </c>
+      <c r="AC27" s="11">
+        <v>25</v>
+      </c>
+      <c r="AD27" s="11">
+        <v>29</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>37</v>
+      </c>
+      <c r="AF27" s="11">
+        <v>25</v>
+      </c>
+      <c r="AG27" s="11">
+        <v>22</v>
+      </c>
+      <c r="AH27" s="11">
+        <v>25</v>
+      </c>
+      <c r="AI27" s="11">
+        <v>26</v>
+      </c>
+      <c r="AJ27" s="11">
+        <v>29</v>
+      </c>
+      <c r="AK27" s="11">
         <v>27</v>
       </c>
-      <c r="AC27" s="11">
-        <v>38</v>
-      </c>
-      <c r="AD27" s="11">
+      <c r="AL27" s="11">
         <v>25</v>
-      </c>
-      <c r="AE27" s="11">
-        <v>29</v>
-      </c>
-      <c r="AF27" s="11">
-        <v>37</v>
-      </c>
-      <c r="AG27" s="11">
-        <v>25</v>
-      </c>
-      <c r="AH27" s="11">
-        <v>22</v>
-      </c>
-      <c r="AI27" s="11">
-        <v>25</v>
-      </c>
-      <c r="AJ27" s="11">
-        <v>26</v>
-      </c>
-      <c r="AK27" s="11">
-        <v>29</v>
-      </c>
-      <c r="AL27" s="11">
-        <v>27</v>
       </c>
       <c r="AM27" s="11">
         <v>25</v>
       </c>
       <c r="AN27" s="11">
+        <v>20</v>
+      </c>
+      <c r="AO27" s="11">
         <v>25</v>
-      </c>
-      <c r="AO27" s="11">
-        <v>20</v>
       </c>
       <c r="AP27" s="11">
         <v>25</v>
       </c>
       <c r="AQ27" s="11">
+        <v>32</v>
+      </c>
+      <c r="AR27" s="11">
+        <v>29</v>
+      </c>
+      <c r="AS27" s="11">
+        <v>30</v>
+      </c>
+      <c r="AT27" s="11">
         <v>25</v>
       </c>
-      <c r="AR27" s="11">
+      <c r="AU27" s="11">
         <v>32</v>
       </c>
-      <c r="AS27" s="11">
-        <v>29</v>
-      </c>
-      <c r="AT27" s="11">
-        <v>30</v>
-      </c>
-      <c r="AU27" s="11">
-        <v>25</v>
-      </c>
       <c r="AV27" s="11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AW27" s="11">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AX27" s="11">
         <v>24</v>
       </c>
       <c r="AY27" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ27" s="11">
+        <v>18</v>
+      </c>
+      <c r="BA27" s="11">
+        <v>23</v>
+      </c>
+      <c r="BB27" s="11">
         <v>22</v>
       </c>
-      <c r="BA27" s="11">
-        <v>18</v>
-      </c>
-      <c r="BB27" s="11">
-        <v>23</v>
-      </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>60</v>
       </c>
@@ -3445,157 +3480,157 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="F28" s="13">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G28" s="13">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="H28" s="13">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="I28" s="13">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="J28" s="13">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K28" s="13">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="L28" s="13">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M28" s="13">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="N28" s="13">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="O28" s="13">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="P28" s="13">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="Q28" s="13">
         <v>123</v>
       </c>
       <c r="R28" s="13">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="S28" s="13">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="T28" s="13">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U28" s="13">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="V28" s="13">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="W28" s="13">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="X28" s="13">
+        <v>138</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>149</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>113</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>119</v>
+      </c>
+      <c r="AB28" s="13">
         <v>132</v>
       </c>
-      <c r="Y28" s="13">
-        <v>138</v>
-      </c>
-      <c r="Z28" s="13">
-        <v>149</v>
-      </c>
-      <c r="AA28" s="13">
+      <c r="AC28" s="13">
+        <v>110</v>
+      </c>
+      <c r="AD28" s="13">
+        <v>136</v>
+      </c>
+      <c r="AE28" s="13">
+        <v>125</v>
+      </c>
+      <c r="AF28" s="13">
+        <v>112</v>
+      </c>
+      <c r="AG28" s="13">
+        <v>117</v>
+      </c>
+      <c r="AH28" s="13">
+        <v>114</v>
+      </c>
+      <c r="AI28" s="13">
+        <v>125</v>
+      </c>
+      <c r="AJ28" s="13">
         <v>113</v>
       </c>
-      <c r="AB28" s="13">
+      <c r="AK28" s="13">
+        <v>125</v>
+      </c>
+      <c r="AL28" s="13">
+        <v>117</v>
+      </c>
+      <c r="AM28" s="13">
+        <v>129</v>
+      </c>
+      <c r="AN28" s="13">
         <v>120</v>
       </c>
-      <c r="AC28" s="13">
-        <v>132</v>
-      </c>
-      <c r="AD28" s="13">
-        <v>110</v>
-      </c>
-      <c r="AE28" s="13">
-        <v>136</v>
-      </c>
-      <c r="AF28" s="13">
-        <v>125</v>
-      </c>
-      <c r="AG28" s="13">
+      <c r="AO28" s="13">
+        <v>127</v>
+      </c>
+      <c r="AP28" s="13">
+        <v>129</v>
+      </c>
+      <c r="AQ28" s="13">
         <v>112</v>
       </c>
-      <c r="AH28" s="13">
-        <v>117</v>
-      </c>
-      <c r="AI28" s="13">
-        <v>114</v>
-      </c>
-      <c r="AJ28" s="13">
-        <v>125</v>
-      </c>
-      <c r="AK28" s="13">
-        <v>113</v>
-      </c>
-      <c r="AL28" s="13">
-        <v>125</v>
-      </c>
-      <c r="AM28" s="13">
-        <v>117</v>
-      </c>
-      <c r="AN28" s="13">
-        <v>129</v>
-      </c>
-      <c r="AO28" s="13">
+      <c r="AR28" s="13">
+        <v>127</v>
+      </c>
+      <c r="AS28" s="13">
         <v>120</v>
-      </c>
-      <c r="AP28" s="13">
-        <v>127</v>
-      </c>
-      <c r="AQ28" s="13">
-        <v>130</v>
-      </c>
-      <c r="AR28" s="13">
-        <v>112</v>
-      </c>
-      <c r="AS28" s="13">
-        <v>127</v>
       </c>
       <c r="AT28" s="13">
         <v>120</v>
       </c>
       <c r="AU28" s="13">
+        <v>131</v>
+      </c>
+      <c r="AV28" s="13">
+        <v>128</v>
+      </c>
+      <c r="AW28" s="13">
+        <v>114</v>
+      </c>
+      <c r="AX28" s="13">
+        <v>108</v>
+      </c>
+      <c r="AY28" s="13">
+        <v>128</v>
+      </c>
+      <c r="AZ28" s="13">
+        <v>122</v>
+      </c>
+      <c r="BA28" s="13">
+        <v>118</v>
+      </c>
+      <c r="BB28" s="13">
         <v>120</v>
       </c>
-      <c r="AV28" s="13">
-        <v>131</v>
-      </c>
-      <c r="AW28" s="13">
-        <v>128</v>
-      </c>
-      <c r="AX28" s="13">
-        <v>114</v>
-      </c>
-      <c r="AY28" s="13">
-        <v>108</v>
-      </c>
-      <c r="AZ28" s="13">
-        <v>128</v>
-      </c>
-      <c r="BA28" s="13">
-        <v>122</v>
-      </c>
-      <c r="BB28" s="13">
-        <v>118</v>
-      </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>61</v>
       </c>
@@ -3652,7 +3687,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>55</v>
       </c>
@@ -3711,17 +3746,17 @@
       <c r="U30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y30" s="11" t="s">
-        <v>57</v>
+      <c r="V30" s="11">
+        <v>0</v>
+      </c>
+      <c r="W30" s="11">
+        <v>0</v>
+      </c>
+      <c r="X30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>0</v>
       </c>
       <c r="Z30" s="11">
         <v>0</v>
@@ -3747,8 +3782,8 @@
       <c r="AG30" s="11">
         <v>0</v>
       </c>
-      <c r="AH30" s="11">
-        <v>0</v>
+      <c r="AH30" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI30" s="11" t="s">
         <v>57</v>
@@ -3811,7 +3846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>62</v>
       </c>
@@ -3868,17 +3903,17 @@
       <c r="U31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="V31" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W31" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X31" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y31" s="15" t="s">
-        <v>57</v>
+      <c r="V31" s="15">
+        <v>0</v>
+      </c>
+      <c r="W31" s="15">
+        <v>0</v>
+      </c>
+      <c r="X31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="15">
+        <v>0</v>
       </c>
       <c r="Z31" s="15">
         <v>0</v>
@@ -3968,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>65</v>
       </c>
@@ -4025,7 +4060,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>55</v>
       </c>
@@ -4084,17 +4119,17 @@
       <c r="U33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y33" s="11" t="s">
-        <v>57</v>
+      <c r="V33" s="11">
+        <v>0</v>
+      </c>
+      <c r="W33" s="11">
+        <v>0</v>
+      </c>
+      <c r="X33" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>0</v>
       </c>
       <c r="Z33" s="11">
         <v>0</v>
@@ -4120,8 +4155,8 @@
       <c r="AG33" s="11">
         <v>0</v>
       </c>
-      <c r="AH33" s="11">
-        <v>0</v>
+      <c r="AH33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI33" s="11" t="s">
         <v>57</v>
@@ -4184,7 +4219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>66</v>
       </c>
@@ -4241,17 +4276,17 @@
       <c r="U34" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="V34" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W34" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X34" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y34" s="15" t="s">
-        <v>57</v>
+      <c r="V34" s="15">
+        <v>0</v>
+      </c>
+      <c r="W34" s="15">
+        <v>0</v>
+      </c>
+      <c r="X34" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="15">
+        <v>0</v>
       </c>
       <c r="Z34" s="15">
         <v>0</v>
@@ -4341,164 +4376,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17">
-        <v>382</v>
+        <v>693</v>
       </c>
       <c r="F35" s="17">
-        <v>693</v>
+        <v>498</v>
       </c>
       <c r="G35" s="17">
-        <v>498</v>
+        <v>390</v>
       </c>
       <c r="H35" s="17">
-        <v>390</v>
+        <v>583</v>
       </c>
       <c r="I35" s="17">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="J35" s="17">
-        <v>589</v>
+        <v>503</v>
       </c>
       <c r="K35" s="17">
-        <v>503</v>
+        <v>725</v>
       </c>
       <c r="L35" s="17">
         <v>725</v>
       </c>
       <c r="M35" s="17">
-        <v>725</v>
+        <v>643</v>
       </c>
       <c r="N35" s="17">
-        <v>643</v>
+        <v>583</v>
       </c>
       <c r="O35" s="17">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="P35" s="17">
+        <v>658</v>
+      </c>
+      <c r="Q35" s="17">
+        <v>647</v>
+      </c>
+      <c r="R35" s="17">
+        <v>573</v>
+      </c>
+      <c r="S35" s="17">
+        <v>628</v>
+      </c>
+      <c r="T35" s="17">
+        <v>731</v>
+      </c>
+      <c r="U35" s="17">
+        <v>469</v>
+      </c>
+      <c r="V35" s="17">
+        <v>437</v>
+      </c>
+      <c r="W35" s="17">
+        <v>835</v>
+      </c>
+      <c r="X35" s="17">
+        <v>750</v>
+      </c>
+      <c r="Y35" s="17">
+        <v>677</v>
+      </c>
+      <c r="Z35" s="17">
+        <v>525</v>
+      </c>
+      <c r="AA35" s="17">
+        <v>618</v>
+      </c>
+      <c r="AB35" s="17">
+        <v>646</v>
+      </c>
+      <c r="AC35" s="17">
+        <v>672</v>
+      </c>
+      <c r="AD35" s="17">
+        <v>609</v>
+      </c>
+      <c r="AE35" s="17">
+        <v>625</v>
+      </c>
+      <c r="AF35" s="17">
+        <v>597</v>
+      </c>
+      <c r="AG35" s="17">
+        <v>731</v>
+      </c>
+      <c r="AH35" s="17">
+        <v>529</v>
+      </c>
+      <c r="AI35" s="17">
+        <v>737</v>
+      </c>
+      <c r="AJ35" s="17">
+        <v>710</v>
+      </c>
+      <c r="AK35" s="17">
+        <v>612</v>
+      </c>
+      <c r="AL35" s="17">
+        <v>436</v>
+      </c>
+      <c r="AM35" s="17">
+        <v>575</v>
+      </c>
+      <c r="AN35" s="17">
+        <v>604</v>
+      </c>
+      <c r="AO35" s="17">
+        <v>586</v>
+      </c>
+      <c r="AP35" s="17">
+        <v>635</v>
+      </c>
+      <c r="AQ35" s="17">
+        <v>609</v>
+      </c>
+      <c r="AR35" s="17">
+        <v>1739</v>
+      </c>
+      <c r="AS35" s="17">
+        <v>777</v>
+      </c>
+      <c r="AT35" s="17">
+        <v>585</v>
+      </c>
+      <c r="AU35" s="17">
+        <v>876</v>
+      </c>
+      <c r="AV35" s="17">
+        <v>918</v>
+      </c>
+      <c r="AW35" s="17">
+        <v>574</v>
+      </c>
+      <c r="AX35" s="17">
+        <v>496</v>
+      </c>
+      <c r="AY35" s="17">
+        <v>499</v>
+      </c>
+      <c r="AZ35" s="17">
+        <v>564</v>
+      </c>
+      <c r="BA35" s="17">
+        <v>633</v>
+      </c>
+      <c r="BB35" s="17">
         <v>694</v>
       </c>
-      <c r="Q35" s="17">
-        <v>658</v>
-      </c>
-      <c r="R35" s="17">
-        <v>647</v>
-      </c>
-      <c r="S35" s="17">
-        <v>573</v>
-      </c>
-      <c r="T35" s="17">
-        <v>628</v>
-      </c>
-      <c r="U35" s="17">
-        <v>731</v>
-      </c>
-      <c r="V35" s="17">
-        <v>469</v>
-      </c>
-      <c r="W35" s="17">
-        <v>437</v>
-      </c>
-      <c r="X35" s="17">
-        <v>835</v>
-      </c>
-      <c r="Y35" s="17">
-        <v>750</v>
-      </c>
-      <c r="Z35" s="17">
-        <v>676</v>
-      </c>
-      <c r="AA35" s="17">
-        <v>525</v>
-      </c>
-      <c r="AB35" s="17">
-        <v>619</v>
-      </c>
-      <c r="AC35" s="17">
-        <v>646</v>
-      </c>
-      <c r="AD35" s="17">
-        <v>672</v>
-      </c>
-      <c r="AE35" s="17">
-        <v>609</v>
-      </c>
-      <c r="AF35" s="17">
-        <v>625</v>
-      </c>
-      <c r="AG35" s="17">
-        <v>597</v>
-      </c>
-      <c r="AH35" s="17">
-        <v>731</v>
-      </c>
-      <c r="AI35" s="17">
-        <v>529</v>
-      </c>
-      <c r="AJ35" s="17">
-        <v>737</v>
-      </c>
-      <c r="AK35" s="17">
-        <v>710</v>
-      </c>
-      <c r="AL35" s="17">
-        <v>612</v>
-      </c>
-      <c r="AM35" s="17">
-        <v>437</v>
-      </c>
-      <c r="AN35" s="17">
-        <v>575</v>
-      </c>
-      <c r="AO35" s="17">
-        <v>604</v>
-      </c>
-      <c r="AP35" s="17">
-        <v>586</v>
-      </c>
-      <c r="AQ35" s="17">
-        <v>637</v>
-      </c>
-      <c r="AR35" s="17">
-        <v>611</v>
-      </c>
-      <c r="AS35" s="17">
-        <v>1739</v>
-      </c>
-      <c r="AT35" s="17">
-        <v>777</v>
-      </c>
-      <c r="AU35" s="17">
-        <v>585</v>
-      </c>
-      <c r="AV35" s="17">
-        <v>876</v>
-      </c>
-      <c r="AW35" s="17">
-        <v>918</v>
-      </c>
-      <c r="AX35" s="17">
-        <v>574</v>
-      </c>
-      <c r="AY35" s="17">
-        <v>496</v>
-      </c>
-      <c r="AZ35" s="17">
-        <v>499</v>
-      </c>
-      <c r="BA35" s="17">
-        <v>564</v>
-      </c>
-      <c r="BB35" s="17">
-        <v>633</v>
-      </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4553,7 +4588,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4608,7 +4643,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4663,7 +4698,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>67</v>
       </c>
@@ -4820,7 +4855,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4875,7 +4910,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>67</v>
       </c>
@@ -4932,7 +4967,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>55</v>
       </c>
@@ -4941,157 +4976,157 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>177376</v>
+        <v>495653</v>
       </c>
       <c r="F42" s="11">
-        <v>495653</v>
+        <v>1234384</v>
       </c>
       <c r="G42" s="11">
-        <v>1234384</v>
+        <v>547108</v>
       </c>
       <c r="H42" s="11">
-        <v>547108</v>
+        <v>1762398</v>
       </c>
       <c r="I42" s="11">
-        <v>1762398</v>
+        <v>1488628</v>
       </c>
       <c r="J42" s="11">
-        <v>1488628</v>
+        <v>2224264</v>
       </c>
       <c r="K42" s="11">
-        <v>2224264</v>
+        <v>2309283</v>
       </c>
       <c r="L42" s="11">
-        <v>2309283</v>
+        <v>5430893</v>
       </c>
       <c r="M42" s="11">
-        <v>5430893</v>
+        <v>5543032</v>
       </c>
       <c r="N42" s="11">
-        <v>5543032</v>
+        <v>2224176</v>
       </c>
       <c r="O42" s="11">
-        <v>2224176</v>
+        <v>6068891</v>
       </c>
       <c r="P42" s="11">
-        <v>6068891</v>
+        <v>4670460</v>
       </c>
       <c r="Q42" s="11">
-        <v>4670460</v>
+        <v>5712026</v>
       </c>
       <c r="R42" s="11">
-        <v>5712026</v>
+        <v>5068672</v>
       </c>
       <c r="S42" s="11">
-        <v>5068672</v>
+        <v>6</v>
       </c>
       <c r="T42" s="11">
-        <v>5979214</v>
+        <v>9</v>
       </c>
       <c r="U42" s="11">
-        <v>8758369</v>
+        <v>5</v>
       </c>
       <c r="V42" s="11">
-        <v>5359149</v>
+        <v>2979910</v>
       </c>
       <c r="W42" s="11">
-        <v>2979910</v>
+        <v>7618166</v>
       </c>
       <c r="X42" s="11">
-        <v>7618166</v>
+        <v>8683928</v>
       </c>
       <c r="Y42" s="11">
-        <v>8683928</v>
+        <v>7453985</v>
       </c>
       <c r="Z42" s="11">
-        <v>7453984</v>
+        <v>4945006</v>
       </c>
       <c r="AA42" s="11">
-        <v>4945006</v>
+        <v>6312415</v>
       </c>
       <c r="AB42" s="11">
-        <v>6238752</v>
+        <v>8652238</v>
       </c>
       <c r="AC42" s="11">
-        <v>8652238</v>
+        <v>16483131</v>
       </c>
       <c r="AD42" s="11">
-        <v>16483131</v>
+        <v>14013518</v>
       </c>
       <c r="AE42" s="11">
-        <v>14013518</v>
+        <v>16872492</v>
       </c>
       <c r="AF42" s="11">
-        <v>16872492</v>
+        <v>12262786</v>
       </c>
       <c r="AG42" s="11">
-        <v>12262783</v>
+        <v>18116251</v>
       </c>
       <c r="AH42" s="11">
-        <v>18116251</v>
+        <v>7660416</v>
       </c>
       <c r="AI42" s="11">
-        <v>7660416</v>
+        <v>25674336</v>
       </c>
       <c r="AJ42" s="11">
-        <v>25674336</v>
+        <v>31520150</v>
       </c>
       <c r="AK42" s="11">
-        <v>31520150</v>
+        <v>24439925</v>
       </c>
       <c r="AL42" s="11">
-        <v>24439925</v>
+        <v>9055956</v>
       </c>
       <c r="AM42" s="11">
-        <v>9055956</v>
+        <v>12287755</v>
       </c>
       <c r="AN42" s="11">
-        <v>12287755</v>
+        <v>21394841</v>
       </c>
       <c r="AO42" s="11">
-        <v>21394841</v>
+        <v>9063719</v>
       </c>
       <c r="AP42" s="11">
-        <v>9063719</v>
+        <v>14699295</v>
       </c>
       <c r="AQ42" s="11">
-        <v>14699295</v>
-      </c>
-      <c r="AR42" s="11">
-        <v>11319145</v>
+        <v>11319146</v>
+      </c>
+      <c r="AR42" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT42" s="11" t="s">
-        <v>57</v>
+      <c r="AT42" s="11">
+        <v>10550541</v>
       </c>
       <c r="AU42" s="11">
-        <v>10550541</v>
+        <v>38106528</v>
       </c>
       <c r="AV42" s="11">
-        <v>38106528</v>
+        <v>33644300</v>
       </c>
       <c r="AW42" s="11">
-        <v>33644300</v>
+        <v>8156854</v>
       </c>
       <c r="AX42" s="11">
-        <v>8156854</v>
+        <v>4269479</v>
       </c>
       <c r="AY42" s="11">
-        <v>4269479</v>
+        <v>6967049</v>
       </c>
       <c r="AZ42" s="11">
-        <v>6967049</v>
+        <v>6070281</v>
       </c>
       <c r="BA42" s="11">
-        <v>6070281</v>
+        <v>11061755</v>
       </c>
       <c r="BB42" s="11">
-        <v>11061755</v>
+        <v>15835312</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>58</v>
       </c>
@@ -5100,157 +5135,157 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
-        <v>10371371</v>
+        <v>18825240</v>
       </c>
       <c r="F43" s="13">
-        <v>18825240</v>
+        <v>12411279</v>
       </c>
       <c r="G43" s="13">
-        <v>12411279</v>
+        <v>10952913</v>
       </c>
       <c r="H43" s="13">
-        <v>10952913</v>
+        <v>15385548</v>
       </c>
       <c r="I43" s="13">
-        <v>15385548</v>
+        <v>17214038</v>
       </c>
       <c r="J43" s="13">
-        <v>17214038</v>
+        <v>13587053</v>
       </c>
       <c r="K43" s="13">
-        <v>13587053</v>
+        <v>23698885</v>
       </c>
       <c r="L43" s="13">
-        <v>23698885</v>
+        <v>22991267</v>
       </c>
       <c r="M43" s="13">
-        <v>22991267</v>
+        <v>20735193</v>
       </c>
       <c r="N43" s="13">
-        <v>20735193</v>
+        <v>20008827</v>
       </c>
       <c r="O43" s="13">
-        <v>20008827</v>
+        <v>21023652</v>
       </c>
       <c r="P43" s="13">
-        <v>21023652</v>
+        <v>19533443</v>
       </c>
       <c r="Q43" s="13">
-        <v>19533443</v>
+        <v>16880012</v>
       </c>
       <c r="R43" s="13">
-        <v>16880012</v>
+        <v>13272093</v>
       </c>
       <c r="S43" s="13">
-        <v>13272093</v>
+        <v>16</v>
       </c>
       <c r="T43" s="13">
-        <v>15959923</v>
+        <v>20</v>
       </c>
       <c r="U43" s="13">
-        <v>19527022</v>
+        <v>13</v>
       </c>
       <c r="V43" s="13">
-        <v>13150471</v>
+        <v>14398408</v>
       </c>
       <c r="W43" s="13">
-        <v>14398408</v>
+        <v>30466139</v>
       </c>
       <c r="X43" s="13">
-        <v>30466139</v>
+        <v>26093085</v>
       </c>
       <c r="Y43" s="13">
-        <v>26093085</v>
+        <v>25065550</v>
       </c>
       <c r="Z43" s="13">
-        <v>25065548</v>
+        <v>24107939</v>
       </c>
       <c r="AA43" s="13">
-        <v>24107939</v>
+        <v>32153658</v>
       </c>
       <c r="AB43" s="13">
-        <v>32153658</v>
+        <v>36484391</v>
       </c>
       <c r="AC43" s="13">
-        <v>36484390</v>
+        <v>39571364</v>
       </c>
       <c r="AD43" s="13">
-        <v>39571364</v>
+        <v>39012934</v>
       </c>
       <c r="AE43" s="13">
-        <v>39012934</v>
+        <v>41349584</v>
       </c>
       <c r="AF43" s="13">
-        <v>41349493</v>
+        <v>47108405</v>
       </c>
       <c r="AG43" s="13">
-        <v>47108405</v>
+        <v>66917633</v>
       </c>
       <c r="AH43" s="13">
-        <v>66917633</v>
+        <v>55166610</v>
       </c>
       <c r="AI43" s="13">
-        <v>55166609</v>
+        <v>67748720</v>
       </c>
       <c r="AJ43" s="13">
-        <v>67748720</v>
+        <v>59311777</v>
       </c>
       <c r="AK43" s="13">
-        <v>59311777</v>
+        <v>54940072</v>
       </c>
       <c r="AL43" s="13">
-        <v>54940072</v>
+        <v>46402948</v>
       </c>
       <c r="AM43" s="13">
-        <v>46402949</v>
+        <v>70262192</v>
       </c>
       <c r="AN43" s="13">
-        <v>70262192</v>
+        <v>70040208</v>
       </c>
       <c r="AO43" s="13">
-        <v>70040208</v>
+        <v>79923483</v>
       </c>
       <c r="AP43" s="13">
-        <v>79923483</v>
+        <v>82095147</v>
       </c>
       <c r="AQ43" s="13">
-        <v>82095147</v>
+        <v>85011507</v>
       </c>
       <c r="AR43" s="13">
-        <v>85011509</v>
+        <v>255430833</v>
       </c>
       <c r="AS43" s="13">
-        <v>255430833</v>
+        <v>109194516</v>
       </c>
       <c r="AT43" s="13">
-        <v>109194516</v>
+        <v>74052953</v>
       </c>
       <c r="AU43" s="13">
-        <v>74052953</v>
+        <v>95729317</v>
       </c>
       <c r="AV43" s="13">
-        <v>95729317</v>
+        <v>113965452</v>
       </c>
       <c r="AW43" s="13">
-        <v>113965452</v>
+        <v>79887387</v>
       </c>
       <c r="AX43" s="13">
-        <v>79887387</v>
+        <v>65597184</v>
       </c>
       <c r="AY43" s="13">
-        <v>65597184</v>
+        <v>54977492</v>
       </c>
       <c r="AZ43" s="13">
-        <v>54977492</v>
+        <v>67389426</v>
       </c>
       <c r="BA43" s="13">
-        <v>67389426</v>
+        <v>69094512</v>
       </c>
       <c r="BB43" s="13">
-        <v>69094512</v>
+        <v>72643041</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>59</v>
       </c>
@@ -5259,157 +5294,157 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>701668</v>
+        <v>1657286</v>
       </c>
       <c r="F44" s="11">
-        <v>1657286</v>
+        <v>2015239</v>
       </c>
       <c r="G44" s="11">
-        <v>2015239</v>
+        <v>2511836</v>
       </c>
       <c r="H44" s="11">
-        <v>2511836</v>
+        <v>2174539</v>
       </c>
       <c r="I44" s="11">
-        <v>2174539</v>
+        <v>2186772</v>
       </c>
       <c r="J44" s="11">
-        <v>2186772</v>
+        <v>1844697</v>
       </c>
       <c r="K44" s="11">
-        <v>1844697</v>
+        <v>2143035</v>
       </c>
       <c r="L44" s="11">
-        <v>2143035</v>
+        <v>2219023</v>
       </c>
       <c r="M44" s="11">
-        <v>2219023</v>
+        <v>2660180</v>
       </c>
       <c r="N44" s="11">
-        <v>2660180</v>
+        <v>2769274</v>
       </c>
       <c r="O44" s="11">
-        <v>2769274</v>
+        <v>2740837</v>
       </c>
       <c r="P44" s="11">
-        <v>2740837</v>
+        <v>2724887</v>
       </c>
       <c r="Q44" s="11">
-        <v>2724887</v>
+        <v>2744585</v>
       </c>
       <c r="R44" s="11">
-        <v>2744585</v>
+        <v>3316686</v>
       </c>
       <c r="S44" s="11">
-        <v>3316686</v>
+        <v>3</v>
       </c>
       <c r="T44" s="11">
-        <v>2577899</v>
+        <v>2</v>
       </c>
       <c r="U44" s="11">
-        <v>2161120</v>
+        <v>2</v>
       </c>
       <c r="V44" s="11">
-        <v>1749757</v>
+        <v>1827741</v>
       </c>
       <c r="W44" s="11">
-        <v>1827741</v>
+        <v>3366032</v>
       </c>
       <c r="X44" s="11">
-        <v>3366032</v>
+        <v>3122918</v>
       </c>
       <c r="Y44" s="11">
-        <v>3122918</v>
+        <v>3397988</v>
       </c>
       <c r="Z44" s="11">
-        <v>3397989</v>
+        <v>3250810</v>
       </c>
       <c r="AA44" s="11">
-        <v>3250810</v>
+        <v>3700609</v>
       </c>
       <c r="AB44" s="11">
-        <v>3700609</v>
+        <v>5539489</v>
       </c>
       <c r="AC44" s="11">
-        <v>5539489</v>
+        <v>4381240</v>
       </c>
       <c r="AD44" s="11">
-        <v>4381240</v>
+        <v>5429270</v>
       </c>
       <c r="AE44" s="11">
-        <v>5429270</v>
+        <v>6923658</v>
       </c>
       <c r="AF44" s="11">
-        <v>6923658</v>
+        <v>5541805</v>
       </c>
       <c r="AG44" s="11">
-        <v>5541805</v>
+        <v>4949401</v>
       </c>
       <c r="AH44" s="11">
-        <v>4949401</v>
+        <v>5831556</v>
       </c>
       <c r="AI44" s="11">
-        <v>5831556</v>
+        <v>5957563</v>
       </c>
       <c r="AJ44" s="11">
-        <v>5957563</v>
+        <v>6967658</v>
       </c>
       <c r="AK44" s="11">
-        <v>6967658</v>
+        <v>6716386</v>
       </c>
       <c r="AL44" s="11">
-        <v>6716386</v>
+        <v>6605637</v>
       </c>
       <c r="AM44" s="11">
-        <v>6605638</v>
+        <v>7094069</v>
       </c>
       <c r="AN44" s="11">
-        <v>7094069</v>
+        <v>6092348</v>
       </c>
       <c r="AO44" s="11">
-        <v>6092348</v>
+        <v>7375570</v>
       </c>
       <c r="AP44" s="11">
-        <v>7375570</v>
+        <v>7299364</v>
       </c>
       <c r="AQ44" s="11">
-        <v>7299364</v>
+        <v>9414024</v>
       </c>
       <c r="AR44" s="11">
-        <v>9414024</v>
+        <v>8782818</v>
       </c>
       <c r="AS44" s="11">
-        <v>8782818</v>
+        <v>8728208</v>
       </c>
       <c r="AT44" s="11">
-        <v>8728208</v>
+        <v>7859694</v>
       </c>
       <c r="AU44" s="11">
-        <v>7859694</v>
+        <v>9785942</v>
       </c>
       <c r="AV44" s="11">
-        <v>9785942</v>
+        <v>10377534</v>
       </c>
       <c r="AW44" s="11">
-        <v>10377534</v>
+        <v>7601381</v>
       </c>
       <c r="AX44" s="11">
-        <v>7601381</v>
+        <v>7153245</v>
       </c>
       <c r="AY44" s="11">
-        <v>7153245</v>
+        <v>6588859</v>
       </c>
       <c r="AZ44" s="11">
-        <v>6588859</v>
+        <v>5765494</v>
       </c>
       <c r="BA44" s="11">
-        <v>5765494</v>
+        <v>6832748</v>
       </c>
       <c r="BB44" s="11">
-        <v>6832748</v>
+        <v>6742831</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>60</v>
       </c>
@@ -5418,157 +5453,157 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>2665055</v>
+        <v>6214031</v>
       </c>
       <c r="F45" s="13">
-        <v>6214031</v>
+        <v>6648979</v>
       </c>
       <c r="G45" s="13">
-        <v>6648979</v>
+        <v>6140884</v>
       </c>
       <c r="H45" s="13">
-        <v>6140884</v>
+        <v>6821816</v>
       </c>
       <c r="I45" s="13">
-        <v>6821816</v>
+        <v>5395769</v>
       </c>
       <c r="J45" s="13">
-        <v>5395769</v>
+        <v>5605528</v>
       </c>
       <c r="K45" s="13">
-        <v>5605528</v>
+        <v>7072596</v>
       </c>
       <c r="L45" s="13">
-        <v>7072596</v>
+        <v>6820336</v>
       </c>
       <c r="M45" s="13">
-        <v>6820336</v>
+        <v>6294139</v>
       </c>
       <c r="N45" s="13">
-        <v>6294139</v>
+        <v>7707851</v>
       </c>
       <c r="O45" s="13">
-        <v>7707851</v>
+        <v>6614578</v>
       </c>
       <c r="P45" s="13">
-        <v>6614578</v>
+        <v>7155159</v>
       </c>
       <c r="Q45" s="13">
-        <v>7155159</v>
+        <v>7025593</v>
       </c>
       <c r="R45" s="13">
-        <v>7025593</v>
+        <v>7688409</v>
       </c>
       <c r="S45" s="13">
-        <v>7688409</v>
+        <v>7</v>
       </c>
       <c r="T45" s="13">
-        <v>7305495</v>
+        <v>8</v>
       </c>
       <c r="U45" s="13">
-        <v>7542576</v>
+        <v>5</v>
       </c>
       <c r="V45" s="13">
-        <v>5237042</v>
+        <v>6620214</v>
       </c>
       <c r="W45" s="13">
-        <v>6620214</v>
+        <v>10239418</v>
       </c>
       <c r="X45" s="13">
-        <v>10239418</v>
+        <v>11269325</v>
       </c>
       <c r="Y45" s="13">
-        <v>11269325</v>
+        <v>12926681</v>
       </c>
       <c r="Z45" s="13">
-        <v>12926683</v>
+        <v>10609866</v>
       </c>
       <c r="AA45" s="13">
-        <v>10609866</v>
+        <v>13008132</v>
       </c>
       <c r="AB45" s="13">
-        <v>13008132</v>
+        <v>16671971</v>
       </c>
       <c r="AC45" s="13">
-        <v>16671971</v>
+        <v>14780366</v>
       </c>
       <c r="AD45" s="13">
-        <v>14780366</v>
+        <v>19914714</v>
       </c>
       <c r="AE45" s="13">
-        <v>19914714</v>
+        <v>19578474</v>
       </c>
       <c r="AF45" s="13">
-        <v>19578474</v>
+        <v>18740573</v>
       </c>
       <c r="AG45" s="13">
-        <v>18740573</v>
+        <v>21123134</v>
       </c>
       <c r="AH45" s="13">
-        <v>21123134</v>
+        <v>22195484</v>
       </c>
       <c r="AI45" s="13">
-        <v>22195484</v>
+        <v>25120361</v>
       </c>
       <c r="AJ45" s="13">
-        <v>25120361</v>
+        <v>23499295</v>
       </c>
       <c r="AK45" s="13">
-        <v>23499295</v>
+        <v>28115653</v>
       </c>
       <c r="AL45" s="13">
-        <v>28115653</v>
+        <v>27338078</v>
       </c>
       <c r="AM45" s="13">
-        <v>27338079</v>
+        <v>30934752</v>
       </c>
       <c r="AN45" s="13">
-        <v>30934752</v>
+        <v>28957328</v>
       </c>
       <c r="AO45" s="13">
-        <v>28957328</v>
+        <v>30704180</v>
       </c>
       <c r="AP45" s="13">
-        <v>30704180</v>
+        <v>31198491</v>
       </c>
       <c r="AQ45" s="13">
-        <v>31198491</v>
+        <v>27174403</v>
       </c>
       <c r="AR45" s="13">
-        <v>27174403</v>
+        <v>30372557</v>
       </c>
       <c r="AS45" s="13">
-        <v>30372557</v>
+        <v>28262693</v>
       </c>
       <c r="AT45" s="13">
-        <v>28262693</v>
+        <v>28215166</v>
       </c>
       <c r="AU45" s="13">
-        <v>28215166</v>
+        <v>29878691</v>
       </c>
       <c r="AV45" s="13">
-        <v>29878691</v>
+        <v>29328796</v>
       </c>
       <c r="AW45" s="13">
-        <v>29328796</v>
+        <v>26010864</v>
       </c>
       <c r="AX45" s="13">
-        <v>26010864</v>
+        <v>25324276</v>
       </c>
       <c r="AY45" s="13">
-        <v>25324276</v>
+        <v>29530786</v>
       </c>
       <c r="AZ45" s="13">
-        <v>29530786</v>
+        <v>28032905</v>
       </c>
       <c r="BA45" s="13">
-        <v>28032905</v>
+        <v>27105111</v>
       </c>
       <c r="BB45" s="13">
-        <v>27105111</v>
+        <v>27707157</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>69</v>
       </c>
@@ -5625,7 +5660,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>55</v>
       </c>
@@ -5684,17 +5719,17 @@
       <c r="U47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y47" s="11" t="s">
-        <v>57</v>
+      <c r="V47" s="11">
+        <v>0</v>
+      </c>
+      <c r="W47" s="11">
+        <v>0</v>
+      </c>
+      <c r="X47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="11">
+        <v>0</v>
       </c>
       <c r="Z47" s="11">
         <v>0</v>
@@ -5720,8 +5755,8 @@
       <c r="AG47" s="11">
         <v>0</v>
       </c>
-      <c r="AH47" s="11">
-        <v>0</v>
+      <c r="AH47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI47" s="11" t="s">
         <v>57</v>
@@ -5784,7 +5819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>62</v>
       </c>
@@ -5843,17 +5878,17 @@
       <c r="U48" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="V48" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W48" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X48" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y48" s="15" t="s">
-        <v>57</v>
+      <c r="V48" s="15">
+        <v>0</v>
+      </c>
+      <c r="W48" s="15">
+        <v>0</v>
+      </c>
+      <c r="X48" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="15">
+        <v>0</v>
       </c>
       <c r="Z48" s="15">
         <v>0</v>
@@ -5943,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>70</v>
       </c>
@@ -6000,7 +6035,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>55</v>
       </c>
@@ -6059,17 +6094,17 @@
       <c r="U50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y50" s="11" t="s">
-        <v>57</v>
+      <c r="V50" s="11">
+        <v>0</v>
+      </c>
+      <c r="W50" s="11">
+        <v>0</v>
+      </c>
+      <c r="X50" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="11">
+        <v>0</v>
       </c>
       <c r="Z50" s="11">
         <v>0</v>
@@ -6095,8 +6130,8 @@
       <c r="AG50" s="11">
         <v>0</v>
       </c>
-      <c r="AH50" s="11">
-        <v>0</v>
+      <c r="AH50" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI50" s="11" t="s">
         <v>57</v>
@@ -6159,7 +6194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>66</v>
       </c>
@@ -6218,17 +6253,17 @@
       <c r="U51" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="V51" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W51" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X51" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y51" s="15" t="s">
-        <v>57</v>
+      <c r="V51" s="15">
+        <v>0</v>
+      </c>
+      <c r="W51" s="15">
+        <v>0</v>
+      </c>
+      <c r="X51" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="15">
+        <v>0</v>
       </c>
       <c r="Z51" s="15">
         <v>0</v>
@@ -6318,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>71</v>
       </c>
@@ -6375,7 +6410,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>72</v>
       </c>
@@ -6434,17 +6469,17 @@
       <c r="U53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y53" s="11" t="s">
-        <v>57</v>
+      <c r="V53" s="11">
+        <v>0</v>
+      </c>
+      <c r="W53" s="11">
+        <v>0</v>
+      </c>
+      <c r="X53" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="11">
+        <v>0</v>
       </c>
       <c r="Z53" s="11">
         <v>0</v>
@@ -6534,164 +6569,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>13915470</v>
+        <v>27192210</v>
       </c>
       <c r="F54" s="15">
-        <v>27192210</v>
+        <v>22309881</v>
       </c>
       <c r="G54" s="15">
-        <v>22309881</v>
+        <v>20152741</v>
       </c>
       <c r="H54" s="15">
-        <v>20152741</v>
+        <v>26144301</v>
       </c>
       <c r="I54" s="15">
-        <v>26144301</v>
+        <v>26285207</v>
       </c>
       <c r="J54" s="15">
-        <v>26285207</v>
+        <v>23261542</v>
       </c>
       <c r="K54" s="15">
-        <v>23261542</v>
+        <v>35223799</v>
       </c>
       <c r="L54" s="15">
-        <v>35223799</v>
+        <v>37461519</v>
       </c>
       <c r="M54" s="15">
-        <v>37461519</v>
+        <v>35232544</v>
       </c>
       <c r="N54" s="15">
-        <v>35232544</v>
+        <v>32710128</v>
       </c>
       <c r="O54" s="15">
-        <v>32710128</v>
+        <v>36447958</v>
       </c>
       <c r="P54" s="15">
-        <v>36447958</v>
+        <v>34083949</v>
       </c>
       <c r="Q54" s="15">
-        <v>34083949</v>
+        <v>32362216</v>
       </c>
       <c r="R54" s="15">
-        <v>32362216</v>
+        <v>29345860</v>
       </c>
       <c r="S54" s="15">
-        <v>29345860</v>
+        <v>32</v>
       </c>
       <c r="T54" s="15">
-        <v>31822531</v>
+        <v>38</v>
       </c>
       <c r="U54" s="15">
-        <v>37989087</v>
+        <v>25</v>
       </c>
       <c r="V54" s="15">
-        <v>25496419</v>
+        <v>25826273</v>
       </c>
       <c r="W54" s="15">
-        <v>25826273</v>
+        <v>51689755</v>
       </c>
       <c r="X54" s="15">
-        <v>51689755</v>
+        <v>49169256</v>
       </c>
       <c r="Y54" s="15">
-        <v>49169256</v>
+        <v>48844204</v>
       </c>
       <c r="Z54" s="15">
-        <v>48844204</v>
+        <v>42913621</v>
       </c>
       <c r="AA54" s="15">
-        <v>42913621</v>
+        <v>55174814</v>
       </c>
       <c r="AB54" s="15">
-        <v>55101151</v>
+        <v>67348089</v>
       </c>
       <c r="AC54" s="15">
-        <v>67348088</v>
+        <v>75216101</v>
       </c>
       <c r="AD54" s="15">
-        <v>75216101</v>
+        <v>78370436</v>
       </c>
       <c r="AE54" s="15">
-        <v>78370436</v>
+        <v>84724208</v>
       </c>
       <c r="AF54" s="15">
-        <v>84724117</v>
+        <v>83653569</v>
       </c>
       <c r="AG54" s="15">
-        <v>83653566</v>
+        <v>111106419</v>
       </c>
       <c r="AH54" s="15">
-        <v>111106419</v>
+        <v>90854066</v>
       </c>
       <c r="AI54" s="15">
-        <v>90854065</v>
+        <v>124500980</v>
       </c>
       <c r="AJ54" s="15">
-        <v>124500980</v>
+        <v>121298880</v>
       </c>
       <c r="AK54" s="15">
-        <v>121298880</v>
+        <v>114212036</v>
       </c>
       <c r="AL54" s="15">
-        <v>114212036</v>
+        <v>89402619</v>
       </c>
       <c r="AM54" s="15">
-        <v>89402622</v>
+        <v>120578768</v>
       </c>
       <c r="AN54" s="15">
-        <v>120578768</v>
+        <v>126484725</v>
       </c>
       <c r="AO54" s="15">
-        <v>126484725</v>
+        <v>127066952</v>
       </c>
       <c r="AP54" s="15">
-        <v>127066952</v>
+        <v>135292297</v>
       </c>
       <c r="AQ54" s="15">
-        <v>135292297</v>
+        <v>132919080</v>
       </c>
       <c r="AR54" s="15">
-        <v>132919081</v>
+        <v>294586208</v>
       </c>
       <c r="AS54" s="15">
-        <v>294586208</v>
+        <v>146185417</v>
       </c>
       <c r="AT54" s="15">
-        <v>146185417</v>
+        <v>120678354</v>
       </c>
       <c r="AU54" s="15">
-        <v>120678354</v>
+        <v>173500478</v>
       </c>
       <c r="AV54" s="15">
-        <v>173500478</v>
+        <v>187316082</v>
       </c>
       <c r="AW54" s="15">
-        <v>187316082</v>
+        <v>121656486</v>
       </c>
       <c r="AX54" s="15">
-        <v>121656486</v>
+        <v>102344184</v>
       </c>
       <c r="AY54" s="15">
-        <v>102344184</v>
+        <v>98064186</v>
       </c>
       <c r="AZ54" s="15">
-        <v>98064186</v>
+        <v>107258106</v>
       </c>
       <c r="BA54" s="15">
-        <v>107258106</v>
+        <v>114094126</v>
       </c>
       <c r="BB54" s="15">
-        <v>114094126</v>
+        <v>122928341</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6746,7 +6781,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6801,7 +6836,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6856,7 +6891,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>73</v>
       </c>
@@ -7013,7 +7048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7068,7 +7103,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>74</v>
       </c>
@@ -7125,7 +7160,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>55</v>
       </c>
@@ -7134,157 +7169,157 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>25339428571</v>
+        <v>33043533333</v>
       </c>
       <c r="F61" s="11">
-        <v>33043533333</v>
+        <v>38574500000</v>
       </c>
       <c r="G61" s="11">
-        <v>38574500000</v>
+        <v>39079142857</v>
       </c>
       <c r="H61" s="11">
-        <v>39079142857</v>
+        <v>32637000000</v>
       </c>
       <c r="I61" s="11">
-        <v>32637000000</v>
+        <v>33080622222</v>
       </c>
       <c r="J61" s="11">
-        <v>33080622222</v>
+        <v>34754125000</v>
       </c>
       <c r="K61" s="11">
-        <v>34754125000</v>
+        <v>38488050000</v>
       </c>
       <c r="L61" s="11">
-        <v>38488050000</v>
+        <v>40833781955</v>
       </c>
       <c r="M61" s="11">
-        <v>40833781955</v>
+        <v>43304937500</v>
       </c>
       <c r="N61" s="11">
-        <v>43304937500</v>
+        <v>44483520000</v>
       </c>
       <c r="O61" s="11">
-        <v>44483520000</v>
+        <v>41567746575</v>
       </c>
       <c r="P61" s="11">
-        <v>41567746575</v>
+        <v>40968947368</v>
       </c>
       <c r="Q61" s="11">
-        <v>40968947368</v>
+        <v>39393282759</v>
       </c>
       <c r="R61" s="11">
-        <v>39393282759</v>
+        <v>39599000000</v>
       </c>
       <c r="S61" s="11">
-        <v>39599000000</v>
+        <v>42405773050</v>
       </c>
       <c r="T61" s="11">
-        <v>42405773050</v>
+        <v>45380150259</v>
       </c>
       <c r="U61" s="11">
-        <v>45380150259</v>
+        <v>45416516949</v>
       </c>
       <c r="V61" s="11">
-        <v>45416516949</v>
+        <v>55183518519</v>
       </c>
       <c r="W61" s="11">
-        <v>55183518519</v>
+        <v>56430859259</v>
       </c>
       <c r="X61" s="11">
-        <v>56430859259</v>
+        <v>59074340136</v>
       </c>
       <c r="Y61" s="11">
-        <v>59074340136</v>
+        <v>59631880000</v>
       </c>
       <c r="Z61" s="11">
-        <v>59631872000</v>
+        <v>79758161290</v>
       </c>
       <c r="AA61" s="11">
-        <v>79758161290</v>
+        <v>75147797619</v>
       </c>
       <c r="AB61" s="11">
-        <v>74270857143</v>
+        <v>94046065217</v>
       </c>
       <c r="AC61" s="11">
-        <v>94046065217</v>
+        <v>95832156977</v>
       </c>
       <c r="AD61" s="11">
-        <v>95832156977</v>
+        <v>114864901639</v>
       </c>
       <c r="AE61" s="11">
-        <v>114864901639</v>
+        <v>123156875912</v>
       </c>
       <c r="AF61" s="11">
-        <v>123156875912</v>
+        <v>121413722772</v>
       </c>
       <c r="AG61" s="11">
-        <v>121413693069</v>
+        <v>131277181159</v>
       </c>
       <c r="AH61" s="11">
-        <v>131277181159</v>
+        <v>136793142857</v>
       </c>
       <c r="AI61" s="11">
-        <v>136793142857</v>
+        <v>134420607330</v>
       </c>
       <c r="AJ61" s="11">
-        <v>134420607330</v>
+        <v>135279613734</v>
       </c>
       <c r="AK61" s="11">
-        <v>135279613734</v>
+        <v>153710220126</v>
       </c>
       <c r="AL61" s="11">
-        <v>153710220126</v>
+        <v>153490779661</v>
       </c>
       <c r="AM61" s="11">
-        <v>153490779661</v>
+        <v>153596937500</v>
       </c>
       <c r="AN61" s="11">
-        <v>153596937500</v>
+        <v>165851480620</v>
       </c>
       <c r="AO61" s="11">
-        <v>165851480620</v>
+        <v>146189016129</v>
       </c>
       <c r="AP61" s="11">
-        <v>146189016129</v>
+        <v>161530714286</v>
       </c>
       <c r="AQ61" s="11">
-        <v>161530714286</v>
-      </c>
-      <c r="AR61" s="11">
-        <v>164045579710</v>
+        <v>164045594203</v>
+      </c>
+      <c r="AR61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT61" s="11" t="s">
-        <v>57</v>
+      <c r="AT61" s="11">
+        <v>157470761194</v>
       </c>
       <c r="AU61" s="11">
-        <v>157470761194</v>
+        <v>157464991736</v>
       </c>
       <c r="AV61" s="11">
-        <v>157424783326</v>
+        <v>158699528302</v>
       </c>
       <c r="AW61" s="11">
-        <v>159147876817</v>
+        <v>198947658537</v>
       </c>
       <c r="AX61" s="11">
-        <v>180844382905</v>
+        <v>147223413793</v>
       </c>
       <c r="AY61" s="11">
-        <v>147223413793</v>
+        <v>154823311111</v>
       </c>
       <c r="AZ61" s="11">
-        <v>154823311111</v>
+        <v>159744236842</v>
       </c>
       <c r="BA61" s="11">
-        <v>159744236842</v>
+        <v>128625058140</v>
       </c>
       <c r="BB61" s="11">
-        <v>128625058140</v>
+        <v>131960933333</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>58</v>
       </c>
@@ -7293,157 +7328,157 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>36390775439</v>
+        <v>37425924453</v>
       </c>
       <c r="F62" s="13">
-        <v>37425924453</v>
+        <v>41648587248</v>
       </c>
       <c r="G62" s="13">
-        <v>41648587248</v>
+        <v>45828087866</v>
       </c>
       <c r="H62" s="13">
-        <v>45828087866</v>
+        <v>41470479784</v>
       </c>
       <c r="I62" s="13">
-        <v>41470479784</v>
+        <v>41781645631</v>
       </c>
       <c r="J62" s="13">
-        <v>41781645631</v>
+        <v>44402133987</v>
       </c>
       <c r="K62" s="13">
-        <v>44402133987</v>
+        <v>46835741107</v>
       </c>
       <c r="L62" s="13">
-        <v>46835741107</v>
+        <v>51899022573</v>
       </c>
       <c r="M62" s="13">
-        <v>51899022573</v>
+        <v>54566297368</v>
       </c>
       <c r="N62" s="13">
-        <v>54566297368</v>
+        <v>52379128272</v>
       </c>
       <c r="O62" s="13">
-        <v>52379128272</v>
+        <v>50781768116</v>
       </c>
       <c r="P62" s="13">
-        <v>50781768116</v>
+        <v>49079002513</v>
       </c>
       <c r="Q62" s="13">
-        <v>49079002513</v>
+        <v>47683649718</v>
       </c>
       <c r="R62" s="13">
-        <v>47683649718</v>
+        <v>47400332143</v>
       </c>
       <c r="S62" s="13">
-        <v>47400332143</v>
+        <v>47784200599</v>
       </c>
       <c r="T62" s="13">
-        <v>47784200599</v>
+        <v>49941232737</v>
       </c>
       <c r="U62" s="13">
-        <v>49941232737</v>
+        <v>52601884000</v>
       </c>
       <c r="V62" s="13">
-        <v>52601884000</v>
+        <v>53130656827</v>
       </c>
       <c r="W62" s="13">
-        <v>53130656827</v>
+        <v>56523448980</v>
       </c>
       <c r="X62" s="13">
-        <v>56523448980</v>
+        <v>59573253425</v>
       </c>
       <c r="Y62" s="13">
-        <v>59573253425</v>
+        <v>66841466667</v>
       </c>
       <c r="Z62" s="13">
-        <v>67020181818</v>
+        <v>74637582043</v>
       </c>
       <c r="AA62" s="13">
-        <v>74637582043</v>
+        <v>82870252577</v>
       </c>
       <c r="AB62" s="13">
-        <v>82870252577</v>
+        <v>95011434896</v>
       </c>
       <c r="AC62" s="13">
-        <v>95011432292</v>
+        <v>108414695890</v>
       </c>
       <c r="AD62" s="13">
-        <v>108414695890</v>
+        <v>121158180124</v>
       </c>
       <c r="AE62" s="13">
-        <v>121158180124</v>
+        <v>126839214724</v>
       </c>
       <c r="AF62" s="13">
-        <v>126838935583</v>
+        <v>131221183844</v>
       </c>
       <c r="AG62" s="13">
-        <v>131221183844</v>
+        <v>147395667401</v>
       </c>
       <c r="AH62" s="13">
-        <v>147395667401</v>
+        <v>165169491018</v>
       </c>
       <c r="AI62" s="13">
-        <v>165169488024</v>
+        <v>171515746835</v>
       </c>
       <c r="AJ62" s="13">
-        <v>171515746835</v>
+        <v>177050080597</v>
       </c>
       <c r="AK62" s="13">
-        <v>177050080597</v>
+        <v>182525156146</v>
       </c>
       <c r="AL62" s="13">
-        <v>182525156146</v>
+        <v>197459353191</v>
       </c>
       <c r="AM62" s="13">
-        <v>196622665254</v>
+        <v>206047483871</v>
       </c>
       <c r="AN62" s="13">
-        <v>206047483871</v>
+        <v>209075247761</v>
       </c>
       <c r="AO62" s="13">
-        <v>209075247761</v>
+        <v>214848072581</v>
       </c>
       <c r="AP62" s="13">
-        <v>214848072581</v>
+        <v>210500376923</v>
       </c>
       <c r="AQ62" s="13">
-        <v>209962012788</v>
+        <v>214675522727</v>
       </c>
       <c r="AR62" s="13">
-        <v>213596756281</v>
+        <v>161358706886</v>
       </c>
       <c r="AS62" s="13">
-        <v>193722178450</v>
+        <v>174153933014</v>
       </c>
       <c r="AT62" s="13">
-        <v>174153933014</v>
+        <v>198533386059</v>
       </c>
       <c r="AU62" s="13">
-        <v>198533386059</v>
+        <v>203246957537</v>
       </c>
       <c r="AV62" s="13">
-        <v>203246957537</v>
+        <v>210268361624</v>
       </c>
       <c r="AW62" s="13">
-        <v>210268360500</v>
+        <v>202246549367</v>
       </c>
       <c r="AX62" s="13">
-        <v>201455690433</v>
+        <v>195812489552</v>
       </c>
       <c r="AY62" s="13">
-        <v>195812489552</v>
+        <v>180847013158</v>
       </c>
       <c r="AZ62" s="13">
-        <v>180847013158</v>
+        <v>174584005181</v>
       </c>
       <c r="BA62" s="13">
-        <v>174584011884</v>
+        <v>170183527094</v>
       </c>
       <c r="BB62" s="13">
-        <v>170183527094</v>
+        <v>168155187500</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>59</v>
       </c>
@@ -7452,157 +7487,157 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>53974461538</v>
+        <v>61380962963</v>
       </c>
       <c r="F63" s="11">
-        <v>61380962963</v>
+        <v>71972821429</v>
       </c>
       <c r="G63" s="11">
-        <v>71972821429</v>
+        <v>89708428571</v>
       </c>
       <c r="H63" s="11">
-        <v>89708428571</v>
+        <v>86981560000</v>
       </c>
       <c r="I63" s="11">
-        <v>86981560000</v>
+        <v>87470880000</v>
       </c>
       <c r="J63" s="11">
-        <v>87470880000</v>
+        <v>87842714286</v>
       </c>
       <c r="K63" s="11">
-        <v>87842714286</v>
+        <v>97410681818</v>
       </c>
       <c r="L63" s="11">
-        <v>97410681818</v>
+        <v>100864681818</v>
       </c>
       <c r="M63" s="11">
-        <v>100864681818</v>
+        <v>106407200000</v>
       </c>
       <c r="N63" s="11">
-        <v>106407200000</v>
+        <v>125876090909</v>
       </c>
       <c r="O63" s="11">
-        <v>125876090909</v>
+        <v>119166826087</v>
       </c>
       <c r="P63" s="11">
-        <v>119166826087</v>
+        <v>118473347826</v>
       </c>
       <c r="Q63" s="11">
-        <v>118473347826</v>
+        <v>109783400000</v>
       </c>
       <c r="R63" s="11">
-        <v>109783400000</v>
+        <v>106989870968</v>
       </c>
       <c r="S63" s="11">
-        <v>106989870968</v>
+        <v>103115960000</v>
       </c>
       <c r="T63" s="11">
-        <v>103115960000</v>
+        <v>102910476190</v>
       </c>
       <c r="U63" s="11">
-        <v>102910476190</v>
+        <v>102926882353</v>
       </c>
       <c r="V63" s="11">
-        <v>102926882353</v>
+        <v>101541166667</v>
       </c>
       <c r="W63" s="11">
-        <v>101541166667</v>
+        <v>116070068966</v>
       </c>
       <c r="X63" s="11">
-        <v>116070068966</v>
+        <v>115663629630</v>
       </c>
       <c r="Y63" s="11">
-        <v>115663629630</v>
+        <v>121356714286</v>
       </c>
       <c r="Z63" s="11">
-        <v>121356750000</v>
+        <v>120400370370</v>
       </c>
       <c r="AA63" s="11">
-        <v>120400370370</v>
+        <v>137059592593</v>
       </c>
       <c r="AB63" s="11">
-        <v>137059592593</v>
+        <v>145776026316</v>
       </c>
       <c r="AC63" s="11">
-        <v>145776026316</v>
+        <v>175249600000</v>
       </c>
       <c r="AD63" s="11">
-        <v>175249600000</v>
+        <v>187216206897</v>
       </c>
       <c r="AE63" s="11">
-        <v>187216206897</v>
+        <v>187125891892</v>
       </c>
       <c r="AF63" s="11">
-        <v>187125891892</v>
+        <v>221672200000</v>
       </c>
       <c r="AG63" s="11">
-        <v>221672200000</v>
+        <v>224972772727</v>
       </c>
       <c r="AH63" s="11">
-        <v>224972772727</v>
+        <v>233262240000</v>
       </c>
       <c r="AI63" s="11">
-        <v>233262240000</v>
+        <v>229137038462</v>
       </c>
       <c r="AJ63" s="11">
-        <v>229137038462</v>
+        <v>240264068966</v>
       </c>
       <c r="AK63" s="11">
-        <v>240264068966</v>
+        <v>248755037037</v>
       </c>
       <c r="AL63" s="11">
-        <v>248755037037</v>
+        <v>264225480000</v>
       </c>
       <c r="AM63" s="11">
-        <v>264225520000</v>
+        <v>283762760000</v>
       </c>
       <c r="AN63" s="11">
-        <v>283762760000</v>
+        <v>304617400000</v>
       </c>
       <c r="AO63" s="11">
-        <v>304617400000</v>
+        <v>295022800000</v>
       </c>
       <c r="AP63" s="11">
-        <v>295022800000</v>
+        <v>291974560000</v>
       </c>
       <c r="AQ63" s="11">
-        <v>291974560000</v>
+        <v>294188250000</v>
       </c>
       <c r="AR63" s="11">
-        <v>294188250000</v>
+        <v>302855793103</v>
       </c>
       <c r="AS63" s="11">
-        <v>293699355606</v>
+        <v>290940266667</v>
       </c>
       <c r="AT63" s="11">
-        <v>290940266667</v>
+        <v>314387760000</v>
       </c>
       <c r="AU63" s="11">
-        <v>314387760000</v>
+        <v>305810687500</v>
       </c>
       <c r="AV63" s="11">
-        <v>305810687500</v>
+        <v>288264833333</v>
       </c>
       <c r="AW63" s="11">
-        <v>288264833333</v>
+        <v>316724208333</v>
       </c>
       <c r="AX63" s="11">
-        <v>306628671711</v>
+        <v>298051875000</v>
       </c>
       <c r="AY63" s="11">
-        <v>298051875000</v>
+        <v>299493590909</v>
       </c>
       <c r="AZ63" s="11">
-        <v>299493590909</v>
+        <v>320305222222</v>
       </c>
       <c r="BA63" s="11">
-        <v>320305222222</v>
+        <v>297076000000</v>
       </c>
       <c r="BB63" s="11">
-        <v>297076000000</v>
+        <v>306492318182</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>60</v>
       </c>
@@ -7611,157 +7646,157 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>34611103896</v>
+        <v>41986695946</v>
       </c>
       <c r="F64" s="13">
-        <v>41986695946</v>
+        <v>47492707143</v>
       </c>
       <c r="G64" s="13">
-        <v>47492707143</v>
+        <v>56338385321</v>
       </c>
       <c r="H64" s="13">
-        <v>56338385321</v>
+        <v>51291849624</v>
       </c>
       <c r="I64" s="13">
-        <v>51291849624</v>
+        <v>50427747664</v>
       </c>
       <c r="J64" s="13">
-        <v>50427747664</v>
+        <v>50049357143</v>
       </c>
       <c r="K64" s="13">
-        <v>50049357143</v>
+        <v>51624788321</v>
       </c>
       <c r="L64" s="13">
-        <v>51624788321</v>
+        <v>53703433071</v>
       </c>
       <c r="M64" s="13">
-        <v>53703433071</v>
+        <v>57219445455</v>
       </c>
       <c r="N64" s="13">
-        <v>57219445455</v>
+        <v>59750782946</v>
       </c>
       <c r="O64" s="13">
-        <v>59750782946</v>
+        <v>59590792793</v>
       </c>
       <c r="P64" s="13">
-        <v>59590792793</v>
+        <v>58172024390</v>
       </c>
       <c r="Q64" s="13">
-        <v>58172024390</v>
+        <v>57118642276</v>
       </c>
       <c r="R64" s="13">
-        <v>57118642276</v>
+        <v>57376186567</v>
       </c>
       <c r="S64" s="13">
-        <v>57376186567</v>
+        <v>57074179688</v>
       </c>
       <c r="T64" s="13">
-        <v>57074179688</v>
+        <v>59861714286</v>
       </c>
       <c r="U64" s="13">
-        <v>59861714286</v>
+        <v>62345738095</v>
       </c>
       <c r="V64" s="13">
-        <v>62345738095</v>
+        <v>70427808511</v>
       </c>
       <c r="W64" s="13">
-        <v>70427808511</v>
+        <v>77571348485</v>
       </c>
       <c r="X64" s="13">
-        <v>77571348485</v>
+        <v>81661775362</v>
       </c>
       <c r="Y64" s="13">
-        <v>81661775362</v>
+        <v>86756248322</v>
       </c>
       <c r="Z64" s="13">
-        <v>86756261745</v>
+        <v>93892619469</v>
       </c>
       <c r="AA64" s="13">
-        <v>93892619469</v>
+        <v>109312033613</v>
       </c>
       <c r="AB64" s="13">
-        <v>108401100000</v>
+        <v>126302810606</v>
       </c>
       <c r="AC64" s="13">
-        <v>126302810606</v>
+        <v>134366963636</v>
       </c>
       <c r="AD64" s="13">
-        <v>134366963636</v>
+        <v>146431720588</v>
       </c>
       <c r="AE64" s="13">
-        <v>146431720588</v>
+        <v>156627792000</v>
       </c>
       <c r="AF64" s="13">
-        <v>156627792000</v>
+        <v>167326544643</v>
       </c>
       <c r="AG64" s="13">
-        <v>167326544643</v>
+        <v>180539606838</v>
       </c>
       <c r="AH64" s="13">
-        <v>180539606838</v>
+        <v>194697228070</v>
       </c>
       <c r="AI64" s="13">
-        <v>194697228070</v>
+        <v>200962888000</v>
       </c>
       <c r="AJ64" s="13">
-        <v>200962888000</v>
+        <v>207958362832</v>
       </c>
       <c r="AK64" s="13">
-        <v>207958362832</v>
+        <v>224925224000</v>
       </c>
       <c r="AL64" s="13">
-        <v>224925224000</v>
+        <v>233658786325</v>
       </c>
       <c r="AM64" s="13">
-        <v>233658794872</v>
+        <v>239804279070</v>
       </c>
       <c r="AN64" s="13">
-        <v>239804279070</v>
+        <v>241311066667</v>
       </c>
       <c r="AO64" s="13">
-        <v>241311066667</v>
+        <v>241765196850</v>
       </c>
       <c r="AP64" s="13">
-        <v>241765196850</v>
+        <v>241848767442</v>
       </c>
       <c r="AQ64" s="13">
-        <v>239988392308</v>
+        <v>242628598214</v>
       </c>
       <c r="AR64" s="13">
-        <v>242628598214</v>
+        <v>239153992126</v>
       </c>
       <c r="AS64" s="13">
-        <v>242638527098</v>
+        <v>235522441667</v>
       </c>
       <c r="AT64" s="13">
-        <v>235522441667</v>
+        <v>235126383333</v>
       </c>
       <c r="AU64" s="13">
-        <v>235126383333</v>
+        <v>228081610687</v>
       </c>
       <c r="AV64" s="13">
-        <v>228081610687</v>
+        <v>229131218750</v>
       </c>
       <c r="AW64" s="13">
-        <v>229131218750</v>
+        <v>228165473684</v>
       </c>
       <c r="AX64" s="13">
-        <v>231300256339</v>
+        <v>234484037037</v>
       </c>
       <c r="AY64" s="13">
-        <v>234484037037</v>
+        <v>230709265625</v>
       </c>
       <c r="AZ64" s="13">
-        <v>230709265625</v>
+        <v>229777909836</v>
       </c>
       <c r="BA64" s="13">
-        <v>229777909836</v>
+        <v>229704330508</v>
       </c>
       <c r="BB64" s="13">
-        <v>229704330508</v>
+        <v>230892975000</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>76</v>
       </c>
@@ -7818,7 +7853,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>55</v>
       </c>
@@ -7877,17 +7912,17 @@
       <c r="U66" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V66" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W66" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X66" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y66" s="11" t="s">
-        <v>57</v>
+      <c r="V66" s="11">
+        <v>0</v>
+      </c>
+      <c r="W66" s="11">
+        <v>0</v>
+      </c>
+      <c r="X66" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="11">
+        <v>0</v>
       </c>
       <c r="Z66" s="11">
         <v>0</v>
@@ -7913,8 +7948,8 @@
       <c r="AG66" s="11">
         <v>0</v>
       </c>
-      <c r="AH66" s="11">
-        <v>0</v>
+      <c r="AH66" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI66" s="11" t="s">
         <v>57</v>

--- a/database/industries/folad/folad/product/monthly.xlsx
+++ b/database/industries/folad/folad/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FE1E08-28CA-4605-833A-78CF2C0BE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD68C4D-547A-4BA0-8093-96C79B1FB1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فولاد-فولاد مبارکه اصفهان</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -727,12 +727,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -787,7 +787,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -956,7 +956,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1125,7 +1125,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1337,7 +1337,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1403,157 +1403,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F11" s="11">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G11" s="11">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H11" s="11">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="I11" s="11">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="J11" s="11">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="K11" s="11">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="L11" s="11">
+        <v>158</v>
+      </c>
+      <c r="M11" s="11">
+        <v>146</v>
+      </c>
+      <c r="N11" s="11">
+        <v>118</v>
+      </c>
+      <c r="O11" s="11">
+        <v>128</v>
+      </c>
+      <c r="P11" s="11">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>130</v>
+      </c>
+      <c r="R11" s="11">
+        <v>84</v>
+      </c>
+      <c r="S11" s="11">
+        <v>50</v>
+      </c>
+      <c r="T11" s="11">
+        <v>116</v>
+      </c>
+      <c r="U11" s="11">
+        <v>135</v>
+      </c>
+      <c r="V11" s="11">
+        <v>127</v>
+      </c>
+      <c r="W11" s="11">
+        <v>124</v>
+      </c>
+      <c r="X11" s="11">
+        <v>102</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>164</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>162</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>156</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>104</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>82</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>87</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>195</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>203</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>208</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>165</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>73</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>24</v>
+      </c>
+      <c r="AK11" s="11">
         <v>78</v>
       </c>
-      <c r="M11" s="11">
-        <v>104</v>
-      </c>
-      <c r="N11" s="11">
-        <v>158</v>
-      </c>
-      <c r="O11" s="11">
-        <v>146</v>
-      </c>
-      <c r="P11" s="11">
-        <v>118</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>128</v>
-      </c>
-      <c r="R11" s="11">
-        <v>166</v>
-      </c>
-      <c r="S11" s="11">
-        <v>130</v>
-      </c>
-      <c r="T11" s="11">
-        <v>84</v>
-      </c>
-      <c r="U11" s="11">
-        <v>50</v>
-      </c>
-      <c r="V11" s="11">
-        <v>116</v>
-      </c>
-      <c r="W11" s="11">
-        <v>135</v>
-      </c>
-      <c r="X11" s="11">
-        <v>127</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>121</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>102</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>165</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>163</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>159</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>105</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>83</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>85</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>195</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>203</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>209</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>165</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>91</v>
-      </c>
       <c r="AL11" s="11">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AM11" s="11">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="AN11" s="11">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="AO11" s="11">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AP11" s="11">
-        <v>59</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>81</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>57</v>
+        <v>191</v>
+      </c>
+      <c r="AQ11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>224</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>107</v>
       </c>
       <c r="AT11" s="11">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="AU11" s="11">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AV11" s="11">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="AW11" s="11">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="AX11" s="11">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="AY11" s="11">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AZ11" s="11">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="BA11" s="11">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="BB11" s="11">
-        <v>222</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1562,157 +1562,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>363</v>
+        <v>242</v>
       </c>
       <c r="F12" s="13">
-        <v>248</v>
+        <v>400</v>
       </c>
       <c r="G12" s="13">
-        <v>242</v>
+        <v>343</v>
       </c>
       <c r="H12" s="13">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="I12" s="13">
-        <v>343</v>
+        <v>446</v>
       </c>
       <c r="J12" s="13">
         <v>410</v>
       </c>
       <c r="K12" s="13">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="L12" s="13">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="M12" s="13">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="N12" s="13">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="O12" s="13">
-        <v>434</v>
+        <v>345</v>
       </c>
       <c r="P12" s="13">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="Q12" s="13">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="R12" s="13">
+        <v>329</v>
+      </c>
+      <c r="S12" s="13">
+        <v>364</v>
+      </c>
+      <c r="T12" s="13">
+        <v>424</v>
+      </c>
+      <c r="U12" s="13">
+        <v>456</v>
+      </c>
+      <c r="V12" s="13">
+        <v>343</v>
+      </c>
+      <c r="W12" s="13">
+        <v>392</v>
+      </c>
+      <c r="X12" s="13">
+        <v>368</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>412</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>309</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>358</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>288</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>364</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>381</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>402</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>407</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>457</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>288</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>234</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>222</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>323</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>342</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>386</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>400</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>380</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>365</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>555</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>492</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>470</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>467</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>354</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>282</v>
+      </c>
+      <c r="AW12" s="13">
         <v>312</v>
       </c>
-      <c r="S12" s="13">
-        <v>354</v>
-      </c>
-      <c r="T12" s="13">
-        <v>329</v>
-      </c>
-      <c r="U12" s="13">
-        <v>364</v>
-      </c>
-      <c r="V12" s="13">
-        <v>424</v>
-      </c>
-      <c r="W12" s="13">
-        <v>456</v>
-      </c>
-      <c r="X12" s="13">
-        <v>343</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>392</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>367</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>421</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>310</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>357</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>283</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>364</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>380</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>402</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>406</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>457</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>287</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>234</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>222</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>323</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>342</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>386</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>401</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>380</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>1542</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>555</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>485</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>470</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>467</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>353</v>
-      </c>
       <c r="AX12" s="13">
-        <v>282</v>
+        <v>395</v>
       </c>
       <c r="AY12" s="13">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="AZ12" s="13">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="BA12" s="13">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="BB12" s="13">
-        <v>437</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1721,157 +1721,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11">
         <v>23</v>
       </c>
-      <c r="F13" s="11">
+      <c r="G13" s="11">
+        <v>23</v>
+      </c>
+      <c r="H13" s="11">
+        <v>22</v>
+      </c>
+      <c r="I13" s="11">
+        <v>26</v>
+      </c>
+      <c r="J13" s="11">
+        <v>26</v>
+      </c>
+      <c r="K13" s="11">
         <v>24</v>
       </c>
-      <c r="G13" s="11">
-        <v>25</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="L13" s="11">
         <v>23</v>
       </c>
-      <c r="I13" s="11">
-        <v>23</v>
-      </c>
-      <c r="J13" s="11">
+      <c r="M13" s="11">
         <v>22</v>
       </c>
-      <c r="K13" s="11">
+      <c r="N13" s="11">
+        <v>24</v>
+      </c>
+      <c r="O13" s="11">
         <v>26</v>
       </c>
-      <c r="L13" s="11">
+      <c r="P13" s="11">
         <v>26</v>
-      </c>
-      <c r="M13" s="11">
-        <v>24</v>
-      </c>
-      <c r="N13" s="11">
-        <v>23</v>
-      </c>
-      <c r="O13" s="11">
-        <v>22</v>
-      </c>
-      <c r="P13" s="11">
-        <v>24</v>
       </c>
       <c r="Q13" s="11">
         <v>26</v>
       </c>
       <c r="R13" s="11">
+        <v>24</v>
+      </c>
+      <c r="S13" s="11">
+        <v>22</v>
+      </c>
+      <c r="T13" s="11">
+        <v>23</v>
+      </c>
+      <c r="U13" s="11">
         <v>26</v>
-      </c>
-      <c r="S13" s="11">
-        <v>26</v>
-      </c>
-      <c r="T13" s="11">
-        <v>24</v>
-      </c>
-      <c r="U13" s="11">
-        <v>22</v>
       </c>
       <c r="V13" s="11">
         <v>23</v>
       </c>
       <c r="W13" s="11">
+        <v>24</v>
+      </c>
+      <c r="X13" s="11">
+        <v>25</v>
+      </c>
+      <c r="Y13" s="11">
         <v>26</v>
-      </c>
-      <c r="X13" s="11">
-        <v>23</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>24</v>
       </c>
       <c r="Z13" s="11">
         <v>25</v>
       </c>
       <c r="AA13" s="11">
+        <v>26</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>30</v>
+      </c>
+      <c r="AC13" s="11">
         <v>25</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>24</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>26</v>
       </c>
       <c r="AD13" s="11">
         <v>25</v>
       </c>
       <c r="AE13" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AF13" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG13" s="11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AH13" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI13" s="11">
         <v>26</v>
       </c>
       <c r="AJ13" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK13" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL13" s="11">
+        <v>25</v>
+      </c>
+      <c r="AM13" s="11">
         <v>24</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>28</v>
       </c>
       <c r="AN13" s="11">
         <v>25</v>
       </c>
       <c r="AO13" s="11">
+        <v>29</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>32</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>31</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>29</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>34</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>30</v>
+      </c>
+      <c r="AU13" s="11">
         <v>24</v>
       </c>
-      <c r="AP13" s="11">
-        <v>23</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>28</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>32</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>31</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>29</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>34</v>
-      </c>
       <c r="AV13" s="11">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AW13" s="11">
+        <v>21</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>20</v>
+      </c>
+      <c r="AY13" s="11">
+        <v>21</v>
+      </c>
+      <c r="AZ13" s="11">
+        <v>19</v>
+      </c>
+      <c r="BA13" s="11">
         <v>24</v>
       </c>
-      <c r="AX13" s="11">
-        <v>21</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>19</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>20</v>
-      </c>
-      <c r="BA13" s="11">
-        <v>22</v>
-      </c>
       <c r="BB13" s="11">
-        <v>19</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1880,157 +1880,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="F14" s="13">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G14" s="13">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H14" s="13">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I14" s="13">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="J14" s="13">
         <v>125</v>
       </c>
       <c r="K14" s="13">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L14" s="13">
+        <v>117</v>
+      </c>
+      <c r="M14" s="13">
+        <v>121</v>
+      </c>
+      <c r="N14" s="13">
+        <v>115</v>
+      </c>
+      <c r="O14" s="13">
+        <v>131</v>
+      </c>
+      <c r="P14" s="13">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>121</v>
+      </c>
+      <c r="R14" s="13">
         <v>125</v>
       </c>
-      <c r="M14" s="13">
-        <v>126</v>
-      </c>
-      <c r="N14" s="13">
-        <v>117</v>
-      </c>
-      <c r="O14" s="13">
+      <c r="S14" s="13">
+        <v>109</v>
+      </c>
+      <c r="T14" s="13">
+        <v>104</v>
+      </c>
+      <c r="U14" s="13">
+        <v>125</v>
+      </c>
+      <c r="V14" s="13">
+        <v>129</v>
+      </c>
+      <c r="W14" s="13">
+        <v>134</v>
+      </c>
+      <c r="X14" s="13">
+        <v>118</v>
+      </c>
+      <c r="Y14" s="13">
         <v>121</v>
       </c>
-      <c r="P14" s="13">
-        <v>115</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>131</v>
-      </c>
-      <c r="R14" s="13">
-        <v>122</v>
-      </c>
-      <c r="S14" s="13">
-        <v>121</v>
-      </c>
-      <c r="T14" s="13">
-        <v>125</v>
-      </c>
-      <c r="U14" s="13">
-        <v>109</v>
-      </c>
-      <c r="V14" s="13">
-        <v>104</v>
-      </c>
-      <c r="W14" s="13">
-        <v>125</v>
-      </c>
-      <c r="X14" s="13">
-        <v>129</v>
-      </c>
-      <c r="Y14" s="13">
-        <v>134</v>
-      </c>
       <c r="Z14" s="13">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AA14" s="13">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AB14" s="13">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC14" s="13">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AD14" s="13">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AE14" s="13">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="AF14" s="13">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AG14" s="13">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="AH14" s="13">
         <v>119</v>
       </c>
       <c r="AI14" s="13">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="AJ14" s="13">
+        <v>128</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>130</v>
+      </c>
+      <c r="AL14" s="13">
         <v>119</v>
       </c>
-      <c r="AK14" s="13">
-        <v>116</v>
-      </c>
-      <c r="AL14" s="13">
+      <c r="AM14" s="13">
+        <v>124</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>133</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>120</v>
+      </c>
+      <c r="AP14" s="13">
         <v>128</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>130</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>119</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>124</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>132</v>
       </c>
       <c r="AQ14" s="13">
         <v>120</v>
       </c>
       <c r="AR14" s="13">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AS14" s="13">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AT14" s="13">
+        <v>119</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>108</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>132</v>
+      </c>
+      <c r="AW14" s="13">
         <v>126</v>
       </c>
-      <c r="AU14" s="13">
-        <v>124</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>119</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>108</v>
-      </c>
       <c r="AX14" s="13">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="AY14" s="13">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AZ14" s="13">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="BA14" s="13">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BB14" s="13">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>61</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>55</v>
       </c>
@@ -2140,11 +2140,11 @@
       <c r="S16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>57</v>
+      <c r="T16" s="11">
+        <v>0</v>
+      </c>
+      <c r="U16" s="11">
+        <v>0</v>
       </c>
       <c r="V16" s="11">
         <v>0</v>
@@ -2176,11 +2176,11 @@
       <c r="AE16" s="11">
         <v>0</v>
       </c>
-      <c r="AF16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="11">
-        <v>0</v>
+      <c r="AF16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG16" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH16" s="11" t="s">
         <v>57</v>
@@ -2246,7 +2246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>62</v>
       </c>
@@ -2297,11 +2297,11 @@
       <c r="S17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>57</v>
+      <c r="T17" s="15">
+        <v>0</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0</v>
       </c>
       <c r="V17" s="15">
         <v>0</v>
@@ -2403,164 +2403,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17">
-        <v>550</v>
+        <v>408</v>
       </c>
       <c r="F18" s="17">
-        <v>431</v>
+        <v>600</v>
       </c>
       <c r="G18" s="17">
-        <v>408</v>
+        <v>563</v>
       </c>
       <c r="H18" s="17">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="I18" s="17">
-        <v>563</v>
+        <v>729</v>
       </c>
       <c r="J18" s="17">
-        <v>668</v>
+        <v>639</v>
       </c>
       <c r="K18" s="17">
-        <v>729</v>
+        <v>653</v>
       </c>
       <c r="L18" s="17">
-        <v>639</v>
+        <v>699</v>
       </c>
       <c r="M18" s="17">
-        <v>653</v>
+        <v>723</v>
       </c>
       <c r="N18" s="17">
-        <v>699</v>
+        <v>597</v>
       </c>
       <c r="O18" s="17">
+        <v>630</v>
+      </c>
+      <c r="P18" s="17">
+        <v>626</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>631</v>
+      </c>
+      <c r="R18" s="17">
+        <v>562</v>
+      </c>
+      <c r="S18" s="17">
+        <v>545</v>
+      </c>
+      <c r="T18" s="17">
+        <v>667</v>
+      </c>
+      <c r="U18" s="17">
+        <v>742</v>
+      </c>
+      <c r="V18" s="17">
+        <v>622</v>
+      </c>
+      <c r="W18" s="17">
+        <v>674</v>
+      </c>
+      <c r="X18" s="17">
+        <v>613</v>
+      </c>
+      <c r="Y18" s="17">
         <v>723</v>
       </c>
-      <c r="P18" s="17">
-        <v>597</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>630</v>
-      </c>
-      <c r="R18" s="17">
-        <v>626</v>
-      </c>
-      <c r="S18" s="17">
-        <v>631</v>
-      </c>
-      <c r="T18" s="17">
-        <v>562</v>
-      </c>
-      <c r="U18" s="17">
+      <c r="Z18" s="17">
+        <v>620</v>
+      </c>
+      <c r="AA18" s="17">
+        <v>659</v>
+      </c>
+      <c r="AB18" s="17">
         <v>545</v>
       </c>
-      <c r="V18" s="17">
-        <v>667</v>
-      </c>
-      <c r="W18" s="17">
-        <v>742</v>
-      </c>
-      <c r="X18" s="17">
-        <v>622</v>
-      </c>
-      <c r="Y18" s="17">
-        <v>671</v>
-      </c>
-      <c r="Z18" s="17">
-        <v>612</v>
-      </c>
-      <c r="AA18" s="17">
-        <v>732</v>
-      </c>
-      <c r="AB18" s="17">
-        <v>621</v>
-      </c>
       <c r="AC18" s="17">
-        <v>662</v>
+        <v>594</v>
       </c>
       <c r="AD18" s="17">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="AE18" s="17">
-        <v>595</v>
+        <v>735</v>
       </c>
       <c r="AF18" s="17">
-        <v>599</v>
+        <v>755</v>
       </c>
       <c r="AG18" s="17">
+        <v>822</v>
+      </c>
+      <c r="AH18" s="17">
+        <v>598</v>
+      </c>
+      <c r="AI18" s="17">
+        <v>449</v>
+      </c>
+      <c r="AJ18" s="17">
+        <v>398</v>
+      </c>
+      <c r="AK18" s="17">
+        <v>559</v>
+      </c>
+      <c r="AL18" s="17">
+        <v>490</v>
+      </c>
+      <c r="AM18" s="17">
+        <v>601</v>
+      </c>
+      <c r="AN18" s="17">
+        <v>617</v>
+      </c>
+      <c r="AO18" s="17">
+        <v>610</v>
+      </c>
+      <c r="AP18" s="17">
+        <v>716</v>
+      </c>
+      <c r="AQ18" s="17">
+        <v>706</v>
+      </c>
+      <c r="AR18" s="17">
+        <v>870</v>
+      </c>
+      <c r="AS18" s="17">
         <v>735</v>
       </c>
-      <c r="AH18" s="17">
-        <v>755</v>
-      </c>
-      <c r="AI18" s="17">
-        <v>823</v>
-      </c>
-      <c r="AJ18" s="17">
-        <v>597</v>
-      </c>
-      <c r="AK18" s="17">
-        <v>467</v>
-      </c>
-      <c r="AL18" s="17">
-        <v>398</v>
-      </c>
-      <c r="AM18" s="17">
-        <v>560</v>
-      </c>
-      <c r="AN18" s="17">
-        <v>488</v>
-      </c>
-      <c r="AO18" s="17">
-        <v>600</v>
-      </c>
-      <c r="AP18" s="17">
-        <v>615</v>
-      </c>
-      <c r="AQ18" s="17">
-        <v>609</v>
-      </c>
-      <c r="AR18" s="17">
-        <v>1702</v>
-      </c>
-      <c r="AS18" s="17">
-        <v>706</v>
-      </c>
       <c r="AT18" s="17">
-        <v>868</v>
+        <v>726</v>
       </c>
       <c r="AU18" s="17">
-        <v>735</v>
+        <v>586</v>
       </c>
       <c r="AV18" s="17">
-        <v>709</v>
+        <v>500</v>
       </c>
       <c r="AW18" s="17">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="AX18" s="17">
-        <v>500</v>
+        <v>666</v>
       </c>
       <c r="AY18" s="17">
-        <v>645</v>
+        <v>727</v>
       </c>
       <c r="AZ18" s="17">
-        <v>667</v>
+        <v>807</v>
       </c>
       <c r="BA18" s="17">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="BB18" s="17">
-        <v>807</v>
+        <v>840</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2615,7 +2615,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2670,7 +2670,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2725,7 +2725,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2937,7 +2937,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
@@ -3003,157 +3003,157 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="11">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G25" s="11">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H25" s="11">
+        <v>64</v>
+      </c>
+      <c r="I25" s="11">
+        <v>60</v>
+      </c>
+      <c r="J25" s="11">
+        <v>133</v>
+      </c>
+      <c r="K25" s="11">
+        <v>128</v>
+      </c>
+      <c r="L25" s="11">
+        <v>50</v>
+      </c>
+      <c r="M25" s="11">
+        <v>146</v>
+      </c>
+      <c r="N25" s="11">
+        <v>114</v>
+      </c>
+      <c r="O25" s="11">
+        <v>145</v>
+      </c>
+      <c r="P25" s="11">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>141</v>
+      </c>
+      <c r="R25" s="11">
+        <v>193</v>
+      </c>
+      <c r="S25" s="11">
+        <v>118</v>
+      </c>
+      <c r="T25" s="11">
         <v>54</v>
       </c>
-      <c r="I25" s="11">
+      <c r="U25" s="11">
+        <v>135</v>
+      </c>
+      <c r="V25" s="11">
+        <v>147</v>
+      </c>
+      <c r="W25" s="11">
+        <v>125</v>
+      </c>
+      <c r="X25" s="11">
+        <v>62</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>84</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>92</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>172</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>122</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>137</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>101</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>138</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>56</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>191</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>233</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>159</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>59</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>80</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>129</v>
+      </c>
+      <c r="AM25" s="11">
+        <v>62</v>
+      </c>
+      <c r="AN25" s="11">
+        <v>91</v>
+      </c>
+      <c r="AO25" s="11">
+        <v>69</v>
+      </c>
+      <c r="AP25" s="11">
+        <v>84</v>
+      </c>
+      <c r="AQ25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR25" s="11">
+        <v>67</v>
+      </c>
+      <c r="AS25" s="11">
+        <v>243</v>
+      </c>
+      <c r="AT25" s="11">
+        <v>211</v>
+      </c>
+      <c r="AU25" s="11">
+        <v>60</v>
+      </c>
+      <c r="AV25" s="11">
+        <v>29</v>
+      </c>
+      <c r="AW25" s="11">
         <v>45</v>
       </c>
-      <c r="J25" s="11">
-        <v>64</v>
-      </c>
-      <c r="K25" s="11">
-        <v>60</v>
-      </c>
-      <c r="L25" s="11">
-        <v>133</v>
-      </c>
-      <c r="M25" s="11">
+      <c r="AX25" s="11">
+        <v>38</v>
+      </c>
+      <c r="AY25" s="11">
+        <v>86</v>
+      </c>
+      <c r="AZ25" s="11">
+        <v>120</v>
+      </c>
+      <c r="BA25" s="11">
         <v>128</v>
       </c>
-      <c r="N25" s="11">
-        <v>50</v>
-      </c>
-      <c r="O25" s="11">
-        <v>146</v>
-      </c>
-      <c r="P25" s="11">
-        <v>114</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>145</v>
-      </c>
-      <c r="R25" s="11">
-        <v>128</v>
-      </c>
-      <c r="S25" s="11">
-        <v>141</v>
-      </c>
-      <c r="T25" s="11">
-        <v>193</v>
-      </c>
-      <c r="U25" s="11">
-        <v>118</v>
-      </c>
-      <c r="V25" s="11">
-        <v>54</v>
-      </c>
-      <c r="W25" s="11">
-        <v>135</v>
-      </c>
-      <c r="X25" s="11">
-        <v>147</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>125</v>
-      </c>
-      <c r="Z25" s="11">
-        <v>62</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>84</v>
-      </c>
-      <c r="AB25" s="11">
-        <v>92</v>
-      </c>
-      <c r="AC25" s="11">
-        <v>172</v>
-      </c>
-      <c r="AD25" s="11">
-        <v>122</v>
-      </c>
-      <c r="AE25" s="11">
-        <v>137</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>101</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>138</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>56</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>191</v>
-      </c>
-      <c r="AJ25" s="11">
-        <v>233</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>159</v>
-      </c>
-      <c r="AL25" s="11">
-        <v>59</v>
-      </c>
-      <c r="AM25" s="11">
-        <v>80</v>
-      </c>
-      <c r="AN25" s="11">
-        <v>129</v>
-      </c>
-      <c r="AO25" s="11">
-        <v>62</v>
-      </c>
-      <c r="AP25" s="11">
-        <v>91</v>
-      </c>
-      <c r="AQ25" s="11">
-        <v>69</v>
-      </c>
-      <c r="AR25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT25" s="11">
-        <v>67</v>
-      </c>
-      <c r="AU25" s="11">
-        <v>242</v>
-      </c>
-      <c r="AV25" s="11">
-        <v>212</v>
-      </c>
-      <c r="AW25" s="11">
-        <v>41</v>
-      </c>
-      <c r="AX25" s="11">
-        <v>29</v>
-      </c>
-      <c r="AY25" s="11">
-        <v>45</v>
-      </c>
-      <c r="AZ25" s="11">
-        <v>38</v>
-      </c>
-      <c r="BA25" s="11">
-        <v>86</v>
-      </c>
       <c r="BB25" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>58</v>
       </c>
@@ -3162,157 +3162,157 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>503</v>
+        <v>239</v>
       </c>
       <c r="F26" s="13">
-        <v>298</v>
+        <v>371</v>
       </c>
       <c r="G26" s="13">
-        <v>239</v>
+        <v>412</v>
       </c>
       <c r="H26" s="13">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="I26" s="13">
-        <v>412</v>
+        <v>506</v>
       </c>
       <c r="J26" s="13">
-        <v>306</v>
+        <v>443</v>
       </c>
       <c r="K26" s="13">
-        <v>506</v>
+        <v>380</v>
       </c>
       <c r="L26" s="13">
-        <v>443</v>
+        <v>382</v>
       </c>
       <c r="M26" s="13">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="N26" s="13">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="O26" s="13">
-        <v>414</v>
+        <v>354</v>
       </c>
       <c r="P26" s="13">
+        <v>280</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>334</v>
+      </c>
+      <c r="R26" s="13">
+        <v>391</v>
+      </c>
+      <c r="S26" s="13">
+        <v>250</v>
+      </c>
+      <c r="T26" s="13">
+        <v>271</v>
+      </c>
+      <c r="U26" s="13">
+        <v>539</v>
+      </c>
+      <c r="V26" s="13">
+        <v>438</v>
+      </c>
+      <c r="W26" s="13">
+        <v>374</v>
+      </c>
+      <c r="X26" s="13">
+        <v>323</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>388</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>384</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>365</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>322</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>326</v>
+      </c>
+      <c r="AD26" s="13">
+        <v>359</v>
+      </c>
+      <c r="AE26" s="13">
+        <v>454</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>334</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>395</v>
+      </c>
+      <c r="AH26" s="13">
+        <v>335</v>
+      </c>
+      <c r="AI26" s="13">
+        <v>301</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>236</v>
+      </c>
+      <c r="AK26" s="13">
+        <v>341</v>
+      </c>
+      <c r="AL26" s="13">
+        <v>335</v>
+      </c>
+      <c r="AM26" s="13">
+        <v>372</v>
+      </c>
+      <c r="AN26" s="13">
+        <v>391</v>
+      </c>
+      <c r="AO26" s="13">
         <v>398</v>
       </c>
-      <c r="Q26" s="13">
-        <v>354</v>
-      </c>
-      <c r="R26" s="13">
-        <v>280</v>
-      </c>
-      <c r="S26" s="13">
-        <v>334</v>
-      </c>
-      <c r="T26" s="13">
-        <v>391</v>
-      </c>
-      <c r="U26" s="13">
-        <v>250</v>
-      </c>
-      <c r="V26" s="13">
-        <v>271</v>
-      </c>
-      <c r="W26" s="13">
-        <v>539</v>
-      </c>
-      <c r="X26" s="13">
-        <v>438</v>
-      </c>
-      <c r="Y26" s="13">
-        <v>375</v>
-      </c>
-      <c r="Z26" s="13">
-        <v>323</v>
-      </c>
-      <c r="AA26" s="13">
-        <v>388</v>
-      </c>
-      <c r="AB26" s="13">
-        <v>384</v>
-      </c>
-      <c r="AC26" s="13">
-        <v>365</v>
-      </c>
-      <c r="AD26" s="13">
-        <v>322</v>
-      </c>
-      <c r="AE26" s="13">
-        <v>326</v>
-      </c>
-      <c r="AF26" s="13">
-        <v>359</v>
-      </c>
-      <c r="AG26" s="13">
-        <v>454</v>
-      </c>
-      <c r="AH26" s="13">
-        <v>334</v>
-      </c>
-      <c r="AI26" s="13">
-        <v>395</v>
-      </c>
-      <c r="AJ26" s="13">
+      <c r="AP26" s="13">
+        <v>368</v>
+      </c>
+      <c r="AQ26" s="13">
+        <v>627</v>
+      </c>
+      <c r="AR26" s="13">
+        <v>373</v>
+      </c>
+      <c r="AS26" s="13">
+        <v>471</v>
+      </c>
+      <c r="AT26" s="13">
+        <v>542</v>
+      </c>
+      <c r="AU26" s="13">
+        <v>397</v>
+      </c>
+      <c r="AV26" s="13">
         <v>335</v>
       </c>
-      <c r="AK26" s="13">
-        <v>301</v>
-      </c>
-      <c r="AL26" s="13">
-        <v>235</v>
-      </c>
-      <c r="AM26" s="13">
-        <v>341</v>
-      </c>
-      <c r="AN26" s="13">
-        <v>335</v>
-      </c>
-      <c r="AO26" s="13">
-        <v>372</v>
-      </c>
-      <c r="AP26" s="13">
-        <v>390</v>
-      </c>
-      <c r="AQ26" s="13">
-        <v>396</v>
-      </c>
-      <c r="AR26" s="13">
-        <v>1583</v>
-      </c>
-      <c r="AS26" s="13">
-        <v>627</v>
-      </c>
-      <c r="AT26" s="13">
-        <v>373</v>
-      </c>
-      <c r="AU26" s="13">
-        <v>471</v>
-      </c>
-      <c r="AV26" s="13">
-        <v>542</v>
-      </c>
       <c r="AW26" s="13">
-        <v>395</v>
+        <v>304</v>
       </c>
       <c r="AX26" s="13">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="AY26" s="13">
-        <v>304</v>
+        <v>406</v>
       </c>
       <c r="AZ26" s="13">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="BA26" s="13">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="BB26" s="13">
-        <v>432</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>59</v>
       </c>
@@ -3321,157 +3321,157 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G27" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H27" s="11">
+        <v>21</v>
+      </c>
+      <c r="I27" s="11">
+        <v>22</v>
+      </c>
+      <c r="J27" s="11">
+        <v>22</v>
+      </c>
+      <c r="K27" s="11">
         <v>25</v>
-      </c>
-      <c r="I27" s="11">
-        <v>25</v>
-      </c>
-      <c r="J27" s="11">
-        <v>21</v>
-      </c>
-      <c r="K27" s="11">
-        <v>22</v>
       </c>
       <c r="L27" s="11">
         <v>22</v>
       </c>
       <c r="M27" s="11">
+        <v>23</v>
+      </c>
+      <c r="N27" s="11">
+        <v>23</v>
+      </c>
+      <c r="O27" s="11">
         <v>25</v>
       </c>
-      <c r="N27" s="11">
-        <v>22</v>
-      </c>
-      <c r="O27" s="11">
-        <v>23</v>
-      </c>
       <c r="P27" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="11">
         <v>25</v>
       </c>
       <c r="R27" s="11">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="S27" s="11">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="T27" s="11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U27" s="11">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="V27" s="11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="W27" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X27" s="11">
         <v>27</v>
       </c>
       <c r="Y27" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z27" s="11">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AA27" s="11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB27" s="11">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AC27" s="11">
+        <v>37</v>
+      </c>
+      <c r="AD27" s="11">
         <v>25</v>
       </c>
-      <c r="AD27" s="11">
-        <v>29</v>
-      </c>
       <c r="AE27" s="11">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="AF27" s="11">
         <v>25</v>
       </c>
       <c r="AG27" s="11">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AH27" s="11">
+        <v>29</v>
+      </c>
+      <c r="AI27" s="11">
+        <v>27</v>
+      </c>
+      <c r="AJ27" s="11">
         <v>25</v>
       </c>
-      <c r="AI27" s="11">
-        <v>26</v>
-      </c>
-      <c r="AJ27" s="11">
-        <v>29</v>
-      </c>
       <c r="AK27" s="11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL27" s="11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AM27" s="11">
         <v>25</v>
       </c>
       <c r="AN27" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AO27" s="11">
+        <v>32</v>
+      </c>
+      <c r="AP27" s="11">
+        <v>30</v>
+      </c>
+      <c r="AQ27" s="11">
+        <v>30</v>
+      </c>
+      <c r="AR27" s="11">
         <v>25</v>
       </c>
-      <c r="AP27" s="11">
+      <c r="AS27" s="11">
+        <v>32</v>
+      </c>
+      <c r="AT27" s="11">
+        <v>36</v>
+      </c>
+      <c r="AU27" s="11">
         <v>25</v>
       </c>
-      <c r="AQ27" s="11">
-        <v>32</v>
-      </c>
-      <c r="AR27" s="11">
-        <v>29</v>
-      </c>
-      <c r="AS27" s="11">
-        <v>30</v>
-      </c>
-      <c r="AT27" s="11">
-        <v>25</v>
-      </c>
-      <c r="AU27" s="11">
-        <v>32</v>
-      </c>
       <c r="AV27" s="11">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AW27" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX27" s="11">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AY27" s="11">
+        <v>23</v>
+      </c>
+      <c r="AZ27" s="11">
         <v>22</v>
       </c>
-      <c r="AZ27" s="11">
-        <v>18</v>
-      </c>
       <c r="BA27" s="11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BB27" s="11">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>60</v>
       </c>
@@ -3480,157 +3480,157 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="F28" s="13">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G28" s="13">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H28" s="13">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="I28" s="13">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="J28" s="13">
+        <v>127</v>
+      </c>
+      <c r="K28" s="13">
+        <v>110</v>
+      </c>
+      <c r="L28" s="13">
+        <v>129</v>
+      </c>
+      <c r="M28" s="13">
+        <v>111</v>
+      </c>
+      <c r="N28" s="13">
+        <v>123</v>
+      </c>
+      <c r="O28" s="13">
+        <v>123</v>
+      </c>
+      <c r="P28" s="13">
+        <v>134</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>128</v>
+      </c>
+      <c r="R28" s="13">
+        <v>126</v>
+      </c>
+      <c r="S28" s="13">
+        <v>84</v>
+      </c>
+      <c r="T28" s="13">
+        <v>94</v>
+      </c>
+      <c r="U28" s="13">
+        <v>132</v>
+      </c>
+      <c r="V28" s="13">
+        <v>138</v>
+      </c>
+      <c r="W28" s="13">
+        <v>149</v>
+      </c>
+      <c r="X28" s="13">
+        <v>113</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>120</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>132</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>110</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>136</v>
+      </c>
+      <c r="AC28" s="13">
+        <v>125</v>
+      </c>
+      <c r="AD28" s="13">
         <v>112</v>
       </c>
-      <c r="K28" s="13">
-        <v>137</v>
-      </c>
-      <c r="L28" s="13">
-        <v>127</v>
-      </c>
-      <c r="M28" s="13">
-        <v>110</v>
-      </c>
-      <c r="N28" s="13">
-        <v>129</v>
-      </c>
-      <c r="O28" s="13">
-        <v>111</v>
-      </c>
-      <c r="P28" s="13">
-        <v>123</v>
-      </c>
-      <c r="Q28" s="13">
-        <v>123</v>
-      </c>
-      <c r="R28" s="13">
-        <v>134</v>
-      </c>
-      <c r="S28" s="13">
-        <v>128</v>
-      </c>
-      <c r="T28" s="13">
-        <v>126</v>
-      </c>
-      <c r="U28" s="13">
-        <v>84</v>
-      </c>
-      <c r="V28" s="13">
-        <v>94</v>
-      </c>
-      <c r="W28" s="13">
-        <v>132</v>
-      </c>
-      <c r="X28" s="13">
-        <v>138</v>
-      </c>
-      <c r="Y28" s="13">
-        <v>149</v>
-      </c>
-      <c r="Z28" s="13">
+      <c r="AE28" s="13">
+        <v>117</v>
+      </c>
+      <c r="AF28" s="13">
+        <v>114</v>
+      </c>
+      <c r="AG28" s="13">
+        <v>125</v>
+      </c>
+      <c r="AH28" s="13">
         <v>113</v>
-      </c>
-      <c r="AA28" s="13">
-        <v>119</v>
-      </c>
-      <c r="AB28" s="13">
-        <v>132</v>
-      </c>
-      <c r="AC28" s="13">
-        <v>110</v>
-      </c>
-      <c r="AD28" s="13">
-        <v>136</v>
-      </c>
-      <c r="AE28" s="13">
-        <v>125</v>
-      </c>
-      <c r="AF28" s="13">
-        <v>112</v>
-      </c>
-      <c r="AG28" s="13">
-        <v>117</v>
-      </c>
-      <c r="AH28" s="13">
-        <v>114</v>
       </c>
       <c r="AI28" s="13">
         <v>125</v>
       </c>
       <c r="AJ28" s="13">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AK28" s="13">
+        <v>129</v>
+      </c>
+      <c r="AL28" s="13">
+        <v>120</v>
+      </c>
+      <c r="AM28" s="13">
+        <v>127</v>
+      </c>
+      <c r="AN28" s="13">
+        <v>130</v>
+      </c>
+      <c r="AO28" s="13">
+        <v>112</v>
+      </c>
+      <c r="AP28" s="13">
         <v>125</v>
       </c>
-      <c r="AL28" s="13">
-        <v>117</v>
-      </c>
-      <c r="AM28" s="13">
-        <v>129</v>
-      </c>
-      <c r="AN28" s="13">
+      <c r="AQ28" s="13">
         <v>120</v>
       </c>
-      <c r="AO28" s="13">
-        <v>127</v>
-      </c>
-      <c r="AP28" s="13">
-        <v>129</v>
-      </c>
-      <c r="AQ28" s="13">
+      <c r="AR28" s="13">
+        <v>120</v>
+      </c>
+      <c r="AS28" s="13">
+        <v>131</v>
+      </c>
+      <c r="AT28" s="13">
+        <v>128</v>
+      </c>
+      <c r="AU28" s="13">
         <v>112</v>
       </c>
-      <c r="AR28" s="13">
-        <v>127</v>
-      </c>
-      <c r="AS28" s="13">
+      <c r="AV28" s="13">
+        <v>108</v>
+      </c>
+      <c r="AW28" s="13">
+        <v>128</v>
+      </c>
+      <c r="AX28" s="13">
+        <v>122</v>
+      </c>
+      <c r="AY28" s="13">
+        <v>118</v>
+      </c>
+      <c r="AZ28" s="13">
         <v>120</v>
       </c>
-      <c r="AT28" s="13">
-        <v>120</v>
-      </c>
-      <c r="AU28" s="13">
-        <v>131</v>
-      </c>
-      <c r="AV28" s="13">
+      <c r="BA28" s="13">
+        <v>121</v>
+      </c>
+      <c r="BB28" s="13">
         <v>128</v>
       </c>
-      <c r="AW28" s="13">
-        <v>114</v>
-      </c>
-      <c r="AX28" s="13">
-        <v>108</v>
-      </c>
-      <c r="AY28" s="13">
-        <v>128</v>
-      </c>
-      <c r="AZ28" s="13">
-        <v>122</v>
-      </c>
-      <c r="BA28" s="13">
-        <v>118</v>
-      </c>
-      <c r="BB28" s="13">
-        <v>120</v>
-      </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>61</v>
       </c>
@@ -3687,7 +3687,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>55</v>
       </c>
@@ -3740,11 +3740,11 @@
       <c r="S30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U30" s="11" t="s">
-        <v>57</v>
+      <c r="T30" s="11">
+        <v>0</v>
+      </c>
+      <c r="U30" s="11">
+        <v>0</v>
       </c>
       <c r="V30" s="11">
         <v>0</v>
@@ -3776,11 +3776,11 @@
       <c r="AE30" s="11">
         <v>0</v>
       </c>
-      <c r="AF30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="11">
-        <v>0</v>
+      <c r="AF30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG30" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH30" s="11" t="s">
         <v>57</v>
@@ -3846,7 +3846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>62</v>
       </c>
@@ -3897,11 +3897,11 @@
       <c r="S31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T31" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="U31" s="15" t="s">
-        <v>57</v>
+      <c r="T31" s="15">
+        <v>0</v>
+      </c>
+      <c r="U31" s="15">
+        <v>0</v>
       </c>
       <c r="V31" s="15">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>65</v>
       </c>
@@ -4060,7 +4060,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>55</v>
       </c>
@@ -4113,11 +4113,11 @@
       <c r="S33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U33" s="11" t="s">
-        <v>57</v>
+      <c r="T33" s="11">
+        <v>0</v>
+      </c>
+      <c r="U33" s="11">
+        <v>0</v>
       </c>
       <c r="V33" s="11">
         <v>0</v>
@@ -4149,11 +4149,11 @@
       <c r="AE33" s="11">
         <v>0</v>
       </c>
-      <c r="AF33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="11">
-        <v>0</v>
+      <c r="AF33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH33" s="11" t="s">
         <v>57</v>
@@ -4219,7 +4219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>66</v>
       </c>
@@ -4270,11 +4270,11 @@
       <c r="S34" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T34" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="U34" s="15" t="s">
-        <v>57</v>
+      <c r="T34" s="15">
+        <v>0</v>
+      </c>
+      <c r="U34" s="15">
+        <v>0</v>
       </c>
       <c r="V34" s="15">
         <v>0</v>
@@ -4376,164 +4376,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17">
-        <v>693</v>
+        <v>390</v>
       </c>
       <c r="F35" s="17">
-        <v>498</v>
+        <v>583</v>
       </c>
       <c r="G35" s="17">
-        <v>390</v>
+        <v>589</v>
       </c>
       <c r="H35" s="17">
+        <v>503</v>
+      </c>
+      <c r="I35" s="17">
+        <v>725</v>
+      </c>
+      <c r="J35" s="17">
+        <v>725</v>
+      </c>
+      <c r="K35" s="17">
+        <v>643</v>
+      </c>
+      <c r="L35" s="17">
         <v>583</v>
       </c>
-      <c r="I35" s="17">
-        <v>589</v>
-      </c>
-      <c r="J35" s="17">
-        <v>503</v>
-      </c>
-      <c r="K35" s="17">
-        <v>725</v>
-      </c>
-      <c r="L35" s="17">
-        <v>725</v>
-      </c>
       <c r="M35" s="17">
-        <v>643</v>
+        <v>694</v>
       </c>
       <c r="N35" s="17">
-        <v>583</v>
+        <v>658</v>
       </c>
       <c r="O35" s="17">
+        <v>647</v>
+      </c>
+      <c r="P35" s="17">
+        <v>573</v>
+      </c>
+      <c r="Q35" s="17">
+        <v>628</v>
+      </c>
+      <c r="R35" s="17">
+        <v>731</v>
+      </c>
+      <c r="S35" s="17">
+        <v>469</v>
+      </c>
+      <c r="T35" s="17">
+        <v>437</v>
+      </c>
+      <c r="U35" s="17">
+        <v>835</v>
+      </c>
+      <c r="V35" s="17">
+        <v>750</v>
+      </c>
+      <c r="W35" s="17">
+        <v>676</v>
+      </c>
+      <c r="X35" s="17">
+        <v>525</v>
+      </c>
+      <c r="Y35" s="17">
+        <v>619</v>
+      </c>
+      <c r="Z35" s="17">
+        <v>646</v>
+      </c>
+      <c r="AA35" s="17">
+        <v>672</v>
+      </c>
+      <c r="AB35" s="17">
+        <v>609</v>
+      </c>
+      <c r="AC35" s="17">
+        <v>625</v>
+      </c>
+      <c r="AD35" s="17">
+        <v>597</v>
+      </c>
+      <c r="AE35" s="17">
+        <v>731</v>
+      </c>
+      <c r="AF35" s="17">
+        <v>529</v>
+      </c>
+      <c r="AG35" s="17">
+        <v>737</v>
+      </c>
+      <c r="AH35" s="17">
+        <v>710</v>
+      </c>
+      <c r="AI35" s="17">
+        <v>612</v>
+      </c>
+      <c r="AJ35" s="17">
+        <v>437</v>
+      </c>
+      <c r="AK35" s="17">
+        <v>575</v>
+      </c>
+      <c r="AL35" s="17">
+        <v>604</v>
+      </c>
+      <c r="AM35" s="17">
+        <v>586</v>
+      </c>
+      <c r="AN35" s="17">
+        <v>637</v>
+      </c>
+      <c r="AO35" s="17">
+        <v>611</v>
+      </c>
+      <c r="AP35" s="17">
+        <v>607</v>
+      </c>
+      <c r="AQ35" s="17">
+        <v>777</v>
+      </c>
+      <c r="AR35" s="17">
+        <v>585</v>
+      </c>
+      <c r="AS35" s="17">
+        <v>877</v>
+      </c>
+      <c r="AT35" s="17">
+        <v>917</v>
+      </c>
+      <c r="AU35" s="17">
+        <v>594</v>
+      </c>
+      <c r="AV35" s="17">
+        <v>496</v>
+      </c>
+      <c r="AW35" s="17">
+        <v>499</v>
+      </c>
+      <c r="AX35" s="17">
+        <v>564</v>
+      </c>
+      <c r="AY35" s="17">
+        <v>633</v>
+      </c>
+      <c r="AZ35" s="17">
         <v>694</v>
       </c>
-      <c r="P35" s="17">
-        <v>658</v>
-      </c>
-      <c r="Q35" s="17">
-        <v>647</v>
-      </c>
-      <c r="R35" s="17">
-        <v>573</v>
-      </c>
-      <c r="S35" s="17">
-        <v>628</v>
-      </c>
-      <c r="T35" s="17">
-        <v>731</v>
-      </c>
-      <c r="U35" s="17">
-        <v>469</v>
-      </c>
-      <c r="V35" s="17">
-        <v>437</v>
-      </c>
-      <c r="W35" s="17">
-        <v>835</v>
-      </c>
-      <c r="X35" s="17">
-        <v>750</v>
-      </c>
-      <c r="Y35" s="17">
-        <v>677</v>
-      </c>
-      <c r="Z35" s="17">
-        <v>525</v>
-      </c>
-      <c r="AA35" s="17">
-        <v>618</v>
-      </c>
-      <c r="AB35" s="17">
-        <v>646</v>
-      </c>
-      <c r="AC35" s="17">
-        <v>672</v>
-      </c>
-      <c r="AD35" s="17">
-        <v>609</v>
-      </c>
-      <c r="AE35" s="17">
-        <v>625</v>
-      </c>
-      <c r="AF35" s="17">
-        <v>597</v>
-      </c>
-      <c r="AG35" s="17">
-        <v>731</v>
-      </c>
-      <c r="AH35" s="17">
-        <v>529</v>
-      </c>
-      <c r="AI35" s="17">
-        <v>737</v>
-      </c>
-      <c r="AJ35" s="17">
-        <v>710</v>
-      </c>
-      <c r="AK35" s="17">
-        <v>612</v>
-      </c>
-      <c r="AL35" s="17">
-        <v>436</v>
-      </c>
-      <c r="AM35" s="17">
-        <v>575</v>
-      </c>
-      <c r="AN35" s="17">
-        <v>604</v>
-      </c>
-      <c r="AO35" s="17">
-        <v>586</v>
-      </c>
-      <c r="AP35" s="17">
+      <c r="BA35" s="17">
         <v>635</v>
       </c>
-      <c r="AQ35" s="17">
-        <v>609</v>
-      </c>
-      <c r="AR35" s="17">
-        <v>1739</v>
-      </c>
-      <c r="AS35" s="17">
-        <v>777</v>
-      </c>
-      <c r="AT35" s="17">
-        <v>585</v>
-      </c>
-      <c r="AU35" s="17">
-        <v>876</v>
-      </c>
-      <c r="AV35" s="17">
-        <v>918</v>
-      </c>
-      <c r="AW35" s="17">
-        <v>574</v>
-      </c>
-      <c r="AX35" s="17">
-        <v>496</v>
-      </c>
-      <c r="AY35" s="17">
-        <v>499</v>
-      </c>
-      <c r="AZ35" s="17">
-        <v>564</v>
-      </c>
-      <c r="BA35" s="17">
-        <v>633</v>
-      </c>
       <c r="BB35" s="17">
-        <v>694</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4588,7 +4588,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4643,7 +4643,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4698,7 +4698,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>67</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4910,7 +4910,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>67</v>
       </c>
@@ -4967,7 +4967,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>55</v>
       </c>
@@ -4976,157 +4976,157 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>495653</v>
+        <v>547108</v>
       </c>
       <c r="F42" s="11">
-        <v>1234384</v>
+        <v>1762398</v>
       </c>
       <c r="G42" s="11">
-        <v>547108</v>
+        <v>1488628</v>
       </c>
       <c r="H42" s="11">
-        <v>1762398</v>
+        <v>2224264</v>
       </c>
       <c r="I42" s="11">
-        <v>1488628</v>
+        <v>2309283</v>
       </c>
       <c r="J42" s="11">
-        <v>2224264</v>
+        <v>5430893</v>
       </c>
       <c r="K42" s="11">
-        <v>2309283</v>
+        <v>5543032</v>
       </c>
       <c r="L42" s="11">
-        <v>5430893</v>
+        <v>2224176</v>
       </c>
       <c r="M42" s="11">
-        <v>5543032</v>
+        <v>6068891</v>
       </c>
       <c r="N42" s="11">
-        <v>2224176</v>
+        <v>4670460</v>
       </c>
       <c r="O42" s="11">
-        <v>6068891</v>
+        <v>5712026</v>
       </c>
       <c r="P42" s="11">
-        <v>4670460</v>
+        <v>5068672</v>
       </c>
       <c r="Q42" s="11">
-        <v>5712026</v>
+        <v>6</v>
       </c>
       <c r="R42" s="11">
-        <v>5068672</v>
+        <v>9</v>
       </c>
       <c r="S42" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T42" s="11">
-        <v>9</v>
+        <v>2979910</v>
       </c>
       <c r="U42" s="11">
-        <v>5</v>
+        <v>7618166</v>
       </c>
       <c r="V42" s="11">
-        <v>2979910</v>
+        <v>8683928</v>
       </c>
       <c r="W42" s="11">
-        <v>7618166</v>
+        <v>7453984</v>
       </c>
       <c r="X42" s="11">
-        <v>8683928</v>
+        <v>4945006</v>
       </c>
       <c r="Y42" s="11">
-        <v>7453985</v>
+        <v>6238752</v>
       </c>
       <c r="Z42" s="11">
-        <v>4945006</v>
+        <v>8652238</v>
       </c>
       <c r="AA42" s="11">
-        <v>6312415</v>
+        <v>16483131</v>
       </c>
       <c r="AB42" s="11">
-        <v>8652238</v>
+        <v>14013518</v>
       </c>
       <c r="AC42" s="11">
-        <v>16483131</v>
+        <v>16872492</v>
       </c>
       <c r="AD42" s="11">
-        <v>14013518</v>
+        <v>12262783</v>
       </c>
       <c r="AE42" s="11">
-        <v>16872492</v>
+        <v>18116251</v>
       </c>
       <c r="AF42" s="11">
-        <v>12262786</v>
+        <v>7660416</v>
       </c>
       <c r="AG42" s="11">
-        <v>18116251</v>
+        <v>25674336</v>
       </c>
       <c r="AH42" s="11">
-        <v>7660416</v>
+        <v>31520150</v>
       </c>
       <c r="AI42" s="11">
-        <v>25674336</v>
+        <v>24439925</v>
       </c>
       <c r="AJ42" s="11">
-        <v>31520150</v>
+        <v>9055956</v>
       </c>
       <c r="AK42" s="11">
-        <v>24439925</v>
+        <v>12287755</v>
       </c>
       <c r="AL42" s="11">
-        <v>9055956</v>
+        <v>21394841</v>
       </c>
       <c r="AM42" s="11">
-        <v>12287755</v>
+        <v>9063719</v>
       </c>
       <c r="AN42" s="11">
-        <v>21394841</v>
+        <v>14699295</v>
       </c>
       <c r="AO42" s="11">
-        <v>9063719</v>
+        <v>11319145</v>
       </c>
       <c r="AP42" s="11">
-        <v>14699295</v>
-      </c>
-      <c r="AQ42" s="11">
-        <v>11319146</v>
-      </c>
-      <c r="AR42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS42" s="11" t="s">
-        <v>57</v>
+        <v>12718064</v>
+      </c>
+      <c r="AQ42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR42" s="11">
+        <v>10550541</v>
+      </c>
+      <c r="AS42" s="11">
+        <v>38218781</v>
       </c>
       <c r="AT42" s="11">
-        <v>10550541</v>
+        <v>33644301</v>
       </c>
       <c r="AU42" s="11">
-        <v>38106528</v>
+        <v>10808699</v>
       </c>
       <c r="AV42" s="11">
-        <v>33644300</v>
+        <v>4269479</v>
       </c>
       <c r="AW42" s="11">
-        <v>8156854</v>
+        <v>6967049</v>
       </c>
       <c r="AX42" s="11">
-        <v>4269479</v>
+        <v>6070281</v>
       </c>
       <c r="AY42" s="11">
-        <v>6967049</v>
+        <v>11061755</v>
       </c>
       <c r="AZ42" s="11">
-        <v>6070281</v>
+        <v>15835312</v>
       </c>
       <c r="BA42" s="11">
-        <v>11061755</v>
+        <v>15440298</v>
       </c>
       <c r="BB42" s="11">
-        <v>15835312</v>
+        <v>15328831</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>58</v>
       </c>
@@ -5135,157 +5135,157 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
-        <v>18825240</v>
+        <v>10952913</v>
       </c>
       <c r="F43" s="13">
-        <v>12411279</v>
+        <v>15385548</v>
       </c>
       <c r="G43" s="13">
-        <v>10952913</v>
+        <v>17214038</v>
       </c>
       <c r="H43" s="13">
-        <v>15385548</v>
+        <v>13587053</v>
       </c>
       <c r="I43" s="13">
-        <v>17214038</v>
+        <v>23698885</v>
       </c>
       <c r="J43" s="13">
-        <v>13587053</v>
+        <v>22991267</v>
       </c>
       <c r="K43" s="13">
-        <v>23698885</v>
+        <v>20735193</v>
       </c>
       <c r="L43" s="13">
-        <v>22991267</v>
+        <v>20008827</v>
       </c>
       <c r="M43" s="13">
-        <v>20735193</v>
+        <v>21023652</v>
       </c>
       <c r="N43" s="13">
-        <v>20008827</v>
+        <v>19533443</v>
       </c>
       <c r="O43" s="13">
-        <v>21023652</v>
+        <v>16880012</v>
       </c>
       <c r="P43" s="13">
-        <v>19533443</v>
+        <v>13272093</v>
       </c>
       <c r="Q43" s="13">
-        <v>16880012</v>
+        <v>16</v>
       </c>
       <c r="R43" s="13">
-        <v>13272093</v>
+        <v>20</v>
       </c>
       <c r="S43" s="13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T43" s="13">
-        <v>20</v>
+        <v>14398408</v>
       </c>
       <c r="U43" s="13">
-        <v>13</v>
+        <v>30466139</v>
       </c>
       <c r="V43" s="13">
-        <v>14398408</v>
+        <v>26093085</v>
       </c>
       <c r="W43" s="13">
-        <v>30466139</v>
+        <v>25065548</v>
       </c>
       <c r="X43" s="13">
-        <v>26093085</v>
+        <v>24107939</v>
       </c>
       <c r="Y43" s="13">
-        <v>25065550</v>
+        <v>32153658</v>
       </c>
       <c r="Z43" s="13">
-        <v>24107939</v>
+        <v>36484390</v>
       </c>
       <c r="AA43" s="13">
-        <v>32153658</v>
+        <v>39571364</v>
       </c>
       <c r="AB43" s="13">
-        <v>36484391</v>
+        <v>39012934</v>
       </c>
       <c r="AC43" s="13">
-        <v>39571364</v>
+        <v>41349493</v>
       </c>
       <c r="AD43" s="13">
-        <v>39012934</v>
+        <v>47108405</v>
       </c>
       <c r="AE43" s="13">
-        <v>41349584</v>
+        <v>66917633</v>
       </c>
       <c r="AF43" s="13">
-        <v>47108405</v>
+        <v>55166609</v>
       </c>
       <c r="AG43" s="13">
-        <v>66917633</v>
+        <v>67748720</v>
       </c>
       <c r="AH43" s="13">
-        <v>55166610</v>
+        <v>59311777</v>
       </c>
       <c r="AI43" s="13">
-        <v>67748720</v>
+        <v>54940072</v>
       </c>
       <c r="AJ43" s="13">
-        <v>59311777</v>
+        <v>46402949</v>
       </c>
       <c r="AK43" s="13">
-        <v>54940072</v>
+        <v>70262192</v>
       </c>
       <c r="AL43" s="13">
-        <v>46402948</v>
+        <v>70040208</v>
       </c>
       <c r="AM43" s="13">
-        <v>70262192</v>
+        <v>79923483</v>
       </c>
       <c r="AN43" s="13">
-        <v>70040208</v>
+        <v>82095147</v>
       </c>
       <c r="AO43" s="13">
-        <v>79923483</v>
+        <v>85011509</v>
       </c>
       <c r="AP43" s="13">
-        <v>82095147</v>
+        <v>75597229</v>
       </c>
       <c r="AQ43" s="13">
-        <v>85011507</v>
+        <v>109194516</v>
       </c>
       <c r="AR43" s="13">
-        <v>255430833</v>
+        <v>74052953</v>
       </c>
       <c r="AS43" s="13">
-        <v>109194516</v>
+        <v>95729317</v>
       </c>
       <c r="AT43" s="13">
-        <v>74052953</v>
+        <v>113965451</v>
       </c>
       <c r="AU43" s="13">
-        <v>95729317</v>
+        <v>79886872</v>
       </c>
       <c r="AV43" s="13">
-        <v>113965452</v>
+        <v>65597184</v>
       </c>
       <c r="AW43" s="13">
-        <v>79887387</v>
+        <v>54977492</v>
       </c>
       <c r="AX43" s="13">
-        <v>65597184</v>
+        <v>67389429</v>
       </c>
       <c r="AY43" s="13">
-        <v>54977492</v>
+        <v>69094512</v>
       </c>
       <c r="AZ43" s="13">
-        <v>67389426</v>
+        <v>72643041</v>
       </c>
       <c r="BA43" s="13">
-        <v>69094512</v>
+        <v>63347700</v>
       </c>
       <c r="BB43" s="13">
-        <v>72643041</v>
+        <v>62823364</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>59</v>
       </c>
@@ -5294,157 +5294,157 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>1657286</v>
+        <v>2511836</v>
       </c>
       <c r="F44" s="11">
-        <v>2015239</v>
+        <v>2174539</v>
       </c>
       <c r="G44" s="11">
-        <v>2511836</v>
+        <v>2186772</v>
       </c>
       <c r="H44" s="11">
-        <v>2174539</v>
+        <v>1844697</v>
       </c>
       <c r="I44" s="11">
-        <v>2186772</v>
+        <v>2143035</v>
       </c>
       <c r="J44" s="11">
-        <v>1844697</v>
+        <v>2219023</v>
       </c>
       <c r="K44" s="11">
-        <v>2143035</v>
+        <v>2660180</v>
       </c>
       <c r="L44" s="11">
-        <v>2219023</v>
+        <v>2769274</v>
       </c>
       <c r="M44" s="11">
-        <v>2660180</v>
+        <v>2740837</v>
       </c>
       <c r="N44" s="11">
-        <v>2769274</v>
+        <v>2724887</v>
       </c>
       <c r="O44" s="11">
-        <v>2740837</v>
+        <v>2744585</v>
       </c>
       <c r="P44" s="11">
-        <v>2724887</v>
+        <v>3316686</v>
       </c>
       <c r="Q44" s="11">
-        <v>2744585</v>
+        <v>3</v>
       </c>
       <c r="R44" s="11">
-        <v>3316686</v>
+        <v>2</v>
       </c>
       <c r="S44" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T44" s="11">
-        <v>2</v>
+        <v>1827741</v>
       </c>
       <c r="U44" s="11">
-        <v>2</v>
+        <v>3366032</v>
       </c>
       <c r="V44" s="11">
-        <v>1827741</v>
+        <v>3122918</v>
       </c>
       <c r="W44" s="11">
-        <v>3366032</v>
+        <v>3397989</v>
       </c>
       <c r="X44" s="11">
-        <v>3122918</v>
+        <v>3250810</v>
       </c>
       <c r="Y44" s="11">
-        <v>3397988</v>
+        <v>3700609</v>
       </c>
       <c r="Z44" s="11">
-        <v>3250810</v>
+        <v>5539489</v>
       </c>
       <c r="AA44" s="11">
-        <v>3700609</v>
+        <v>4381240</v>
       </c>
       <c r="AB44" s="11">
-        <v>5539489</v>
+        <v>5429270</v>
       </c>
       <c r="AC44" s="11">
-        <v>4381240</v>
+        <v>6923658</v>
       </c>
       <c r="AD44" s="11">
-        <v>5429270</v>
+        <v>5541805</v>
       </c>
       <c r="AE44" s="11">
-        <v>6923658</v>
+        <v>4949401</v>
       </c>
       <c r="AF44" s="11">
-        <v>5541805</v>
+        <v>5831556</v>
       </c>
       <c r="AG44" s="11">
-        <v>4949401</v>
+        <v>5957563</v>
       </c>
       <c r="AH44" s="11">
-        <v>5831556</v>
+        <v>6967658</v>
       </c>
       <c r="AI44" s="11">
-        <v>5957563</v>
+        <v>6716386</v>
       </c>
       <c r="AJ44" s="11">
-        <v>6967658</v>
+        <v>6605638</v>
       </c>
       <c r="AK44" s="11">
-        <v>6716386</v>
+        <v>7094069</v>
       </c>
       <c r="AL44" s="11">
-        <v>6605637</v>
+        <v>6092348</v>
       </c>
       <c r="AM44" s="11">
-        <v>7094069</v>
+        <v>7375570</v>
       </c>
       <c r="AN44" s="11">
-        <v>6092348</v>
+        <v>7299364</v>
       </c>
       <c r="AO44" s="11">
-        <v>7375570</v>
+        <v>9414024</v>
       </c>
       <c r="AP44" s="11">
-        <v>7299364</v>
+        <v>8782817</v>
       </c>
       <c r="AQ44" s="11">
-        <v>9414024</v>
+        <v>8728208</v>
       </c>
       <c r="AR44" s="11">
-        <v>8782818</v>
+        <v>7859694</v>
       </c>
       <c r="AS44" s="11">
-        <v>8728208</v>
+        <v>9785942</v>
       </c>
       <c r="AT44" s="11">
-        <v>7859694</v>
+        <v>10377534</v>
       </c>
       <c r="AU44" s="11">
-        <v>9785942</v>
+        <v>7601161</v>
       </c>
       <c r="AV44" s="11">
-        <v>10377534</v>
+        <v>7153245</v>
       </c>
       <c r="AW44" s="11">
-        <v>7601381</v>
+        <v>6588859</v>
       </c>
       <c r="AX44" s="11">
-        <v>7153245</v>
+        <v>5765494</v>
       </c>
       <c r="AY44" s="11">
-        <v>6588859</v>
+        <v>6832748</v>
       </c>
       <c r="AZ44" s="11">
-        <v>5765494</v>
+        <v>6742831</v>
       </c>
       <c r="BA44" s="11">
-        <v>6832748</v>
+        <v>6486425</v>
       </c>
       <c r="BB44" s="11">
-        <v>6742831</v>
+        <v>10847048</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>60</v>
       </c>
@@ -5453,157 +5453,157 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>6214031</v>
+        <v>6140884</v>
       </c>
       <c r="F45" s="13">
-        <v>6648979</v>
+        <v>6821816</v>
       </c>
       <c r="G45" s="13">
-        <v>6140884</v>
+        <v>5395769</v>
       </c>
       <c r="H45" s="13">
-        <v>6821816</v>
+        <v>5605528</v>
       </c>
       <c r="I45" s="13">
-        <v>5395769</v>
+        <v>7072596</v>
       </c>
       <c r="J45" s="13">
-        <v>5605528</v>
+        <v>6820336</v>
       </c>
       <c r="K45" s="13">
-        <v>7072596</v>
+        <v>6294139</v>
       </c>
       <c r="L45" s="13">
-        <v>6820336</v>
+        <v>7707851</v>
       </c>
       <c r="M45" s="13">
-        <v>6294139</v>
+        <v>6614578</v>
       </c>
       <c r="N45" s="13">
-        <v>7707851</v>
+        <v>7155159</v>
       </c>
       <c r="O45" s="13">
-        <v>6614578</v>
+        <v>7025593</v>
       </c>
       <c r="P45" s="13">
-        <v>7155159</v>
+        <v>7688409</v>
       </c>
       <c r="Q45" s="13">
-        <v>7025593</v>
+        <v>7</v>
       </c>
       <c r="R45" s="13">
-        <v>7688409</v>
+        <v>8</v>
       </c>
       <c r="S45" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T45" s="13">
-        <v>8</v>
+        <v>6620214</v>
       </c>
       <c r="U45" s="13">
-        <v>5</v>
+        <v>10239418</v>
       </c>
       <c r="V45" s="13">
-        <v>6620214</v>
+        <v>11269325</v>
       </c>
       <c r="W45" s="13">
-        <v>10239418</v>
+        <v>12926683</v>
       </c>
       <c r="X45" s="13">
-        <v>11269325</v>
+        <v>10609866</v>
       </c>
       <c r="Y45" s="13">
-        <v>12926681</v>
+        <v>13008132</v>
       </c>
       <c r="Z45" s="13">
-        <v>10609866</v>
+        <v>16671971</v>
       </c>
       <c r="AA45" s="13">
-        <v>13008132</v>
+        <v>14780366</v>
       </c>
       <c r="AB45" s="13">
-        <v>16671971</v>
+        <v>19914714</v>
       </c>
       <c r="AC45" s="13">
-        <v>14780366</v>
+        <v>19578474</v>
       </c>
       <c r="AD45" s="13">
-        <v>19914714</v>
+        <v>18740573</v>
       </c>
       <c r="AE45" s="13">
-        <v>19578474</v>
+        <v>21123134</v>
       </c>
       <c r="AF45" s="13">
-        <v>18740573</v>
+        <v>22195484</v>
       </c>
       <c r="AG45" s="13">
-        <v>21123134</v>
+        <v>25120361</v>
       </c>
       <c r="AH45" s="13">
-        <v>22195484</v>
+        <v>23499295</v>
       </c>
       <c r="AI45" s="13">
-        <v>25120361</v>
+        <v>28115653</v>
       </c>
       <c r="AJ45" s="13">
-        <v>23499295</v>
+        <v>27338079</v>
       </c>
       <c r="AK45" s="13">
-        <v>28115653</v>
+        <v>30934752</v>
       </c>
       <c r="AL45" s="13">
-        <v>27338078</v>
+        <v>28957328</v>
       </c>
       <c r="AM45" s="13">
-        <v>30934752</v>
+        <v>30704180</v>
       </c>
       <c r="AN45" s="13">
-        <v>28957328</v>
+        <v>31198491</v>
       </c>
       <c r="AO45" s="13">
-        <v>30704180</v>
+        <v>27174403</v>
       </c>
       <c r="AP45" s="13">
-        <v>31198491</v>
+        <v>30372557</v>
       </c>
       <c r="AQ45" s="13">
-        <v>27174403</v>
+        <v>28262693</v>
       </c>
       <c r="AR45" s="13">
-        <v>30372557</v>
+        <v>28215166</v>
       </c>
       <c r="AS45" s="13">
-        <v>28262693</v>
+        <v>29878691</v>
       </c>
       <c r="AT45" s="13">
-        <v>28215166</v>
+        <v>29328796</v>
       </c>
       <c r="AU45" s="13">
-        <v>29878691</v>
+        <v>26010519</v>
       </c>
       <c r="AV45" s="13">
-        <v>29328796</v>
+        <v>25324276</v>
       </c>
       <c r="AW45" s="13">
-        <v>26010864</v>
+        <v>29530786</v>
       </c>
       <c r="AX45" s="13">
-        <v>25324276</v>
+        <v>28032905</v>
       </c>
       <c r="AY45" s="13">
-        <v>29530786</v>
+        <v>27105111</v>
       </c>
       <c r="AZ45" s="13">
-        <v>28032905</v>
+        <v>27707157</v>
       </c>
       <c r="BA45" s="13">
-        <v>27105111</v>
+        <v>29109925</v>
       </c>
       <c r="BB45" s="13">
-        <v>27707157</v>
+        <v>33335188</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>69</v>
       </c>
@@ -5660,7 +5660,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>55</v>
       </c>
@@ -5713,11 +5713,11 @@
       <c r="S47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U47" s="11" t="s">
-        <v>57</v>
+      <c r="T47" s="11">
+        <v>0</v>
+      </c>
+      <c r="U47" s="11">
+        <v>0</v>
       </c>
       <c r="V47" s="11">
         <v>0</v>
@@ -5749,11 +5749,11 @@
       <c r="AE47" s="11">
         <v>0</v>
       </c>
-      <c r="AF47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="11">
-        <v>0</v>
+      <c r="AF47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH47" s="11" t="s">
         <v>57</v>
@@ -5819,7 +5819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>62</v>
       </c>
@@ -5872,11 +5872,11 @@
       <c r="S48" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T48" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="U48" s="15" t="s">
-        <v>57</v>
+      <c r="T48" s="15">
+        <v>0</v>
+      </c>
+      <c r="U48" s="15">
+        <v>0</v>
       </c>
       <c r="V48" s="15">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>70</v>
       </c>
@@ -6035,7 +6035,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>55</v>
       </c>
@@ -6088,11 +6088,11 @@
       <c r="S50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U50" s="11" t="s">
-        <v>57</v>
+      <c r="T50" s="11">
+        <v>0</v>
+      </c>
+      <c r="U50" s="11">
+        <v>0</v>
       </c>
       <c r="V50" s="11">
         <v>0</v>
@@ -6124,11 +6124,11 @@
       <c r="AE50" s="11">
         <v>0</v>
       </c>
-      <c r="AF50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="11">
-        <v>0</v>
+      <c r="AF50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG50" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH50" s="11" t="s">
         <v>57</v>
@@ -6194,7 +6194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>66</v>
       </c>
@@ -6247,11 +6247,11 @@
       <c r="S51" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T51" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="U51" s="15" t="s">
-        <v>57</v>
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <v>0</v>
       </c>
       <c r="V51" s="15">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>71</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>72</v>
       </c>
@@ -6463,11 +6463,11 @@
       <c r="S53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U53" s="11" t="s">
-        <v>57</v>
+      <c r="T53" s="11">
+        <v>0</v>
+      </c>
+      <c r="U53" s="11">
+        <v>0</v>
       </c>
       <c r="V53" s="11">
         <v>0</v>
@@ -6569,164 +6569,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>27192210</v>
+        <v>20152741</v>
       </c>
       <c r="F54" s="15">
-        <v>22309881</v>
+        <v>26144301</v>
       </c>
       <c r="G54" s="15">
-        <v>20152741</v>
+        <v>26285207</v>
       </c>
       <c r="H54" s="15">
-        <v>26144301</v>
+        <v>23261542</v>
       </c>
       <c r="I54" s="15">
-        <v>26285207</v>
+        <v>35223799</v>
       </c>
       <c r="J54" s="15">
-        <v>23261542</v>
+        <v>37461519</v>
       </c>
       <c r="K54" s="15">
-        <v>35223799</v>
+        <v>35232544</v>
       </c>
       <c r="L54" s="15">
-        <v>37461519</v>
+        <v>32710128</v>
       </c>
       <c r="M54" s="15">
-        <v>35232544</v>
+        <v>36447958</v>
       </c>
       <c r="N54" s="15">
-        <v>32710128</v>
+        <v>34083949</v>
       </c>
       <c r="O54" s="15">
-        <v>36447958</v>
+        <v>32362216</v>
       </c>
       <c r="P54" s="15">
-        <v>34083949</v>
+        <v>29345860</v>
       </c>
       <c r="Q54" s="15">
-        <v>32362216</v>
+        <v>32</v>
       </c>
       <c r="R54" s="15">
-        <v>29345860</v>
+        <v>38</v>
       </c>
       <c r="S54" s="15">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="T54" s="15">
-        <v>38</v>
+        <v>25826273</v>
       </c>
       <c r="U54" s="15">
-        <v>25</v>
+        <v>51689755</v>
       </c>
       <c r="V54" s="15">
-        <v>25826273</v>
+        <v>49169256</v>
       </c>
       <c r="W54" s="15">
-        <v>51689755</v>
+        <v>48844204</v>
       </c>
       <c r="X54" s="15">
-        <v>49169256</v>
+        <v>42913621</v>
       </c>
       <c r="Y54" s="15">
-        <v>48844204</v>
+        <v>55101151</v>
       </c>
       <c r="Z54" s="15">
-        <v>42913621</v>
+        <v>67348088</v>
       </c>
       <c r="AA54" s="15">
-        <v>55174814</v>
+        <v>75216101</v>
       </c>
       <c r="AB54" s="15">
-        <v>67348089</v>
+        <v>78370436</v>
       </c>
       <c r="AC54" s="15">
-        <v>75216101</v>
+        <v>84724117</v>
       </c>
       <c r="AD54" s="15">
-        <v>78370436</v>
+        <v>83653566</v>
       </c>
       <c r="AE54" s="15">
-        <v>84724208</v>
+        <v>111106419</v>
       </c>
       <c r="AF54" s="15">
-        <v>83653569</v>
+        <v>90854065</v>
       </c>
       <c r="AG54" s="15">
-        <v>111106419</v>
+        <v>124500980</v>
       </c>
       <c r="AH54" s="15">
-        <v>90854066</v>
+        <v>121298880</v>
       </c>
       <c r="AI54" s="15">
-        <v>124500980</v>
+        <v>114212036</v>
       </c>
       <c r="AJ54" s="15">
-        <v>121298880</v>
+        <v>89402622</v>
       </c>
       <c r="AK54" s="15">
-        <v>114212036</v>
+        <v>120578768</v>
       </c>
       <c r="AL54" s="15">
-        <v>89402619</v>
+        <v>126484725</v>
       </c>
       <c r="AM54" s="15">
-        <v>120578768</v>
+        <v>127066952</v>
       </c>
       <c r="AN54" s="15">
-        <v>126484725</v>
+        <v>135292297</v>
       </c>
       <c r="AO54" s="15">
-        <v>127066952</v>
+        <v>132919081</v>
       </c>
       <c r="AP54" s="15">
-        <v>135292297</v>
+        <v>127470667</v>
       </c>
       <c r="AQ54" s="15">
-        <v>132919080</v>
+        <v>146185417</v>
       </c>
       <c r="AR54" s="15">
-        <v>294586208</v>
+        <v>120678354</v>
       </c>
       <c r="AS54" s="15">
-        <v>146185417</v>
+        <v>173612731</v>
       </c>
       <c r="AT54" s="15">
-        <v>120678354</v>
+        <v>187316082</v>
       </c>
       <c r="AU54" s="15">
-        <v>173500478</v>
+        <v>124307251</v>
       </c>
       <c r="AV54" s="15">
-        <v>187316082</v>
+        <v>102344184</v>
       </c>
       <c r="AW54" s="15">
-        <v>121656486</v>
+        <v>98064186</v>
       </c>
       <c r="AX54" s="15">
-        <v>102344184</v>
+        <v>107258109</v>
       </c>
       <c r="AY54" s="15">
-        <v>98064186</v>
+        <v>114094126</v>
       </c>
       <c r="AZ54" s="15">
-        <v>107258106</v>
+        <v>122928341</v>
       </c>
       <c r="BA54" s="15">
-        <v>114094126</v>
+        <v>114384348</v>
       </c>
       <c r="BB54" s="15">
-        <v>122928341</v>
+        <v>122334431</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6781,7 +6781,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6836,7 +6836,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6891,7 +6891,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>73</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7103,7 +7103,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>74</v>
       </c>
@@ -7160,7 +7160,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>55</v>
       </c>
@@ -7169,157 +7169,157 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>33043533333</v>
+        <v>39079142857</v>
       </c>
       <c r="F61" s="11">
-        <v>38574500000</v>
+        <v>32637000000</v>
       </c>
       <c r="G61" s="11">
-        <v>39079142857</v>
+        <v>33080622222</v>
       </c>
       <c r="H61" s="11">
-        <v>32637000000</v>
+        <v>34754125000</v>
       </c>
       <c r="I61" s="11">
-        <v>33080622222</v>
+        <v>38488050000</v>
       </c>
       <c r="J61" s="11">
-        <v>34754125000</v>
+        <v>40833781955</v>
       </c>
       <c r="K61" s="11">
-        <v>38488050000</v>
+        <v>43304937500</v>
       </c>
       <c r="L61" s="11">
-        <v>40833781955</v>
+        <v>44483520000</v>
       </c>
       <c r="M61" s="11">
-        <v>43304937500</v>
+        <v>41567746575</v>
       </c>
       <c r="N61" s="11">
-        <v>44483520000</v>
+        <v>40968947368</v>
       </c>
       <c r="O61" s="11">
-        <v>41567746575</v>
+        <v>39393282759</v>
       </c>
       <c r="P61" s="11">
-        <v>40968947368</v>
+        <v>39599000000</v>
       </c>
       <c r="Q61" s="11">
-        <v>39393282759</v>
+        <v>42405773050</v>
       </c>
       <c r="R61" s="11">
-        <v>39599000000</v>
+        <v>45380150259</v>
       </c>
       <c r="S61" s="11">
-        <v>42405773050</v>
+        <v>45416516949</v>
       </c>
       <c r="T61" s="11">
-        <v>45380150259</v>
+        <v>55183518519</v>
       </c>
       <c r="U61" s="11">
-        <v>45416516949</v>
+        <v>56430859259</v>
       </c>
       <c r="V61" s="11">
-        <v>55183518519</v>
+        <v>59074340136</v>
       </c>
       <c r="W61" s="11">
-        <v>56430859259</v>
+        <v>59631872000</v>
       </c>
       <c r="X61" s="11">
-        <v>59074340136</v>
+        <v>79758161290</v>
       </c>
       <c r="Y61" s="11">
-        <v>59631880000</v>
+        <v>74270857143</v>
       </c>
       <c r="Z61" s="11">
-        <v>79758161290</v>
+        <v>94046065217</v>
       </c>
       <c r="AA61" s="11">
-        <v>75147797619</v>
+        <v>95832156977</v>
       </c>
       <c r="AB61" s="11">
-        <v>94046065217</v>
+        <v>114864901639</v>
       </c>
       <c r="AC61" s="11">
-        <v>95832156977</v>
+        <v>123156875912</v>
       </c>
       <c r="AD61" s="11">
-        <v>114864901639</v>
+        <v>121413693069</v>
       </c>
       <c r="AE61" s="11">
-        <v>123156875912</v>
+        <v>131277181159</v>
       </c>
       <c r="AF61" s="11">
-        <v>121413722772</v>
+        <v>136793142857</v>
       </c>
       <c r="AG61" s="11">
-        <v>131277181159</v>
+        <v>134420607330</v>
       </c>
       <c r="AH61" s="11">
-        <v>136793142857</v>
+        <v>135279613734</v>
       </c>
       <c r="AI61" s="11">
-        <v>134420607330</v>
+        <v>153710220126</v>
       </c>
       <c r="AJ61" s="11">
-        <v>135279613734</v>
+        <v>153490779661</v>
       </c>
       <c r="AK61" s="11">
-        <v>153710220126</v>
+        <v>153596937500</v>
       </c>
       <c r="AL61" s="11">
-        <v>153490779661</v>
+        <v>165851480620</v>
       </c>
       <c r="AM61" s="11">
-        <v>153596937500</v>
+        <v>146189016129</v>
       </c>
       <c r="AN61" s="11">
-        <v>165851480620</v>
+        <v>161530714286</v>
       </c>
       <c r="AO61" s="11">
-        <v>146189016129</v>
+        <v>164045579710</v>
       </c>
       <c r="AP61" s="11">
-        <v>161530714286</v>
-      </c>
-      <c r="AQ61" s="11">
-        <v>164045594203</v>
-      </c>
-      <c r="AR61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS61" s="11" t="s">
-        <v>57</v>
+        <v>151405523810</v>
+      </c>
+      <c r="AQ61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR61" s="11">
+        <v>157470761194</v>
+      </c>
+      <c r="AS61" s="11">
+        <v>157278934156</v>
       </c>
       <c r="AT61" s="11">
-        <v>157470761194</v>
+        <v>159451663507</v>
       </c>
       <c r="AU61" s="11">
-        <v>157464991736</v>
+        <v>180144983333</v>
       </c>
       <c r="AV61" s="11">
-        <v>158699528302</v>
+        <v>147223413793</v>
       </c>
       <c r="AW61" s="11">
-        <v>198947658537</v>
+        <v>154823311111</v>
       </c>
       <c r="AX61" s="11">
-        <v>147223413793</v>
+        <v>159744236842</v>
       </c>
       <c r="AY61" s="11">
-        <v>154823311111</v>
+        <v>128625058140</v>
       </c>
       <c r="AZ61" s="11">
-        <v>159744236842</v>
+        <v>131960933333</v>
       </c>
       <c r="BA61" s="11">
-        <v>128625058140</v>
+        <v>120627328125</v>
       </c>
       <c r="BB61" s="11">
-        <v>131960933333</v>
+        <v>124624642276</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>58</v>
       </c>
@@ -7328,157 +7328,157 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>37425924453</v>
+        <v>45828087866</v>
       </c>
       <c r="F62" s="13">
-        <v>41648587248</v>
+        <v>41470479784</v>
       </c>
       <c r="G62" s="13">
-        <v>45828087866</v>
+        <v>41781645631</v>
       </c>
       <c r="H62" s="13">
-        <v>41470479784</v>
+        <v>44402133987</v>
       </c>
       <c r="I62" s="13">
-        <v>41781645631</v>
+        <v>46835741107</v>
       </c>
       <c r="J62" s="13">
-        <v>44402133987</v>
+        <v>51899022573</v>
       </c>
       <c r="K62" s="13">
-        <v>46835741107</v>
+        <v>54566297368</v>
       </c>
       <c r="L62" s="13">
-        <v>51899022573</v>
+        <v>52379128272</v>
       </c>
       <c r="M62" s="13">
-        <v>54566297368</v>
+        <v>50781768116</v>
       </c>
       <c r="N62" s="13">
-        <v>52379128272</v>
+        <v>49079002513</v>
       </c>
       <c r="O62" s="13">
-        <v>50781768116</v>
+        <v>47683649718</v>
       </c>
       <c r="P62" s="13">
-        <v>49079002513</v>
+        <v>47400332143</v>
       </c>
       <c r="Q62" s="13">
-        <v>47683649718</v>
+        <v>47784200599</v>
       </c>
       <c r="R62" s="13">
-        <v>47400332143</v>
+        <v>49941232737</v>
       </c>
       <c r="S62" s="13">
-        <v>47784200599</v>
+        <v>52601884000</v>
       </c>
       <c r="T62" s="13">
-        <v>49941232737</v>
+        <v>53130656827</v>
       </c>
       <c r="U62" s="13">
-        <v>52601884000</v>
+        <v>56523448980</v>
       </c>
       <c r="V62" s="13">
-        <v>53130656827</v>
+        <v>59573253425</v>
       </c>
       <c r="W62" s="13">
-        <v>56523448980</v>
+        <v>67020181818</v>
       </c>
       <c r="X62" s="13">
-        <v>59573253425</v>
+        <v>74637582043</v>
       </c>
       <c r="Y62" s="13">
-        <v>66841466667</v>
+        <v>82870252577</v>
       </c>
       <c r="Z62" s="13">
-        <v>74637582043</v>
+        <v>95011432292</v>
       </c>
       <c r="AA62" s="13">
-        <v>82870252577</v>
+        <v>108414695890</v>
       </c>
       <c r="AB62" s="13">
-        <v>95011434896</v>
+        <v>121158180124</v>
       </c>
       <c r="AC62" s="13">
-        <v>108414695890</v>
+        <v>126838935583</v>
       </c>
       <c r="AD62" s="13">
-        <v>121158180124</v>
+        <v>131221183844</v>
       </c>
       <c r="AE62" s="13">
-        <v>126839214724</v>
+        <v>147395667401</v>
       </c>
       <c r="AF62" s="13">
-        <v>131221183844</v>
+        <v>165169488024</v>
       </c>
       <c r="AG62" s="13">
-        <v>147395667401</v>
+        <v>171515746835</v>
       </c>
       <c r="AH62" s="13">
-        <v>165169491018</v>
+        <v>177050080597</v>
       </c>
       <c r="AI62" s="13">
-        <v>171515746835</v>
+        <v>182525156146</v>
       </c>
       <c r="AJ62" s="13">
-        <v>177050080597</v>
+        <v>196622665254</v>
       </c>
       <c r="AK62" s="13">
-        <v>182525156146</v>
+        <v>206047483871</v>
       </c>
       <c r="AL62" s="13">
-        <v>197459353191</v>
+        <v>209075247761</v>
       </c>
       <c r="AM62" s="13">
-        <v>206047483871</v>
+        <v>214848072581</v>
       </c>
       <c r="AN62" s="13">
-        <v>209075247761</v>
+        <v>209962012788</v>
       </c>
       <c r="AO62" s="13">
-        <v>214848072581</v>
+        <v>213596756281</v>
       </c>
       <c r="AP62" s="13">
-        <v>210500376923</v>
+        <v>205427252717</v>
       </c>
       <c r="AQ62" s="13">
-        <v>214675522727</v>
+        <v>174153933014</v>
       </c>
       <c r="AR62" s="13">
-        <v>161358706886</v>
+        <v>198533386059</v>
       </c>
       <c r="AS62" s="13">
-        <v>174153933014</v>
+        <v>203246957537</v>
       </c>
       <c r="AT62" s="13">
-        <v>198533386059</v>
+        <v>210268359779</v>
       </c>
       <c r="AU62" s="13">
-        <v>203246957537</v>
+        <v>201226377834</v>
       </c>
       <c r="AV62" s="13">
-        <v>210268361624</v>
+        <v>195812489552</v>
       </c>
       <c r="AW62" s="13">
-        <v>202246549367</v>
+        <v>180847013158</v>
       </c>
       <c r="AX62" s="13">
-        <v>195812489552</v>
+        <v>174584012953</v>
       </c>
       <c r="AY62" s="13">
-        <v>180847013158</v>
+        <v>170183527094</v>
       </c>
       <c r="AZ62" s="13">
-        <v>174584005181</v>
+        <v>168155187500</v>
       </c>
       <c r="BA62" s="13">
-        <v>170183527094</v>
+        <v>172609536785</v>
       </c>
       <c r="BB62" s="13">
-        <v>168155187500</v>
+        <v>189227000000</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>59</v>
       </c>
@@ -7487,157 +7487,157 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>61380962963</v>
+        <v>89708428571</v>
       </c>
       <c r="F63" s="11">
-        <v>71972821429</v>
+        <v>86981560000</v>
       </c>
       <c r="G63" s="11">
-        <v>89708428571</v>
+        <v>87470880000</v>
       </c>
       <c r="H63" s="11">
-        <v>86981560000</v>
+        <v>87842714286</v>
       </c>
       <c r="I63" s="11">
-        <v>87470880000</v>
+        <v>97410681818</v>
       </c>
       <c r="J63" s="11">
-        <v>87842714286</v>
+        <v>100864681818</v>
       </c>
       <c r="K63" s="11">
-        <v>97410681818</v>
+        <v>106407200000</v>
       </c>
       <c r="L63" s="11">
-        <v>100864681818</v>
+        <v>125876090909</v>
       </c>
       <c r="M63" s="11">
-        <v>106407200000</v>
+        <v>119166826087</v>
       </c>
       <c r="N63" s="11">
-        <v>125876090909</v>
+        <v>118473347826</v>
       </c>
       <c r="O63" s="11">
-        <v>119166826087</v>
+        <v>109783400000</v>
       </c>
       <c r="P63" s="11">
-        <v>118473347826</v>
+        <v>106989870968</v>
       </c>
       <c r="Q63" s="11">
-        <v>109783400000</v>
+        <v>103115960000</v>
       </c>
       <c r="R63" s="11">
-        <v>106989870968</v>
+        <v>102910476190</v>
       </c>
       <c r="S63" s="11">
-        <v>103115960000</v>
+        <v>102926882353</v>
       </c>
       <c r="T63" s="11">
-        <v>102910476190</v>
+        <v>101541166667</v>
       </c>
       <c r="U63" s="11">
-        <v>102926882353</v>
+        <v>116070068966</v>
       </c>
       <c r="V63" s="11">
-        <v>101541166667</v>
+        <v>115663629630</v>
       </c>
       <c r="W63" s="11">
-        <v>116070068966</v>
+        <v>121356750000</v>
       </c>
       <c r="X63" s="11">
-        <v>115663629630</v>
+        <v>120400370370</v>
       </c>
       <c r="Y63" s="11">
-        <v>121356714286</v>
+        <v>137059592593</v>
       </c>
       <c r="Z63" s="11">
-        <v>120400370370</v>
+        <v>145776026316</v>
       </c>
       <c r="AA63" s="11">
-        <v>137059592593</v>
+        <v>175249600000</v>
       </c>
       <c r="AB63" s="11">
-        <v>145776026316</v>
+        <v>187216206897</v>
       </c>
       <c r="AC63" s="11">
-        <v>175249600000</v>
+        <v>187125891892</v>
       </c>
       <c r="AD63" s="11">
-        <v>187216206897</v>
+        <v>221672200000</v>
       </c>
       <c r="AE63" s="11">
-        <v>187125891892</v>
+        <v>224972772727</v>
       </c>
       <c r="AF63" s="11">
-        <v>221672200000</v>
+        <v>233262240000</v>
       </c>
       <c r="AG63" s="11">
-        <v>224972772727</v>
+        <v>229137038462</v>
       </c>
       <c r="AH63" s="11">
-        <v>233262240000</v>
+        <v>240264068966</v>
       </c>
       <c r="AI63" s="11">
-        <v>229137038462</v>
+        <v>248755037037</v>
       </c>
       <c r="AJ63" s="11">
-        <v>240264068966</v>
+        <v>264225520000</v>
       </c>
       <c r="AK63" s="11">
-        <v>248755037037</v>
+        <v>283762760000</v>
       </c>
       <c r="AL63" s="11">
-        <v>264225480000</v>
+        <v>304617400000</v>
       </c>
       <c r="AM63" s="11">
-        <v>283762760000</v>
+        <v>295022800000</v>
       </c>
       <c r="AN63" s="11">
-        <v>304617400000</v>
+        <v>291974560000</v>
       </c>
       <c r="AO63" s="11">
-        <v>295022800000</v>
+        <v>294188250000</v>
       </c>
       <c r="AP63" s="11">
-        <v>291974560000</v>
+        <v>292760566667</v>
       </c>
       <c r="AQ63" s="11">
-        <v>294188250000</v>
+        <v>290940266667</v>
       </c>
       <c r="AR63" s="11">
-        <v>302855793103</v>
+        <v>314387760000</v>
       </c>
       <c r="AS63" s="11">
-        <v>290940266667</v>
+        <v>305810687500</v>
       </c>
       <c r="AT63" s="11">
-        <v>314387760000</v>
+        <v>288264833333</v>
       </c>
       <c r="AU63" s="11">
-        <v>305810687500</v>
+        <v>304046440000</v>
       </c>
       <c r="AV63" s="11">
-        <v>288264833333</v>
+        <v>298051875000</v>
       </c>
       <c r="AW63" s="11">
-        <v>316724208333</v>
+        <v>299493590909</v>
       </c>
       <c r="AX63" s="11">
-        <v>298051875000</v>
+        <v>320305222222</v>
       </c>
       <c r="AY63" s="11">
-        <v>299493590909</v>
+        <v>297076000000</v>
       </c>
       <c r="AZ63" s="11">
-        <v>320305222222</v>
+        <v>306492318182</v>
       </c>
       <c r="BA63" s="11">
-        <v>297076000000</v>
+        <v>341390789474</v>
       </c>
       <c r="BB63" s="11">
-        <v>306492318182</v>
+        <v>349904774194</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>60</v>
       </c>
@@ -7646,157 +7646,157 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>41986695946</v>
+        <v>56338385321</v>
       </c>
       <c r="F64" s="13">
-        <v>47492707143</v>
+        <v>51291849624</v>
       </c>
       <c r="G64" s="13">
-        <v>56338385321</v>
+        <v>50427747664</v>
       </c>
       <c r="H64" s="13">
-        <v>51291849624</v>
+        <v>50049357143</v>
       </c>
       <c r="I64" s="13">
-        <v>50427747664</v>
+        <v>51624788321</v>
       </c>
       <c r="J64" s="13">
-        <v>50049357143</v>
+        <v>53703433071</v>
       </c>
       <c r="K64" s="13">
-        <v>51624788321</v>
+        <v>57219445455</v>
       </c>
       <c r="L64" s="13">
-        <v>53703433071</v>
+        <v>59750782946</v>
       </c>
       <c r="M64" s="13">
-        <v>57219445455</v>
+        <v>59590792793</v>
       </c>
       <c r="N64" s="13">
-        <v>59750782946</v>
+        <v>58172024390</v>
       </c>
       <c r="O64" s="13">
-        <v>59590792793</v>
+        <v>57118642276</v>
       </c>
       <c r="P64" s="13">
-        <v>58172024390</v>
+        <v>57376186567</v>
       </c>
       <c r="Q64" s="13">
-        <v>57118642276</v>
+        <v>57074179688</v>
       </c>
       <c r="R64" s="13">
-        <v>57376186567</v>
+        <v>59861714286</v>
       </c>
       <c r="S64" s="13">
-        <v>57074179688</v>
+        <v>62345738095</v>
       </c>
       <c r="T64" s="13">
-        <v>59861714286</v>
+        <v>70427808511</v>
       </c>
       <c r="U64" s="13">
-        <v>62345738095</v>
+        <v>77571348485</v>
       </c>
       <c r="V64" s="13">
-        <v>70427808511</v>
+        <v>81661775362</v>
       </c>
       <c r="W64" s="13">
-        <v>77571348485</v>
+        <v>86756261745</v>
       </c>
       <c r="X64" s="13">
-        <v>81661775362</v>
+        <v>93892619469</v>
       </c>
       <c r="Y64" s="13">
-        <v>86756248322</v>
+        <v>108401100000</v>
       </c>
       <c r="Z64" s="13">
-        <v>93892619469</v>
+        <v>126302810606</v>
       </c>
       <c r="AA64" s="13">
-        <v>109312033613</v>
+        <v>134366963636</v>
       </c>
       <c r="AB64" s="13">
-        <v>126302810606</v>
+        <v>146431720588</v>
       </c>
       <c r="AC64" s="13">
-        <v>134366963636</v>
+        <v>156627792000</v>
       </c>
       <c r="AD64" s="13">
-        <v>146431720588</v>
+        <v>167326544643</v>
       </c>
       <c r="AE64" s="13">
-        <v>156627792000</v>
+        <v>180539606838</v>
       </c>
       <c r="AF64" s="13">
-        <v>167326544643</v>
+        <v>194697228070</v>
       </c>
       <c r="AG64" s="13">
-        <v>180539606838</v>
+        <v>200962888000</v>
       </c>
       <c r="AH64" s="13">
-        <v>194697228070</v>
+        <v>207958362832</v>
       </c>
       <c r="AI64" s="13">
-        <v>200962888000</v>
+        <v>224925224000</v>
       </c>
       <c r="AJ64" s="13">
-        <v>207958362832</v>
+        <v>233658794872</v>
       </c>
       <c r="AK64" s="13">
-        <v>224925224000</v>
+        <v>239804279070</v>
       </c>
       <c r="AL64" s="13">
-        <v>233658786325</v>
+        <v>241311066667</v>
       </c>
       <c r="AM64" s="13">
-        <v>239804279070</v>
+        <v>241765196850</v>
       </c>
       <c r="AN64" s="13">
-        <v>241311066667</v>
+        <v>239988392308</v>
       </c>
       <c r="AO64" s="13">
-        <v>241765196850</v>
+        <v>242628598214</v>
       </c>
       <c r="AP64" s="13">
-        <v>241848767442</v>
+        <v>242980456000</v>
       </c>
       <c r="AQ64" s="13">
-        <v>242628598214</v>
+        <v>235522441667</v>
       </c>
       <c r="AR64" s="13">
-        <v>239153992126</v>
+        <v>235126383333</v>
       </c>
       <c r="AS64" s="13">
-        <v>235522441667</v>
+        <v>228081610687</v>
       </c>
       <c r="AT64" s="13">
-        <v>235126383333</v>
+        <v>229131218750</v>
       </c>
       <c r="AU64" s="13">
-        <v>228081610687</v>
+        <v>232236776786</v>
       </c>
       <c r="AV64" s="13">
-        <v>229131218750</v>
+        <v>234484037037</v>
       </c>
       <c r="AW64" s="13">
-        <v>228165473684</v>
+        <v>230709265625</v>
       </c>
       <c r="AX64" s="13">
-        <v>234484037037</v>
+        <v>229777909836</v>
       </c>
       <c r="AY64" s="13">
-        <v>230709265625</v>
+        <v>229704330508</v>
       </c>
       <c r="AZ64" s="13">
-        <v>229777909836</v>
+        <v>230892975000</v>
       </c>
       <c r="BA64" s="13">
-        <v>229704330508</v>
+        <v>240577892562</v>
       </c>
       <c r="BB64" s="13">
-        <v>230892975000</v>
+        <v>260431156250</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>76</v>
       </c>
@@ -7853,7 +7853,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>55</v>
       </c>
@@ -7906,11 +7906,11 @@
       <c r="S66" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T66" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U66" s="11" t="s">
-        <v>57</v>
+      <c r="T66" s="11">
+        <v>0</v>
+      </c>
+      <c r="U66" s="11">
+        <v>0</v>
       </c>
       <c r="V66" s="11">
         <v>0</v>
@@ -7942,11 +7942,11 @@
       <c r="AE66" s="11">
         <v>0</v>
       </c>
-      <c r="AF66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="11">
-        <v>0</v>
+      <c r="AF66" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG66" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH66" s="11" t="s">
         <v>57</v>

--- a/database/industries/folad/folad/product/monthly.xlsx
+++ b/database/industries/folad/folad/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="77">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3204,154 +3204,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="I11" s="12" t="n">
+        <v>104</v>
+      </c>
+      <c r="J11" s="12" t="n">
+        <v>158</v>
+      </c>
+      <c r="K11" s="12" t="n">
+        <v>146</v>
+      </c>
+      <c r="L11" s="12" t="n">
+        <v>118</v>
+      </c>
+      <c r="M11" s="12" t="n">
+        <v>128</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>166</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>130</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>116</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>135</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>127</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>124</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>102</v>
+      </c>
+      <c r="W11" s="12" t="n">
+        <v>164</v>
+      </c>
+      <c r="X11" s="12" t="n">
+        <v>162</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <v>156</v>
+      </c>
+      <c r="Z11" s="12" t="n">
+        <v>104</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>82</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>87</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>195</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>203</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>208</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>165</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>73</v>
+      </c>
+      <c r="AH11" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI11" s="12" t="n">
         <v>78</v>
       </c>
-      <c r="J11" s="12" t="n">
-        <v>104</v>
-      </c>
-      <c r="K11" s="12" t="n">
-        <v>158</v>
-      </c>
-      <c r="L11" s="12" t="n">
-        <v>146</v>
-      </c>
-      <c r="M11" s="12" t="n">
-        <v>118</v>
-      </c>
-      <c r="N11" s="12" t="n">
-        <v>128</v>
-      </c>
-      <c r="O11" s="12" t="n">
-        <v>166</v>
-      </c>
-      <c r="P11" s="12" t="n">
-        <v>130</v>
-      </c>
-      <c r="Q11" s="12" t="n">
-        <v>84</v>
-      </c>
-      <c r="R11" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="S11" s="12" t="n">
-        <v>116</v>
-      </c>
-      <c r="T11" s="12" t="n">
-        <v>135</v>
-      </c>
-      <c r="U11" s="12" t="n">
-        <v>127</v>
-      </c>
-      <c r="V11" s="12" t="n">
-        <v>124</v>
-      </c>
-      <c r="W11" s="12" t="n">
-        <v>102</v>
-      </c>
-      <c r="X11" s="12" t="n">
-        <v>164</v>
-      </c>
-      <c r="Y11" s="12" t="n">
-        <v>162</v>
-      </c>
-      <c r="Z11" s="12" t="n">
-        <v>156</v>
-      </c>
-      <c r="AA11" s="12" t="n">
-        <v>104</v>
-      </c>
-      <c r="AB11" s="12" t="n">
-        <v>82</v>
-      </c>
-      <c r="AC11" s="12" t="n">
-        <v>87</v>
-      </c>
-      <c r="AD11" s="12" t="n">
-        <v>195</v>
-      </c>
-      <c r="AE11" s="12" t="n">
-        <v>203</v>
-      </c>
-      <c r="AF11" s="12" t="n">
-        <v>208</v>
-      </c>
-      <c r="AG11" s="12" t="n">
-        <v>165</v>
-      </c>
-      <c r="AH11" s="12" t="n">
-        <v>73</v>
-      </c>
-      <c r="AI11" s="12" t="n">
-        <v>24</v>
-      </c>
       <c r="AJ11" s="12" t="n">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AO11" s="12" t="n">
         <v>191</v>
       </c>
-      <c r="AP11" s="13" t="s">
-        <v>57</v>
+      <c r="AO11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP11" s="13" t="n">
+        <v>224</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>160</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3363,154 +3363,154 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
+        <v>343</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>410</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>446</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>410</v>
+      </c>
+      <c r="I12" s="15" t="n">
+        <v>399</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>401</v>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>434</v>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>340</v>
+      </c>
+      <c r="M12" s="15" t="n">
+        <v>345</v>
+      </c>
+      <c r="N12" s="15" t="n">
+        <v>312</v>
+      </c>
+      <c r="O12" s="15" t="n">
+        <v>354</v>
+      </c>
+      <c r="P12" s="15" t="n">
+        <v>329</v>
+      </c>
+      <c r="Q12" s="15" t="n">
+        <v>364</v>
+      </c>
+      <c r="R12" s="15" t="n">
+        <v>424</v>
+      </c>
+      <c r="S12" s="15" t="n">
+        <v>456</v>
+      </c>
+      <c r="T12" s="15" t="n">
+        <v>343</v>
+      </c>
+      <c r="U12" s="15" t="n">
+        <v>392</v>
+      </c>
+      <c r="V12" s="15" t="n">
+        <v>368</v>
+      </c>
+      <c r="W12" s="15" t="n">
+        <v>412</v>
+      </c>
+      <c r="X12" s="15" t="n">
+        <v>309</v>
+      </c>
+      <c r="Y12" s="15" t="n">
+        <v>358</v>
+      </c>
+      <c r="Z12" s="15" t="n">
+        <v>288</v>
+      </c>
+      <c r="AA12" s="15" t="n">
+        <v>364</v>
+      </c>
+      <c r="AB12" s="15" t="n">
+        <v>381</v>
+      </c>
+      <c r="AC12" s="15" t="n">
+        <v>402</v>
+      </c>
+      <c r="AD12" s="15" t="n">
+        <v>407</v>
+      </c>
+      <c r="AE12" s="15" t="n">
+        <v>457</v>
+      </c>
+      <c r="AF12" s="15" t="n">
+        <v>288</v>
+      </c>
+      <c r="AG12" s="15" t="n">
+        <v>234</v>
+      </c>
+      <c r="AH12" s="15" t="n">
+        <v>222</v>
+      </c>
+      <c r="AI12" s="15" t="n">
+        <v>323</v>
+      </c>
+      <c r="AJ12" s="15" t="n">
+        <v>342</v>
+      </c>
+      <c r="AK12" s="15" t="n">
+        <v>386</v>
+      </c>
+      <c r="AL12" s="15" t="n">
         <v>400</v>
       </c>
-      <c r="F12" s="15" t="n">
-        <v>343</v>
-      </c>
-      <c r="G12" s="15" t="n">
-        <v>410</v>
-      </c>
-      <c r="H12" s="15" t="n">
-        <v>446</v>
-      </c>
-      <c r="I12" s="15" t="n">
-        <v>410</v>
-      </c>
-      <c r="J12" s="15" t="n">
-        <v>399</v>
-      </c>
-      <c r="K12" s="15" t="n">
-        <v>401</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <v>434</v>
-      </c>
-      <c r="M12" s="15" t="n">
-        <v>340</v>
-      </c>
-      <c r="N12" s="15" t="n">
-        <v>345</v>
-      </c>
-      <c r="O12" s="15" t="n">
+      <c r="AM12" s="15" t="n">
+        <v>380</v>
+      </c>
+      <c r="AN12" s="15" t="n">
+        <v>365</v>
+      </c>
+      <c r="AO12" s="15" t="n">
+        <v>555</v>
+      </c>
+      <c r="AP12" s="15" t="n">
+        <v>492</v>
+      </c>
+      <c r="AQ12" s="15" t="n">
+        <v>470</v>
+      </c>
+      <c r="AR12" s="15" t="n">
+        <v>467</v>
+      </c>
+      <c r="AS12" s="15" t="n">
+        <v>354</v>
+      </c>
+      <c r="AT12" s="15" t="n">
+        <v>282</v>
+      </c>
+      <c r="AU12" s="15" t="n">
         <v>312</v>
       </c>
-      <c r="P12" s="15" t="n">
-        <v>354</v>
-      </c>
-      <c r="Q12" s="15" t="n">
-        <v>329</v>
-      </c>
-      <c r="R12" s="15" t="n">
-        <v>364</v>
-      </c>
-      <c r="S12" s="15" t="n">
-        <v>424</v>
-      </c>
-      <c r="T12" s="15" t="n">
-        <v>456</v>
-      </c>
-      <c r="U12" s="15" t="n">
-        <v>343</v>
-      </c>
-      <c r="V12" s="15" t="n">
-        <v>392</v>
-      </c>
-      <c r="W12" s="15" t="n">
-        <v>368</v>
-      </c>
-      <c r="X12" s="15" t="n">
-        <v>412</v>
-      </c>
-      <c r="Y12" s="15" t="n">
-        <v>309</v>
-      </c>
-      <c r="Z12" s="15" t="n">
-        <v>358</v>
-      </c>
-      <c r="AA12" s="15" t="n">
-        <v>288</v>
-      </c>
-      <c r="AB12" s="15" t="n">
-        <v>364</v>
-      </c>
-      <c r="AC12" s="15" t="n">
-        <v>381</v>
-      </c>
-      <c r="AD12" s="15" t="n">
-        <v>402</v>
-      </c>
-      <c r="AE12" s="15" t="n">
-        <v>407</v>
-      </c>
-      <c r="AF12" s="15" t="n">
-        <v>457</v>
-      </c>
-      <c r="AG12" s="15" t="n">
-        <v>288</v>
-      </c>
-      <c r="AH12" s="15" t="n">
-        <v>234</v>
-      </c>
-      <c r="AI12" s="15" t="n">
-        <v>222</v>
-      </c>
-      <c r="AJ12" s="15" t="n">
-        <v>323</v>
-      </c>
-      <c r="AK12" s="15" t="n">
-        <v>342</v>
-      </c>
-      <c r="AL12" s="15" t="n">
-        <v>386</v>
-      </c>
-      <c r="AM12" s="15" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN12" s="15" t="n">
-        <v>380</v>
-      </c>
-      <c r="AO12" s="15" t="n">
-        <v>365</v>
-      </c>
-      <c r="AP12" s="15" t="n">
-        <v>555</v>
-      </c>
-      <c r="AQ12" s="15" t="n">
-        <v>492</v>
-      </c>
-      <c r="AR12" s="15" t="n">
-        <v>470</v>
-      </c>
-      <c r="AS12" s="15" t="n">
-        <v>467</v>
-      </c>
-      <c r="AT12" s="15" t="n">
-        <v>354</v>
-      </c>
-      <c r="AU12" s="15" t="n">
-        <v>282</v>
-      </c>
       <c r="AV12" s="15" t="n">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="AW12" s="15" t="n">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="AX12" s="15" t="n">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="AY12" s="15" t="n">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="AZ12" s="15" t="n">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="BA12" s="15" t="n">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="BB12" s="15" t="n">
-        <v>384</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,28 +3525,28 @@
         <v>23</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H13" s="13" t="n">
         <v>26</v>
       </c>
       <c r="I13" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="L13" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="M13" s="13" t="n">
         <v>26</v>
-      </c>
-      <c r="J13" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="K13" s="13" t="n">
-        <v>23</v>
-      </c>
-      <c r="L13" s="13" t="n">
-        <v>22</v>
-      </c>
-      <c r="M13" s="13" t="n">
-        <v>24</v>
       </c>
       <c r="N13" s="13" t="n">
         <v>26</v>
@@ -3555,121 +3555,121 @@
         <v>26</v>
       </c>
       <c r="P13" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="R13" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="S13" s="13" t="n">
         <v>26</v>
       </c>
-      <c r="Q13" s="13" t="n">
+      <c r="T13" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="U13" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="R13" s="13" t="n">
-        <v>22</v>
-      </c>
-      <c r="S13" s="13" t="n">
-        <v>23</v>
-      </c>
-      <c r="T13" s="13" t="n">
+      <c r="V13" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="W13" s="13" t="n">
         <v>26</v>
       </c>
-      <c r="U13" s="13" t="n">
-        <v>23</v>
-      </c>
-      <c r="V13" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="W13" s="13" t="n">
+      <c r="X13" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="X13" s="13" t="n">
+      <c r="Y13" s="13" t="n">
         <v>26</v>
       </c>
-      <c r="Y13" s="13" t="n">
+      <c r="Z13" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="13" t="n">
         <v>25</v>
-      </c>
-      <c r="Z13" s="13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA13" s="13" t="n">
-        <v>30</v>
       </c>
       <c r="AB13" s="13" t="n">
         <v>25</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE13" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF13" s="13" t="n">
         <v>26</v>
-      </c>
-      <c r="AF13" s="13" t="n">
-        <v>27</v>
       </c>
       <c r="AG13" s="13" t="n">
         <v>26</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI13" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK13" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="AJ13" s="13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK13" s="13" t="n">
+      <c r="AL13" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="AL13" s="13" t="n">
+      <c r="AM13" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS13" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="AM13" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN13" s="13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO13" s="13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AP13" s="13" t="n">
-        <v>31</v>
-      </c>
-      <c r="AQ13" s="13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR13" s="13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS13" s="13" t="n">
-        <v>30</v>
-      </c>
       <c r="AT13" s="13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AU13" s="13" t="n">
         <v>21</v>
       </c>
       <c r="AV13" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW13" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="AW13" s="13" t="n">
-        <v>20</v>
-      </c>
       <c r="AX13" s="13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3684,151 +3684,151 @@
         <v>121</v>
       </c>
       <c r="F14" s="15" t="n">
+        <v>125</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>135</v>
+      </c>
+      <c r="H14" s="15" t="n">
+        <v>125</v>
+      </c>
+      <c r="I14" s="15" t="n">
+        <v>126</v>
+      </c>
+      <c r="J14" s="15" t="n">
+        <v>117</v>
+      </c>
+      <c r="K14" s="15" t="n">
         <v>121</v>
       </c>
-      <c r="G14" s="15" t="n">
+      <c r="L14" s="15" t="n">
+        <v>115</v>
+      </c>
+      <c r="M14" s="15" t="n">
+        <v>131</v>
+      </c>
+      <c r="N14" s="15" t="n">
+        <v>122</v>
+      </c>
+      <c r="O14" s="15" t="n">
+        <v>121</v>
+      </c>
+      <c r="P14" s="15" t="n">
         <v>125</v>
       </c>
-      <c r="H14" s="15" t="n">
-        <v>135</v>
-      </c>
-      <c r="I14" s="15" t="n">
+      <c r="Q14" s="15" t="n">
+        <v>109</v>
+      </c>
+      <c r="R14" s="15" t="n">
+        <v>104</v>
+      </c>
+      <c r="S14" s="15" t="n">
         <v>125</v>
       </c>
-      <c r="J14" s="15" t="n">
-        <v>126</v>
-      </c>
-      <c r="K14" s="15" t="n">
-        <v>117</v>
-      </c>
-      <c r="L14" s="15" t="n">
+      <c r="T14" s="15" t="n">
+        <v>129</v>
+      </c>
+      <c r="U14" s="15" t="n">
+        <v>134</v>
+      </c>
+      <c r="V14" s="15" t="n">
+        <v>118</v>
+      </c>
+      <c r="W14" s="15" t="n">
         <v>121</v>
       </c>
-      <c r="M14" s="15" t="n">
-        <v>115</v>
-      </c>
-      <c r="N14" s="15" t="n">
-        <v>131</v>
-      </c>
-      <c r="O14" s="15" t="n">
-        <v>122</v>
-      </c>
-      <c r="P14" s="15" t="n">
-        <v>121</v>
-      </c>
-      <c r="Q14" s="15" t="n">
-        <v>125</v>
-      </c>
-      <c r="R14" s="15" t="n">
-        <v>109</v>
-      </c>
-      <c r="S14" s="15" t="n">
-        <v>104</v>
-      </c>
-      <c r="T14" s="15" t="n">
-        <v>125</v>
-      </c>
-      <c r="U14" s="15" t="n">
-        <v>129</v>
-      </c>
-      <c r="V14" s="15" t="n">
-        <v>134</v>
-      </c>
-      <c r="W14" s="15" t="n">
-        <v>118</v>
-      </c>
       <c r="X14" s="15" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Y14" s="15" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Z14" s="15" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AA14" s="15" t="n">
         <v>123</v>
       </c>
       <c r="AB14" s="15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AC14" s="15" t="n">
+        <v>116</v>
+      </c>
+      <c r="AD14" s="15" t="n">
+        <v>119</v>
+      </c>
+      <c r="AE14" s="15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF14" s="15" t="n">
+        <v>119</v>
+      </c>
+      <c r="AG14" s="15" t="n">
+        <v>116</v>
+      </c>
+      <c r="AH14" s="15" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI14" s="15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ14" s="15" t="n">
+        <v>119</v>
+      </c>
+      <c r="AK14" s="15" t="n">
+        <v>124</v>
+      </c>
+      <c r="AL14" s="15" t="n">
+        <v>133</v>
+      </c>
+      <c r="AM14" s="15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN14" s="15" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO14" s="15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AP14" s="15" t="n">
+        <v>125</v>
+      </c>
+      <c r="AQ14" s="15" t="n">
+        <v>124</v>
+      </c>
+      <c r="AR14" s="15" t="n">
+        <v>119</v>
+      </c>
+      <c r="AS14" s="15" t="n">
+        <v>108</v>
+      </c>
+      <c r="AT14" s="15" t="n">
+        <v>132</v>
+      </c>
+      <c r="AU14" s="15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AV14" s="15" t="n">
+        <v>118</v>
+      </c>
+      <c r="AW14" s="15" t="n">
+        <v>121</v>
+      </c>
+      <c r="AX14" s="15" t="n">
+        <v>129</v>
+      </c>
+      <c r="AY14" s="15" t="n">
         <v>123</v>
       </c>
-      <c r="AC14" s="15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD14" s="15" t="n">
-        <v>116</v>
-      </c>
-      <c r="AE14" s="15" t="n">
-        <v>119</v>
-      </c>
-      <c r="AF14" s="15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG14" s="15" t="n">
-        <v>119</v>
-      </c>
-      <c r="AH14" s="15" t="n">
-        <v>116</v>
-      </c>
-      <c r="AI14" s="15" t="n">
-        <v>128</v>
-      </c>
-      <c r="AJ14" s="15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK14" s="15" t="n">
-        <v>119</v>
-      </c>
-      <c r="AL14" s="15" t="n">
-        <v>124</v>
-      </c>
-      <c r="AM14" s="15" t="n">
-        <v>133</v>
-      </c>
-      <c r="AN14" s="15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO14" s="15" t="n">
-        <v>128</v>
-      </c>
-      <c r="AP14" s="15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AQ14" s="15" t="n">
+      <c r="AZ14" s="15" t="n">
         <v>125</v>
       </c>
-      <c r="AR14" s="15" t="n">
-        <v>124</v>
-      </c>
-      <c r="AS14" s="15" t="n">
-        <v>119</v>
-      </c>
-      <c r="AT14" s="15" t="n">
-        <v>108</v>
-      </c>
-      <c r="AU14" s="15" t="n">
-        <v>132</v>
-      </c>
-      <c r="AV14" s="15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AW14" s="15" t="n">
-        <v>118</v>
-      </c>
-      <c r="AX14" s="15" t="n">
-        <v>121</v>
-      </c>
-      <c r="AY14" s="15" t="n">
-        <v>129</v>
-      </c>
-      <c r="AZ14" s="15" t="n">
-        <v>123</v>
-      </c>
       <c r="BA14" s="15" t="n">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="BB14" s="15" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,8 +3935,8 @@
       <c r="Q16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="13" t="s">
-        <v>57</v>
+      <c r="R16" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S16" s="13" t="n">
         <v>0</v>
@@ -3971,8 +3971,8 @@
       <c r="AC16" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD16" s="13" t="n">
-        <v>0</v>
+      <c r="AD16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE16" s="13" t="s">
         <v>57</v>
@@ -4092,8 +4092,8 @@
       <c r="Q17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R17" s="17" t="s">
-        <v>57</v>
+      <c r="R17" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="S17" s="17" t="n">
         <v>0</v>
@@ -4211,154 +4211,154 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="n">
-        <v>600</v>
+        <v>563</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>563</v>
+        <v>668</v>
       </c>
       <c r="G18" s="19" t="n">
-        <v>668</v>
+        <v>729</v>
       </c>
       <c r="H18" s="19" t="n">
-        <v>729</v>
+        <v>639</v>
       </c>
       <c r="I18" s="19" t="n">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="J18" s="19" t="n">
-        <v>653</v>
+        <v>699</v>
       </c>
       <c r="K18" s="19" t="n">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="L18" s="19" t="n">
+        <v>597</v>
+      </c>
+      <c r="M18" s="19" t="n">
+        <v>630</v>
+      </c>
+      <c r="N18" s="19" t="n">
+        <v>626</v>
+      </c>
+      <c r="O18" s="19" t="n">
+        <v>631</v>
+      </c>
+      <c r="P18" s="19" t="n">
+        <v>562</v>
+      </c>
+      <c r="Q18" s="19" t="n">
+        <v>545</v>
+      </c>
+      <c r="R18" s="19" t="n">
+        <v>667</v>
+      </c>
+      <c r="S18" s="19" t="n">
+        <v>742</v>
+      </c>
+      <c r="T18" s="19" t="n">
+        <v>622</v>
+      </c>
+      <c r="U18" s="19" t="n">
+        <v>674</v>
+      </c>
+      <c r="V18" s="19" t="n">
+        <v>613</v>
+      </c>
+      <c r="W18" s="19" t="n">
         <v>723</v>
       </c>
-      <c r="M18" s="19" t="n">
-        <v>597</v>
-      </c>
-      <c r="N18" s="19" t="n">
-        <v>630</v>
-      </c>
-      <c r="O18" s="19" t="n">
-        <v>626</v>
-      </c>
-      <c r="P18" s="19" t="n">
-        <v>631</v>
-      </c>
-      <c r="Q18" s="19" t="n">
-        <v>562</v>
-      </c>
-      <c r="R18" s="19" t="n">
+      <c r="X18" s="19" t="n">
+        <v>620</v>
+      </c>
+      <c r="Y18" s="19" t="n">
+        <v>659</v>
+      </c>
+      <c r="Z18" s="19" t="n">
         <v>545</v>
       </c>
-      <c r="S18" s="19" t="n">
-        <v>667</v>
-      </c>
-      <c r="T18" s="19" t="n">
-        <v>742</v>
-      </c>
-      <c r="U18" s="19" t="n">
-        <v>622</v>
-      </c>
-      <c r="V18" s="19" t="n">
-        <v>674</v>
-      </c>
-      <c r="W18" s="19" t="n">
-        <v>613</v>
-      </c>
-      <c r="X18" s="19" t="n">
-        <v>723</v>
-      </c>
-      <c r="Y18" s="19" t="n">
-        <v>620</v>
-      </c>
-      <c r="Z18" s="19" t="n">
-        <v>659</v>
-      </c>
       <c r="AA18" s="19" t="n">
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="AB18" s="19" t="n">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="AC18" s="19" t="n">
-        <v>603</v>
+        <v>735</v>
       </c>
       <c r="AD18" s="19" t="n">
+        <v>755</v>
+      </c>
+      <c r="AE18" s="19" t="n">
+        <v>822</v>
+      </c>
+      <c r="AF18" s="19" t="n">
+        <v>598</v>
+      </c>
+      <c r="AG18" s="19" t="n">
+        <v>449</v>
+      </c>
+      <c r="AH18" s="19" t="n">
+        <v>398</v>
+      </c>
+      <c r="AI18" s="19" t="n">
+        <v>559</v>
+      </c>
+      <c r="AJ18" s="19" t="n">
+        <v>490</v>
+      </c>
+      <c r="AK18" s="19" t="n">
+        <v>601</v>
+      </c>
+      <c r="AL18" s="19" t="n">
+        <v>617</v>
+      </c>
+      <c r="AM18" s="19" t="n">
+        <v>610</v>
+      </c>
+      <c r="AN18" s="19" t="n">
+        <v>716</v>
+      </c>
+      <c r="AO18" s="19" t="n">
+        <v>706</v>
+      </c>
+      <c r="AP18" s="19" t="n">
+        <v>870</v>
+      </c>
+      <c r="AQ18" s="19" t="n">
         <v>735</v>
       </c>
-      <c r="AE18" s="19" t="n">
-        <v>755</v>
-      </c>
-      <c r="AF18" s="19" t="n">
-        <v>822</v>
-      </c>
-      <c r="AG18" s="19" t="n">
-        <v>598</v>
-      </c>
-      <c r="AH18" s="19" t="n">
-        <v>449</v>
-      </c>
-      <c r="AI18" s="19" t="n">
-        <v>398</v>
-      </c>
-      <c r="AJ18" s="19" t="n">
-        <v>559</v>
-      </c>
-      <c r="AK18" s="19" t="n">
-        <v>490</v>
-      </c>
-      <c r="AL18" s="19" t="n">
-        <v>601</v>
-      </c>
-      <c r="AM18" s="19" t="n">
-        <v>617</v>
-      </c>
-      <c r="AN18" s="19" t="n">
-        <v>610</v>
-      </c>
-      <c r="AO18" s="19" t="n">
-        <v>716</v>
-      </c>
-      <c r="AP18" s="19" t="n">
-        <v>706</v>
-      </c>
-      <c r="AQ18" s="19" t="n">
-        <v>870</v>
-      </c>
       <c r="AR18" s="19" t="n">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="AS18" s="19" t="n">
-        <v>726</v>
+        <v>586</v>
       </c>
       <c r="AT18" s="19" t="n">
-        <v>586</v>
+        <v>500</v>
       </c>
       <c r="AU18" s="19" t="n">
-        <v>500</v>
+        <v>627</v>
       </c>
       <c r="AV18" s="19" t="n">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="AW18" s="19" t="n">
-        <v>666</v>
+        <v>727</v>
       </c>
       <c r="AX18" s="19" t="n">
-        <v>727</v>
+        <v>807</v>
       </c>
       <c r="AY18" s="19" t="n">
-        <v>807</v>
+        <v>712</v>
       </c>
       <c r="AZ18" s="19" t="n">
-        <v>712</v>
+        <v>634</v>
       </c>
       <c r="BA18" s="19" t="n">
-        <v>634</v>
+        <v>685</v>
       </c>
       <c r="BB18" s="19" t="n">
-        <v>685</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4804,154 +4804,154 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="F25" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="H25" s="13" t="n">
+        <v>133</v>
+      </c>
+      <c r="I25" s="13" t="n">
+        <v>128</v>
+      </c>
+      <c r="J25" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="K25" s="13" t="n">
+        <v>146</v>
+      </c>
+      <c r="L25" s="13" t="n">
+        <v>114</v>
+      </c>
+      <c r="M25" s="13" t="n">
+        <v>145</v>
+      </c>
+      <c r="N25" s="13" t="n">
+        <v>128</v>
+      </c>
+      <c r="O25" s="13" t="n">
+        <v>141</v>
+      </c>
+      <c r="P25" s="13" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q25" s="13" t="n">
+        <v>118</v>
+      </c>
+      <c r="R25" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="F25" s="13" t="n">
+      <c r="S25" s="13" t="n">
+        <v>135</v>
+      </c>
+      <c r="T25" s="13" t="n">
+        <v>147</v>
+      </c>
+      <c r="U25" s="13" t="n">
+        <v>125</v>
+      </c>
+      <c r="V25" s="13" t="n">
+        <v>62</v>
+      </c>
+      <c r="W25" s="13" t="n">
+        <v>84</v>
+      </c>
+      <c r="X25" s="13" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y25" s="13" t="n">
+        <v>172</v>
+      </c>
+      <c r="Z25" s="13" t="n">
+        <v>122</v>
+      </c>
+      <c r="AA25" s="13" t="n">
+        <v>137</v>
+      </c>
+      <c r="AB25" s="13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC25" s="13" t="n">
+        <v>138</v>
+      </c>
+      <c r="AD25" s="13" t="n">
+        <v>56</v>
+      </c>
+      <c r="AE25" s="13" t="n">
+        <v>191</v>
+      </c>
+      <c r="AF25" s="13" t="n">
+        <v>233</v>
+      </c>
+      <c r="AG25" s="13" t="n">
+        <v>159</v>
+      </c>
+      <c r="AH25" s="13" t="n">
+        <v>59</v>
+      </c>
+      <c r="AI25" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ25" s="13" t="n">
+        <v>129</v>
+      </c>
+      <c r="AK25" s="13" t="n">
+        <v>62</v>
+      </c>
+      <c r="AL25" s="13" t="n">
+        <v>91</v>
+      </c>
+      <c r="AM25" s="13" t="n">
+        <v>69</v>
+      </c>
+      <c r="AN25" s="13" t="n">
+        <v>84</v>
+      </c>
+      <c r="AO25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP25" s="13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AQ25" s="13" t="n">
+        <v>243</v>
+      </c>
+      <c r="AR25" s="13" t="n">
+        <v>211</v>
+      </c>
+      <c r="AS25" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT25" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AU25" s="13" t="n">
         <v>45</v>
       </c>
-      <c r="G25" s="13" t="n">
-        <v>64</v>
-      </c>
-      <c r="H25" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="I25" s="13" t="n">
-        <v>133</v>
-      </c>
-      <c r="J25" s="13" t="n">
+      <c r="AV25" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AW25" s="13" t="n">
+        <v>86</v>
+      </c>
+      <c r="AX25" s="13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AY25" s="13" t="n">
         <v>128</v>
       </c>
-      <c r="K25" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="L25" s="13" t="n">
-        <v>146</v>
-      </c>
-      <c r="M25" s="13" t="n">
-        <v>114</v>
-      </c>
-      <c r="N25" s="13" t="n">
-        <v>145</v>
-      </c>
-      <c r="O25" s="13" t="n">
-        <v>128</v>
-      </c>
-      <c r="P25" s="13" t="n">
-        <v>141</v>
-      </c>
-      <c r="Q25" s="13" t="n">
-        <v>193</v>
-      </c>
-      <c r="R25" s="13" t="n">
-        <v>118</v>
-      </c>
-      <c r="S25" s="13" t="n">
-        <v>54</v>
-      </c>
-      <c r="T25" s="13" t="n">
-        <v>135</v>
-      </c>
-      <c r="U25" s="13" t="n">
-        <v>147</v>
-      </c>
-      <c r="V25" s="13" t="n">
-        <v>125</v>
-      </c>
-      <c r="W25" s="13" t="n">
+      <c r="AZ25" s="13" t="n">
+        <v>123</v>
+      </c>
+      <c r="BA25" s="13" t="n">
+        <v>358</v>
+      </c>
+      <c r="BB25" s="13" t="n">
         <v>62</v>
-      </c>
-      <c r="X25" s="13" t="n">
-        <v>84</v>
-      </c>
-      <c r="Y25" s="13" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z25" s="13" t="n">
-        <v>172</v>
-      </c>
-      <c r="AA25" s="13" t="n">
-        <v>122</v>
-      </c>
-      <c r="AB25" s="13" t="n">
-        <v>137</v>
-      </c>
-      <c r="AC25" s="13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AD25" s="13" t="n">
-        <v>138</v>
-      </c>
-      <c r="AE25" s="13" t="n">
-        <v>56</v>
-      </c>
-      <c r="AF25" s="13" t="n">
-        <v>191</v>
-      </c>
-      <c r="AG25" s="13" t="n">
-        <v>233</v>
-      </c>
-      <c r="AH25" s="13" t="n">
-        <v>159</v>
-      </c>
-      <c r="AI25" s="13" t="n">
-        <v>59</v>
-      </c>
-      <c r="AJ25" s="13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK25" s="13" t="n">
-        <v>129</v>
-      </c>
-      <c r="AL25" s="13" t="n">
-        <v>62</v>
-      </c>
-      <c r="AM25" s="13" t="n">
-        <v>91</v>
-      </c>
-      <c r="AN25" s="13" t="n">
-        <v>69</v>
-      </c>
-      <c r="AO25" s="13" t="n">
-        <v>84</v>
-      </c>
-      <c r="AP25" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ25" s="13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR25" s="13" t="n">
-        <v>243</v>
-      </c>
-      <c r="AS25" s="13" t="n">
-        <v>211</v>
-      </c>
-      <c r="AT25" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AU25" s="13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AV25" s="13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW25" s="13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AX25" s="13" t="n">
-        <v>86</v>
-      </c>
-      <c r="AY25" s="13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AZ25" s="13" t="n">
-        <v>128</v>
-      </c>
-      <c r="BA25" s="13" t="n">
-        <v>123</v>
-      </c>
-      <c r="BB25" s="13" t="n">
-        <v>358</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,154 +4963,154 @@
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="n">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="F26" s="15" t="n">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="G26" s="15" t="n">
-        <v>306</v>
+        <v>506</v>
       </c>
       <c r="H26" s="15" t="n">
-        <v>506</v>
+        <v>443</v>
       </c>
       <c r="I26" s="15" t="n">
-        <v>443</v>
+        <v>380</v>
       </c>
       <c r="J26" s="15" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K26" s="15" t="n">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="L26" s="15" t="n">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="M26" s="15" t="n">
+        <v>354</v>
+      </c>
+      <c r="N26" s="15" t="n">
+        <v>280</v>
+      </c>
+      <c r="O26" s="15" t="n">
+        <v>334</v>
+      </c>
+      <c r="P26" s="15" t="n">
+        <v>391</v>
+      </c>
+      <c r="Q26" s="15" t="n">
+        <v>250</v>
+      </c>
+      <c r="R26" s="15" t="n">
+        <v>271</v>
+      </c>
+      <c r="S26" s="15" t="n">
+        <v>539</v>
+      </c>
+      <c r="T26" s="15" t="n">
+        <v>438</v>
+      </c>
+      <c r="U26" s="15" t="n">
+        <v>374</v>
+      </c>
+      <c r="V26" s="15" t="n">
+        <v>323</v>
+      </c>
+      <c r="W26" s="15" t="n">
+        <v>388</v>
+      </c>
+      <c r="X26" s="15" t="n">
+        <v>384</v>
+      </c>
+      <c r="Y26" s="15" t="n">
+        <v>365</v>
+      </c>
+      <c r="Z26" s="15" t="n">
+        <v>322</v>
+      </c>
+      <c r="AA26" s="15" t="n">
+        <v>326</v>
+      </c>
+      <c r="AB26" s="15" t="n">
+        <v>359</v>
+      </c>
+      <c r="AC26" s="15" t="n">
+        <v>454</v>
+      </c>
+      <c r="AD26" s="15" t="n">
+        <v>334</v>
+      </c>
+      <c r="AE26" s="15" t="n">
+        <v>395</v>
+      </c>
+      <c r="AF26" s="15" t="n">
+        <v>335</v>
+      </c>
+      <c r="AG26" s="15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH26" s="15" t="n">
+        <v>236</v>
+      </c>
+      <c r="AI26" s="15" t="n">
+        <v>341</v>
+      </c>
+      <c r="AJ26" s="15" t="n">
+        <v>335</v>
+      </c>
+      <c r="AK26" s="15" t="n">
+        <v>372</v>
+      </c>
+      <c r="AL26" s="15" t="n">
+        <v>391</v>
+      </c>
+      <c r="AM26" s="15" t="n">
         <v>398</v>
       </c>
-      <c r="N26" s="15" t="n">
-        <v>354</v>
-      </c>
-      <c r="O26" s="15" t="n">
-        <v>280</v>
-      </c>
-      <c r="P26" s="15" t="n">
-        <v>334</v>
-      </c>
-      <c r="Q26" s="15" t="n">
-        <v>391</v>
-      </c>
-      <c r="R26" s="15" t="n">
-        <v>250</v>
-      </c>
-      <c r="S26" s="15" t="n">
-        <v>271</v>
-      </c>
-      <c r="T26" s="15" t="n">
-        <v>539</v>
-      </c>
-      <c r="U26" s="15" t="n">
+      <c r="AN26" s="15" t="n">
+        <v>368</v>
+      </c>
+      <c r="AO26" s="15" t="n">
+        <v>627</v>
+      </c>
+      <c r="AP26" s="15" t="n">
+        <v>373</v>
+      </c>
+      <c r="AQ26" s="15" t="n">
+        <v>471</v>
+      </c>
+      <c r="AR26" s="15" t="n">
+        <v>542</v>
+      </c>
+      <c r="AS26" s="15" t="n">
+        <v>397</v>
+      </c>
+      <c r="AT26" s="15" t="n">
+        <v>335</v>
+      </c>
+      <c r="AU26" s="15" t="n">
+        <v>304</v>
+      </c>
+      <c r="AV26" s="15" t="n">
+        <v>386</v>
+      </c>
+      <c r="AW26" s="15" t="n">
+        <v>406</v>
+      </c>
+      <c r="AX26" s="15" t="n">
+        <v>432</v>
+      </c>
+      <c r="AY26" s="15" t="n">
+        <v>367</v>
+      </c>
+      <c r="AZ26" s="15" t="n">
+        <v>332</v>
+      </c>
+      <c r="BA26" s="15" t="n">
+        <v>417</v>
+      </c>
+      <c r="BB26" s="15" t="n">
         <v>438</v>
-      </c>
-      <c r="V26" s="15" t="n">
-        <v>374</v>
-      </c>
-      <c r="W26" s="15" t="n">
-        <v>323</v>
-      </c>
-      <c r="X26" s="15" t="n">
-        <v>388</v>
-      </c>
-      <c r="Y26" s="15" t="n">
-        <v>384</v>
-      </c>
-      <c r="Z26" s="15" t="n">
-        <v>365</v>
-      </c>
-      <c r="AA26" s="15" t="n">
-        <v>322</v>
-      </c>
-      <c r="AB26" s="15" t="n">
-        <v>326</v>
-      </c>
-      <c r="AC26" s="15" t="n">
-        <v>359</v>
-      </c>
-      <c r="AD26" s="15" t="n">
-        <v>454</v>
-      </c>
-      <c r="AE26" s="15" t="n">
-        <v>334</v>
-      </c>
-      <c r="AF26" s="15" t="n">
-        <v>395</v>
-      </c>
-      <c r="AG26" s="15" t="n">
-        <v>335</v>
-      </c>
-      <c r="AH26" s="15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AI26" s="15" t="n">
-        <v>236</v>
-      </c>
-      <c r="AJ26" s="15" t="n">
-        <v>341</v>
-      </c>
-      <c r="AK26" s="15" t="n">
-        <v>335</v>
-      </c>
-      <c r="AL26" s="15" t="n">
-        <v>372</v>
-      </c>
-      <c r="AM26" s="15" t="n">
-        <v>391</v>
-      </c>
-      <c r="AN26" s="15" t="n">
-        <v>398</v>
-      </c>
-      <c r="AO26" s="15" t="n">
-        <v>368</v>
-      </c>
-      <c r="AP26" s="15" t="n">
-        <v>627</v>
-      </c>
-      <c r="AQ26" s="15" t="n">
-        <v>373</v>
-      </c>
-      <c r="AR26" s="15" t="n">
-        <v>471</v>
-      </c>
-      <c r="AS26" s="15" t="n">
-        <v>542</v>
-      </c>
-      <c r="AT26" s="15" t="n">
-        <v>397</v>
-      </c>
-      <c r="AU26" s="15" t="n">
-        <v>335</v>
-      </c>
-      <c r="AV26" s="15" t="n">
-        <v>304</v>
-      </c>
-      <c r="AW26" s="15" t="n">
-        <v>386</v>
-      </c>
-      <c r="AX26" s="15" t="n">
-        <v>406</v>
-      </c>
-      <c r="AY26" s="15" t="n">
-        <v>432</v>
-      </c>
-      <c r="AZ26" s="15" t="n">
-        <v>367</v>
-      </c>
-      <c r="BA26" s="15" t="n">
-        <v>332</v>
-      </c>
-      <c r="BB26" s="15" t="n">
-        <v>417</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5125,151 +5125,151 @@
         <v>25</v>
       </c>
       <c r="F27" s="13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G27" s="13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="13" t="n">
         <v>22</v>
       </c>
       <c r="I27" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="J27" s="13" t="n">
-        <v>25</v>
-      </c>
       <c r="K27" s="13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L27" s="13" t="n">
         <v>23</v>
       </c>
       <c r="M27" s="13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N27" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="O27" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="O27" s="13" t="n">
-        <v>31</v>
-      </c>
       <c r="P27" s="13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="R27" s="13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S27" s="13" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="T27" s="13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U27" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="V27" s="13" t="n">
         <v>27</v>
-      </c>
-      <c r="V27" s="13" t="n">
-        <v>28</v>
       </c>
       <c r="W27" s="13" t="n">
         <v>27</v>
       </c>
       <c r="X27" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y27" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z27" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA27" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB27" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC27" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD27" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE27" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF27" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG27" s="13" t="n">
         <v>27</v>
       </c>
-      <c r="Y27" s="13" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z27" s="13" t="n">
+      <c r="AH27" s="13" t="n">
         <v>25</v>
-      </c>
-      <c r="AA27" s="13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB27" s="13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC27" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD27" s="13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE27" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF27" s="13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG27" s="13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH27" s="13" t="n">
-        <v>27</v>
       </c>
       <c r="AI27" s="13" t="n">
         <v>25</v>
       </c>
       <c r="AJ27" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK27" s="13" t="n">
         <v>25</v>
-      </c>
-      <c r="AK27" s="13" t="n">
-        <v>20</v>
       </c>
       <c r="AL27" s="13" t="n">
         <v>25</v>
       </c>
       <c r="AM27" s="13" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AN27" s="13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO27" s="13" t="n">
         <v>30</v>
       </c>
       <c r="AP27" s="13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AQ27" s="13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR27" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS27" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="AR27" s="13" t="n">
+      <c r="AT27" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU27" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV27" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW27" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX27" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY27" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ27" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="BA27" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="AS27" s="13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AT27" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AU27" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV27" s="13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AW27" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX27" s="13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY27" s="13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ27" s="13" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA27" s="13" t="n">
-        <v>31</v>
-      </c>
       <c r="BB27" s="13" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5281,154 +5281,154 @@
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="n">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="F28" s="15" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G28" s="15" t="n">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="H28" s="15" t="n">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="I28" s="15" t="n">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="J28" s="15" t="n">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="K28" s="15" t="n">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="L28" s="15" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M28" s="15" t="n">
         <v>123</v>
       </c>
       <c r="N28" s="15" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P28" s="15" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="15" t="n">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="R28" s="15" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="S28" s="15" t="n">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="T28" s="15" t="n">
+        <v>138</v>
+      </c>
+      <c r="U28" s="15" t="n">
+        <v>149</v>
+      </c>
+      <c r="V28" s="15" t="n">
+        <v>113</v>
+      </c>
+      <c r="W28" s="15" t="n">
+        <v>120</v>
+      </c>
+      <c r="X28" s="15" t="n">
         <v>132</v>
       </c>
-      <c r="U28" s="15" t="n">
-        <v>138</v>
-      </c>
-      <c r="V28" s="15" t="n">
-        <v>149</v>
-      </c>
-      <c r="W28" s="15" t="n">
+      <c r="Y28" s="15" t="n">
+        <v>110</v>
+      </c>
+      <c r="Z28" s="15" t="n">
+        <v>136</v>
+      </c>
+      <c r="AA28" s="15" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB28" s="15" t="n">
+        <v>112</v>
+      </c>
+      <c r="AC28" s="15" t="n">
+        <v>117</v>
+      </c>
+      <c r="AD28" s="15" t="n">
+        <v>114</v>
+      </c>
+      <c r="AE28" s="15" t="n">
+        <v>125</v>
+      </c>
+      <c r="AF28" s="15" t="n">
         <v>113</v>
       </c>
-      <c r="X28" s="15" t="n">
+      <c r="AG28" s="15" t="n">
+        <v>125</v>
+      </c>
+      <c r="AH28" s="15" t="n">
+        <v>117</v>
+      </c>
+      <c r="AI28" s="15" t="n">
+        <v>129</v>
+      </c>
+      <c r="AJ28" s="15" t="n">
         <v>120</v>
       </c>
-      <c r="Y28" s="15" t="n">
-        <v>132</v>
-      </c>
-      <c r="Z28" s="15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA28" s="15" t="n">
-        <v>136</v>
-      </c>
-      <c r="AB28" s="15" t="n">
+      <c r="AK28" s="15" t="n">
+        <v>127</v>
+      </c>
+      <c r="AL28" s="15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM28" s="15" t="n">
+        <v>112</v>
+      </c>
+      <c r="AN28" s="15" t="n">
         <v>125</v>
       </c>
-      <c r="AC28" s="15" t="n">
-        <v>112</v>
-      </c>
-      <c r="AD28" s="15" t="n">
-        <v>117</v>
-      </c>
-      <c r="AE28" s="15" t="n">
-        <v>114</v>
-      </c>
-      <c r="AF28" s="15" t="n">
-        <v>125</v>
-      </c>
-      <c r="AG28" s="15" t="n">
-        <v>113</v>
-      </c>
-      <c r="AH28" s="15" t="n">
-        <v>125</v>
-      </c>
-      <c r="AI28" s="15" t="n">
-        <v>117</v>
-      </c>
-      <c r="AJ28" s="15" t="n">
-        <v>129</v>
-      </c>
-      <c r="AK28" s="15" t="n">
+      <c r="AO28" s="15" t="n">
         <v>120</v>
-      </c>
-      <c r="AL28" s="15" t="n">
-        <v>127</v>
-      </c>
-      <c r="AM28" s="15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN28" s="15" t="n">
-        <v>112</v>
-      </c>
-      <c r="AO28" s="15" t="n">
-        <v>125</v>
       </c>
       <c r="AP28" s="15" t="n">
         <v>120</v>
       </c>
       <c r="AQ28" s="15" t="n">
+        <v>131</v>
+      </c>
+      <c r="AR28" s="15" t="n">
+        <v>128</v>
+      </c>
+      <c r="AS28" s="15" t="n">
+        <v>112</v>
+      </c>
+      <c r="AT28" s="15" t="n">
+        <v>108</v>
+      </c>
+      <c r="AU28" s="15" t="n">
+        <v>128</v>
+      </c>
+      <c r="AV28" s="15" t="n">
+        <v>122</v>
+      </c>
+      <c r="AW28" s="15" t="n">
+        <v>118</v>
+      </c>
+      <c r="AX28" s="15" t="n">
         <v>120</v>
       </c>
-      <c r="AR28" s="15" t="n">
-        <v>131</v>
-      </c>
-      <c r="AS28" s="15" t="n">
+      <c r="AY28" s="15" t="n">
+        <v>121</v>
+      </c>
+      <c r="AZ28" s="15" t="n">
         <v>128</v>
       </c>
-      <c r="AT28" s="15" t="n">
+      <c r="BA28" s="15" t="n">
+        <v>121</v>
+      </c>
+      <c r="BB28" s="15" t="n">
         <v>112</v>
-      </c>
-      <c r="AU28" s="15" t="n">
-        <v>108</v>
-      </c>
-      <c r="AV28" s="15" t="n">
-        <v>128</v>
-      </c>
-      <c r="AW28" s="15" t="n">
-        <v>122</v>
-      </c>
-      <c r="AX28" s="15" t="n">
-        <v>118</v>
-      </c>
-      <c r="AY28" s="15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AZ28" s="15" t="n">
-        <v>121</v>
-      </c>
-      <c r="BA28" s="15" t="n">
-        <v>128</v>
-      </c>
-      <c r="BB28" s="15" t="n">
-        <v>121</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5535,8 +5535,8 @@
       <c r="Q30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="13" t="s">
-        <v>57</v>
+      <c r="R30" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S30" s="13" t="n">
         <v>0</v>
@@ -5571,8 +5571,8 @@
       <c r="AC30" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD30" s="13" t="n">
-        <v>0</v>
+      <c r="AD30" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE30" s="13" t="s">
         <v>57</v>
@@ -5692,8 +5692,8 @@
       <c r="Q31" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R31" s="17" t="s">
-        <v>57</v>
+      <c r="R31" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="S31" s="17" t="n">
         <v>0</v>
@@ -5908,8 +5908,8 @@
       <c r="Q33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R33" s="13" t="s">
-        <v>57</v>
+      <c r="R33" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S33" s="13" t="n">
         <v>0</v>
@@ -5944,8 +5944,8 @@
       <c r="AC33" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD33" s="13" t="n">
-        <v>0</v>
+      <c r="AD33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE33" s="13" t="s">
         <v>57</v>
@@ -6065,8 +6065,8 @@
       <c r="Q34" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R34" s="17" t="s">
-        <v>57</v>
+      <c r="R34" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="S34" s="17" t="n">
         <v>0</v>
@@ -6184,154 +6184,154 @@
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19" t="n">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F35" s="19" t="n">
-        <v>589</v>
+        <v>503</v>
       </c>
       <c r="G35" s="19" t="n">
-        <v>503</v>
+        <v>725</v>
       </c>
       <c r="H35" s="19" t="n">
         <v>725</v>
       </c>
       <c r="I35" s="19" t="n">
-        <v>725</v>
+        <v>643</v>
       </c>
       <c r="J35" s="19" t="n">
-        <v>643</v>
+        <v>583</v>
       </c>
       <c r="K35" s="19" t="n">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="L35" s="19" t="n">
+        <v>658</v>
+      </c>
+      <c r="M35" s="19" t="n">
+        <v>647</v>
+      </c>
+      <c r="N35" s="19" t="n">
+        <v>573</v>
+      </c>
+      <c r="O35" s="19" t="n">
+        <v>628</v>
+      </c>
+      <c r="P35" s="19" t="n">
+        <v>731</v>
+      </c>
+      <c r="Q35" s="19" t="n">
+        <v>469</v>
+      </c>
+      <c r="R35" s="19" t="n">
+        <v>437</v>
+      </c>
+      <c r="S35" s="19" t="n">
+        <v>835</v>
+      </c>
+      <c r="T35" s="19" t="n">
+        <v>750</v>
+      </c>
+      <c r="U35" s="19" t="n">
+        <v>676</v>
+      </c>
+      <c r="V35" s="19" t="n">
+        <v>525</v>
+      </c>
+      <c r="W35" s="19" t="n">
+        <v>619</v>
+      </c>
+      <c r="X35" s="19" t="n">
+        <v>646</v>
+      </c>
+      <c r="Y35" s="19" t="n">
+        <v>672</v>
+      </c>
+      <c r="Z35" s="19" t="n">
+        <v>609</v>
+      </c>
+      <c r="AA35" s="19" t="n">
+        <v>625</v>
+      </c>
+      <c r="AB35" s="19" t="n">
+        <v>597</v>
+      </c>
+      <c r="AC35" s="19" t="n">
+        <v>731</v>
+      </c>
+      <c r="AD35" s="19" t="n">
+        <v>529</v>
+      </c>
+      <c r="AE35" s="19" t="n">
+        <v>737</v>
+      </c>
+      <c r="AF35" s="19" t="n">
+        <v>710</v>
+      </c>
+      <c r="AG35" s="19" t="n">
+        <v>612</v>
+      </c>
+      <c r="AH35" s="19" t="n">
+        <v>437</v>
+      </c>
+      <c r="AI35" s="19" t="n">
+        <v>575</v>
+      </c>
+      <c r="AJ35" s="19" t="n">
+        <v>604</v>
+      </c>
+      <c r="AK35" s="19" t="n">
+        <v>586</v>
+      </c>
+      <c r="AL35" s="19" t="n">
+        <v>637</v>
+      </c>
+      <c r="AM35" s="19" t="n">
+        <v>611</v>
+      </c>
+      <c r="AN35" s="19" t="n">
+        <v>607</v>
+      </c>
+      <c r="AO35" s="19" t="n">
+        <v>777</v>
+      </c>
+      <c r="AP35" s="19" t="n">
+        <v>585</v>
+      </c>
+      <c r="AQ35" s="19" t="n">
+        <v>877</v>
+      </c>
+      <c r="AR35" s="19" t="n">
+        <v>917</v>
+      </c>
+      <c r="AS35" s="19" t="n">
+        <v>594</v>
+      </c>
+      <c r="AT35" s="19" t="n">
+        <v>496</v>
+      </c>
+      <c r="AU35" s="19" t="n">
+        <v>499</v>
+      </c>
+      <c r="AV35" s="19" t="n">
+        <v>564</v>
+      </c>
+      <c r="AW35" s="19" t="n">
+        <v>633</v>
+      </c>
+      <c r="AX35" s="19" t="n">
         <v>694</v>
       </c>
-      <c r="M35" s="19" t="n">
-        <v>658</v>
-      </c>
-      <c r="N35" s="19" t="n">
-        <v>647</v>
-      </c>
-      <c r="O35" s="19" t="n">
-        <v>573</v>
-      </c>
-      <c r="P35" s="19" t="n">
-        <v>628</v>
-      </c>
-      <c r="Q35" s="19" t="n">
-        <v>731</v>
-      </c>
-      <c r="R35" s="19" t="n">
-        <v>469</v>
-      </c>
-      <c r="S35" s="19" t="n">
-        <v>437</v>
-      </c>
-      <c r="T35" s="19" t="n">
-        <v>835</v>
-      </c>
-      <c r="U35" s="19" t="n">
-        <v>750</v>
-      </c>
-      <c r="V35" s="19" t="n">
-        <v>676</v>
-      </c>
-      <c r="W35" s="19" t="n">
-        <v>525</v>
-      </c>
-      <c r="X35" s="19" t="n">
-        <v>619</v>
-      </c>
-      <c r="Y35" s="19" t="n">
-        <v>646</v>
-      </c>
-      <c r="Z35" s="19" t="n">
-        <v>672</v>
-      </c>
-      <c r="AA35" s="19" t="n">
-        <v>609</v>
-      </c>
-      <c r="AB35" s="19" t="n">
-        <v>625</v>
-      </c>
-      <c r="AC35" s="19" t="n">
-        <v>597</v>
-      </c>
-      <c r="AD35" s="19" t="n">
-        <v>731</v>
-      </c>
-      <c r="AE35" s="19" t="n">
-        <v>529</v>
-      </c>
-      <c r="AF35" s="19" t="n">
-        <v>737</v>
-      </c>
-      <c r="AG35" s="19" t="n">
-        <v>710</v>
-      </c>
-      <c r="AH35" s="19" t="n">
-        <v>612</v>
-      </c>
-      <c r="AI35" s="19" t="n">
-        <v>437</v>
-      </c>
-      <c r="AJ35" s="19" t="n">
-        <v>575</v>
-      </c>
-      <c r="AK35" s="19" t="n">
-        <v>604</v>
-      </c>
-      <c r="AL35" s="19" t="n">
-        <v>586</v>
-      </c>
-      <c r="AM35" s="19" t="n">
-        <v>637</v>
-      </c>
-      <c r="AN35" s="19" t="n">
-        <v>611</v>
-      </c>
-      <c r="AO35" s="19" t="n">
-        <v>607</v>
-      </c>
-      <c r="AP35" s="19" t="n">
-        <v>777</v>
-      </c>
-      <c r="AQ35" s="19" t="n">
-        <v>585</v>
-      </c>
-      <c r="AR35" s="19" t="n">
-        <v>877</v>
-      </c>
-      <c r="AS35" s="19" t="n">
-        <v>917</v>
-      </c>
-      <c r="AT35" s="19" t="n">
-        <v>594</v>
-      </c>
-      <c r="AU35" s="19" t="n">
-        <v>496</v>
-      </c>
-      <c r="AV35" s="19" t="n">
-        <v>499</v>
-      </c>
-      <c r="AW35" s="19" t="n">
-        <v>564</v>
-      </c>
-      <c r="AX35" s="19" t="n">
-        <v>633</v>
-      </c>
       <c r="AY35" s="19" t="n">
-        <v>694</v>
+        <v>635</v>
       </c>
       <c r="AZ35" s="19" t="n">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="BA35" s="19" t="n">
-        <v>614</v>
+        <v>928</v>
       </c>
       <c r="BB35" s="19" t="n">
-        <v>928</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6777,154 +6777,154 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="n">
-        <v>1762398</v>
+        <v>1488628</v>
       </c>
       <c r="F42" s="13" t="n">
-        <v>1488628</v>
+        <v>2224264</v>
       </c>
       <c r="G42" s="13" t="n">
-        <v>2224264</v>
+        <v>2309283</v>
       </c>
       <c r="H42" s="13" t="n">
-        <v>2309283</v>
+        <v>5430893</v>
       </c>
       <c r="I42" s="13" t="n">
-        <v>5430893</v>
+        <v>5543032</v>
       </c>
       <c r="J42" s="13" t="n">
-        <v>5543032</v>
+        <v>2224176</v>
       </c>
       <c r="K42" s="13" t="n">
-        <v>2224176</v>
+        <v>6068891</v>
       </c>
       <c r="L42" s="13" t="n">
-        <v>6068891</v>
+        <v>4670460</v>
       </c>
       <c r="M42" s="13" t="n">
-        <v>4670460</v>
+        <v>5712026</v>
       </c>
       <c r="N42" s="13" t="n">
-        <v>5712026</v>
+        <v>5068672</v>
       </c>
       <c r="O42" s="13" t="n">
-        <v>5068672</v>
+        <v>6</v>
       </c>
       <c r="P42" s="13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q42" s="13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R42" s="13" t="n">
-        <v>5</v>
+        <v>2979910</v>
       </c>
       <c r="S42" s="13" t="n">
-        <v>2979910</v>
+        <v>7618166</v>
       </c>
       <c r="T42" s="13" t="n">
-        <v>7618166</v>
+        <v>8683928</v>
       </c>
       <c r="U42" s="13" t="n">
-        <v>8683928</v>
+        <v>7453984</v>
       </c>
       <c r="V42" s="13" t="n">
-        <v>7453984</v>
+        <v>4945006</v>
       </c>
       <c r="W42" s="13" t="n">
-        <v>4945006</v>
+        <v>6238752</v>
       </c>
       <c r="X42" s="13" t="n">
-        <v>6238752</v>
+        <v>8652238</v>
       </c>
       <c r="Y42" s="13" t="n">
-        <v>8652238</v>
+        <v>16483131</v>
       </c>
       <c r="Z42" s="13" t="n">
-        <v>16483131</v>
+        <v>14013518</v>
       </c>
       <c r="AA42" s="13" t="n">
-        <v>14013518</v>
+        <v>16872492</v>
       </c>
       <c r="AB42" s="13" t="n">
-        <v>16872492</v>
+        <v>12262783</v>
       </c>
       <c r="AC42" s="13" t="n">
-        <v>12262783</v>
+        <v>18116251</v>
       </c>
       <c r="AD42" s="13" t="n">
-        <v>18116251</v>
+        <v>7660416</v>
       </c>
       <c r="AE42" s="13" t="n">
-        <v>7660416</v>
+        <v>25674336</v>
       </c>
       <c r="AF42" s="13" t="n">
-        <v>25674336</v>
+        <v>31520150</v>
       </c>
       <c r="AG42" s="13" t="n">
-        <v>31520150</v>
+        <v>24439925</v>
       </c>
       <c r="AH42" s="13" t="n">
-        <v>24439925</v>
+        <v>9055956</v>
       </c>
       <c r="AI42" s="13" t="n">
-        <v>9055956</v>
+        <v>12287755</v>
       </c>
       <c r="AJ42" s="13" t="n">
-        <v>12287755</v>
+        <v>21394841</v>
       </c>
       <c r="AK42" s="13" t="n">
-        <v>21394841</v>
+        <v>9063719</v>
       </c>
       <c r="AL42" s="13" t="n">
-        <v>9063719</v>
+        <v>14699295</v>
       </c>
       <c r="AM42" s="13" t="n">
-        <v>14699295</v>
+        <v>11319145</v>
       </c>
       <c r="AN42" s="13" t="n">
-        <v>11319145</v>
-      </c>
-      <c r="AO42" s="13" t="n">
         <v>12718064</v>
       </c>
-      <c r="AP42" s="13" t="s">
-        <v>57</v>
+      <c r="AO42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP42" s="13" t="n">
+        <v>10550541</v>
       </c>
       <c r="AQ42" s="13" t="n">
-        <v>10550541</v>
+        <v>38218781</v>
       </c>
       <c r="AR42" s="13" t="n">
-        <v>38218781</v>
+        <v>33644301</v>
       </c>
       <c r="AS42" s="13" t="n">
-        <v>33644301</v>
+        <v>10808699</v>
       </c>
       <c r="AT42" s="13" t="n">
-        <v>10808699</v>
+        <v>4269479</v>
       </c>
       <c r="AU42" s="13" t="n">
-        <v>4269479</v>
+        <v>6967049</v>
       </c>
       <c r="AV42" s="13" t="n">
-        <v>6967049</v>
+        <v>6070281</v>
       </c>
       <c r="AW42" s="13" t="n">
-        <v>6070281</v>
+        <v>11061755</v>
       </c>
       <c r="AX42" s="13" t="n">
-        <v>11061755</v>
+        <v>15835312</v>
       </c>
       <c r="AY42" s="13" t="n">
-        <v>15835312</v>
+        <v>15440298</v>
       </c>
       <c r="AZ42" s="13" t="n">
-        <v>15440298</v>
+        <v>15328831</v>
       </c>
       <c r="BA42" s="13" t="n">
-        <v>15328831</v>
+        <v>47610007</v>
       </c>
       <c r="BB42" s="13" t="n">
-        <v>47610007</v>
+        <v>9601204</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6936,154 +6936,154 @@
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15" t="n">
-        <v>15385548</v>
+        <v>17214038</v>
       </c>
       <c r="F43" s="15" t="n">
-        <v>17214038</v>
+        <v>13587053</v>
       </c>
       <c r="G43" s="15" t="n">
-        <v>13587053</v>
+        <v>23698885</v>
       </c>
       <c r="H43" s="15" t="n">
-        <v>23698885</v>
+        <v>22991267</v>
       </c>
       <c r="I43" s="15" t="n">
-        <v>22991267</v>
+        <v>20735193</v>
       </c>
       <c r="J43" s="15" t="n">
-        <v>20735193</v>
+        <v>20008827</v>
       </c>
       <c r="K43" s="15" t="n">
-        <v>20008827</v>
+        <v>21023652</v>
       </c>
       <c r="L43" s="15" t="n">
-        <v>21023652</v>
+        <v>19533443</v>
       </c>
       <c r="M43" s="15" t="n">
-        <v>19533443</v>
+        <v>16880012</v>
       </c>
       <c r="N43" s="15" t="n">
-        <v>16880012</v>
+        <v>13272093</v>
       </c>
       <c r="O43" s="15" t="n">
-        <v>13272093</v>
+        <v>16</v>
       </c>
       <c r="P43" s="15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q43" s="15" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="R43" s="15" t="n">
-        <v>13</v>
+        <v>14398408</v>
       </c>
       <c r="S43" s="15" t="n">
-        <v>14398408</v>
+        <v>30466139</v>
       </c>
       <c r="T43" s="15" t="n">
-        <v>30466139</v>
+        <v>26093085</v>
       </c>
       <c r="U43" s="15" t="n">
-        <v>26093085</v>
+        <v>25065548</v>
       </c>
       <c r="V43" s="15" t="n">
-        <v>25065548</v>
+        <v>24107939</v>
       </c>
       <c r="W43" s="15" t="n">
-        <v>24107939</v>
+        <v>32153658</v>
       </c>
       <c r="X43" s="15" t="n">
-        <v>32153658</v>
+        <v>36484390</v>
       </c>
       <c r="Y43" s="15" t="n">
-        <v>36484390</v>
+        <v>39571364</v>
       </c>
       <c r="Z43" s="15" t="n">
-        <v>39571364</v>
+        <v>39012934</v>
       </c>
       <c r="AA43" s="15" t="n">
-        <v>39012934</v>
+        <v>41349493</v>
       </c>
       <c r="AB43" s="15" t="n">
-        <v>41349493</v>
+        <v>47108405</v>
       </c>
       <c r="AC43" s="15" t="n">
-        <v>47108405</v>
+        <v>66917633</v>
       </c>
       <c r="AD43" s="15" t="n">
-        <v>66917633</v>
+        <v>55166609</v>
       </c>
       <c r="AE43" s="15" t="n">
-        <v>55166609</v>
+        <v>67748720</v>
       </c>
       <c r="AF43" s="15" t="n">
-        <v>67748720</v>
+        <v>59311777</v>
       </c>
       <c r="AG43" s="15" t="n">
-        <v>59311777</v>
+        <v>54940072</v>
       </c>
       <c r="AH43" s="15" t="n">
-        <v>54940072</v>
+        <v>46402949</v>
       </c>
       <c r="AI43" s="15" t="n">
-        <v>46402949</v>
+        <v>70262192</v>
       </c>
       <c r="AJ43" s="15" t="n">
-        <v>70262192</v>
+        <v>70040208</v>
       </c>
       <c r="AK43" s="15" t="n">
-        <v>70040208</v>
+        <v>79923483</v>
       </c>
       <c r="AL43" s="15" t="n">
-        <v>79923483</v>
+        <v>82095147</v>
       </c>
       <c r="AM43" s="15" t="n">
-        <v>82095147</v>
+        <v>85011509</v>
       </c>
       <c r="AN43" s="15" t="n">
-        <v>85011509</v>
+        <v>75597229</v>
       </c>
       <c r="AO43" s="15" t="n">
-        <v>75597229</v>
+        <v>109194516</v>
       </c>
       <c r="AP43" s="15" t="n">
-        <v>109194516</v>
+        <v>74052953</v>
       </c>
       <c r="AQ43" s="15" t="n">
-        <v>74052953</v>
+        <v>95729317</v>
       </c>
       <c r="AR43" s="15" t="n">
-        <v>95729317</v>
+        <v>113965451</v>
       </c>
       <c r="AS43" s="15" t="n">
-        <v>113965451</v>
+        <v>79886872</v>
       </c>
       <c r="AT43" s="15" t="n">
-        <v>79886872</v>
+        <v>65597184</v>
       </c>
       <c r="AU43" s="15" t="n">
-        <v>65597184</v>
+        <v>54977492</v>
       </c>
       <c r="AV43" s="15" t="n">
-        <v>54977492</v>
+        <v>67389429</v>
       </c>
       <c r="AW43" s="15" t="n">
-        <v>67389429</v>
+        <v>69094512</v>
       </c>
       <c r="AX43" s="15" t="n">
-        <v>69094512</v>
+        <v>72643041</v>
       </c>
       <c r="AY43" s="15" t="n">
-        <v>72643041</v>
+        <v>63347700</v>
       </c>
       <c r="AZ43" s="15" t="n">
-        <v>63347700</v>
+        <v>62823364</v>
       </c>
       <c r="BA43" s="15" t="n">
-        <v>62823364</v>
+        <v>95010769</v>
       </c>
       <c r="BB43" s="15" t="n">
-        <v>95010769</v>
+        <v>113332823</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7095,154 +7095,154 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="n">
-        <v>2174539</v>
+        <v>2186772</v>
       </c>
       <c r="F44" s="13" t="n">
-        <v>2186772</v>
+        <v>1844697</v>
       </c>
       <c r="G44" s="13" t="n">
-        <v>1844697</v>
+        <v>2143035</v>
       </c>
       <c r="H44" s="13" t="n">
-        <v>2143035</v>
+        <v>2219023</v>
       </c>
       <c r="I44" s="13" t="n">
-        <v>2219023</v>
+        <v>2660180</v>
       </c>
       <c r="J44" s="13" t="n">
-        <v>2660180</v>
+        <v>2769274</v>
       </c>
       <c r="K44" s="13" t="n">
-        <v>2769274</v>
+        <v>2740837</v>
       </c>
       <c r="L44" s="13" t="n">
-        <v>2740837</v>
+        <v>2724887</v>
       </c>
       <c r="M44" s="13" t="n">
-        <v>2724887</v>
+        <v>2744585</v>
       </c>
       <c r="N44" s="13" t="n">
-        <v>2744585</v>
+        <v>3316686</v>
       </c>
       <c r="O44" s="13" t="n">
-        <v>3316686</v>
+        <v>3</v>
       </c>
       <c r="P44" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q44" s="13" t="n">
         <v>2</v>
       </c>
       <c r="R44" s="13" t="n">
-        <v>2</v>
+        <v>1827741</v>
       </c>
       <c r="S44" s="13" t="n">
-        <v>1827741</v>
+        <v>3366032</v>
       </c>
       <c r="T44" s="13" t="n">
-        <v>3366032</v>
+        <v>3122918</v>
       </c>
       <c r="U44" s="13" t="n">
-        <v>3122918</v>
+        <v>3397989</v>
       </c>
       <c r="V44" s="13" t="n">
-        <v>3397989</v>
+        <v>3250810</v>
       </c>
       <c r="W44" s="13" t="n">
-        <v>3250810</v>
+        <v>3700609</v>
       </c>
       <c r="X44" s="13" t="n">
-        <v>3700609</v>
+        <v>5539489</v>
       </c>
       <c r="Y44" s="13" t="n">
-        <v>5539489</v>
+        <v>4381240</v>
       </c>
       <c r="Z44" s="13" t="n">
-        <v>4381240</v>
+        <v>5429270</v>
       </c>
       <c r="AA44" s="13" t="n">
-        <v>5429270</v>
+        <v>6923658</v>
       </c>
       <c r="AB44" s="13" t="n">
-        <v>6923658</v>
+        <v>5541805</v>
       </c>
       <c r="AC44" s="13" t="n">
-        <v>5541805</v>
+        <v>4949401</v>
       </c>
       <c r="AD44" s="13" t="n">
-        <v>4949401</v>
+        <v>5831556</v>
       </c>
       <c r="AE44" s="13" t="n">
-        <v>5831556</v>
+        <v>5957563</v>
       </c>
       <c r="AF44" s="13" t="n">
-        <v>5957563</v>
+        <v>6967658</v>
       </c>
       <c r="AG44" s="13" t="n">
-        <v>6967658</v>
+        <v>6716386</v>
       </c>
       <c r="AH44" s="13" t="n">
-        <v>6716386</v>
+        <v>6605638</v>
       </c>
       <c r="AI44" s="13" t="n">
-        <v>6605638</v>
+        <v>7094069</v>
       </c>
       <c r="AJ44" s="13" t="n">
-        <v>7094069</v>
+        <v>6092348</v>
       </c>
       <c r="AK44" s="13" t="n">
-        <v>6092348</v>
+        <v>7375570</v>
       </c>
       <c r="AL44" s="13" t="n">
-        <v>7375570</v>
+        <v>7299364</v>
       </c>
       <c r="AM44" s="13" t="n">
-        <v>7299364</v>
+        <v>9414024</v>
       </c>
       <c r="AN44" s="13" t="n">
-        <v>9414024</v>
+        <v>8782817</v>
       </c>
       <c r="AO44" s="13" t="n">
-        <v>8782817</v>
+        <v>8728208</v>
       </c>
       <c r="AP44" s="13" t="n">
-        <v>8728208</v>
+        <v>7859694</v>
       </c>
       <c r="AQ44" s="13" t="n">
-        <v>7859694</v>
+        <v>9785942</v>
       </c>
       <c r="AR44" s="13" t="n">
-        <v>9785942</v>
+        <v>10377534</v>
       </c>
       <c r="AS44" s="13" t="n">
-        <v>10377534</v>
+        <v>7601161</v>
       </c>
       <c r="AT44" s="13" t="n">
-        <v>7601161</v>
+        <v>7153245</v>
       </c>
       <c r="AU44" s="13" t="n">
-        <v>7153245</v>
+        <v>6588859</v>
       </c>
       <c r="AV44" s="13" t="n">
-        <v>6588859</v>
+        <v>5765494</v>
       </c>
       <c r="AW44" s="13" t="n">
-        <v>5765494</v>
+        <v>6832748</v>
       </c>
       <c r="AX44" s="13" t="n">
-        <v>6832748</v>
+        <v>6742831</v>
       </c>
       <c r="AY44" s="13" t="n">
-        <v>6742831</v>
+        <v>6486425</v>
       </c>
       <c r="AZ44" s="13" t="n">
-        <v>6486425</v>
+        <v>10847048</v>
       </c>
       <c r="BA44" s="13" t="n">
-        <v>10847048</v>
+        <v>11579804</v>
       </c>
       <c r="BB44" s="13" t="n">
-        <v>11579804</v>
+        <v>13739447</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7254,154 +7254,154 @@
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15" t="n">
-        <v>6821816</v>
+        <v>5395769</v>
       </c>
       <c r="F45" s="15" t="n">
-        <v>5395769</v>
+        <v>5605528</v>
       </c>
       <c r="G45" s="15" t="n">
-        <v>5605528</v>
+        <v>7072596</v>
       </c>
       <c r="H45" s="15" t="n">
-        <v>7072596</v>
+        <v>6820336</v>
       </c>
       <c r="I45" s="15" t="n">
-        <v>6820336</v>
+        <v>6294139</v>
       </c>
       <c r="J45" s="15" t="n">
-        <v>6294139</v>
+        <v>7707851</v>
       </c>
       <c r="K45" s="15" t="n">
-        <v>7707851</v>
+        <v>6614578</v>
       </c>
       <c r="L45" s="15" t="n">
-        <v>6614578</v>
+        <v>7155159</v>
       </c>
       <c r="M45" s="15" t="n">
-        <v>7155159</v>
+        <v>7025593</v>
       </c>
       <c r="N45" s="15" t="n">
-        <v>7025593</v>
+        <v>7688409</v>
       </c>
       <c r="O45" s="15" t="n">
-        <v>7688409</v>
+        <v>7</v>
       </c>
       <c r="P45" s="15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q45" s="15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R45" s="15" t="n">
-        <v>5</v>
+        <v>6620214</v>
       </c>
       <c r="S45" s="15" t="n">
-        <v>6620214</v>
+        <v>10239418</v>
       </c>
       <c r="T45" s="15" t="n">
-        <v>10239418</v>
+        <v>11269325</v>
       </c>
       <c r="U45" s="15" t="n">
-        <v>11269325</v>
+        <v>12926683</v>
       </c>
       <c r="V45" s="15" t="n">
-        <v>12926683</v>
+        <v>10609866</v>
       </c>
       <c r="W45" s="15" t="n">
-        <v>10609866</v>
+        <v>13008132</v>
       </c>
       <c r="X45" s="15" t="n">
-        <v>13008132</v>
+        <v>16671971</v>
       </c>
       <c r="Y45" s="15" t="n">
-        <v>16671971</v>
+        <v>14780366</v>
       </c>
       <c r="Z45" s="15" t="n">
-        <v>14780366</v>
+        <v>19914714</v>
       </c>
       <c r="AA45" s="15" t="n">
-        <v>19914714</v>
+        <v>19578474</v>
       </c>
       <c r="AB45" s="15" t="n">
-        <v>19578474</v>
+        <v>18740573</v>
       </c>
       <c r="AC45" s="15" t="n">
-        <v>18740573</v>
+        <v>21123134</v>
       </c>
       <c r="AD45" s="15" t="n">
-        <v>21123134</v>
+        <v>22195484</v>
       </c>
       <c r="AE45" s="15" t="n">
-        <v>22195484</v>
+        <v>25120361</v>
       </c>
       <c r="AF45" s="15" t="n">
-        <v>25120361</v>
+        <v>23499295</v>
       </c>
       <c r="AG45" s="15" t="n">
-        <v>23499295</v>
+        <v>28115653</v>
       </c>
       <c r="AH45" s="15" t="n">
-        <v>28115653</v>
+        <v>27338079</v>
       </c>
       <c r="AI45" s="15" t="n">
-        <v>27338079</v>
+        <v>30934752</v>
       </c>
       <c r="AJ45" s="15" t="n">
-        <v>30934752</v>
+        <v>28957328</v>
       </c>
       <c r="AK45" s="15" t="n">
-        <v>28957328</v>
+        <v>30704180</v>
       </c>
       <c r="AL45" s="15" t="n">
-        <v>30704180</v>
+        <v>31198491</v>
       </c>
       <c r="AM45" s="15" t="n">
-        <v>31198491</v>
+        <v>27174403</v>
       </c>
       <c r="AN45" s="15" t="n">
-        <v>27174403</v>
+        <v>30372557</v>
       </c>
       <c r="AO45" s="15" t="n">
-        <v>30372557</v>
+        <v>28262693</v>
       </c>
       <c r="AP45" s="15" t="n">
-        <v>28262693</v>
+        <v>28215166</v>
       </c>
       <c r="AQ45" s="15" t="n">
-        <v>28215166</v>
+        <v>29878691</v>
       </c>
       <c r="AR45" s="15" t="n">
-        <v>29878691</v>
+        <v>29328796</v>
       </c>
       <c r="AS45" s="15" t="n">
-        <v>29328796</v>
+        <v>26010519</v>
       </c>
       <c r="AT45" s="15" t="n">
-        <v>26010519</v>
+        <v>25324276</v>
       </c>
       <c r="AU45" s="15" t="n">
-        <v>25324276</v>
+        <v>29530786</v>
       </c>
       <c r="AV45" s="15" t="n">
-        <v>29530786</v>
+        <v>28032905</v>
       </c>
       <c r="AW45" s="15" t="n">
-        <v>28032905</v>
+        <v>27105111</v>
       </c>
       <c r="AX45" s="15" t="n">
-        <v>27105111</v>
+        <v>27707157</v>
       </c>
       <c r="AY45" s="15" t="n">
-        <v>27707157</v>
+        <v>29109925</v>
       </c>
       <c r="AZ45" s="15" t="n">
-        <v>29109925</v>
+        <v>33335188</v>
       </c>
       <c r="BA45" s="15" t="n">
-        <v>33335188</v>
+        <v>34543601</v>
       </c>
       <c r="BB45" s="15" t="n">
-        <v>34543601</v>
+        <v>35936290</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7508,8 +7508,8 @@
       <c r="Q47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R47" s="13" t="s">
-        <v>57</v>
+      <c r="R47" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S47" s="13" t="n">
         <v>0</v>
@@ -7544,8 +7544,8 @@
       <c r="AC47" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD47" s="13" t="n">
-        <v>0</v>
+      <c r="AD47" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE47" s="13" t="s">
         <v>57</v>
@@ -7667,8 +7667,8 @@
       <c r="Q48" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R48" s="17" t="s">
-        <v>57</v>
+      <c r="R48" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S48" s="20" t="n">
         <v>0</v>
@@ -7883,8 +7883,8 @@
       <c r="Q50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R50" s="13" t="s">
-        <v>57</v>
+      <c r="R50" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S50" s="13" t="n">
         <v>0</v>
@@ -7919,8 +7919,8 @@
       <c r="AC50" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD50" s="13" t="n">
-        <v>0</v>
+      <c r="AD50" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE50" s="13" t="s">
         <v>57</v>
@@ -8042,8 +8042,8 @@
       <c r="Q51" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R51" s="17" t="s">
-        <v>57</v>
+      <c r="R51" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S51" s="20" t="n">
         <v>0</v>
@@ -8258,8 +8258,8 @@
       <c r="Q53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R53" s="13" t="s">
-        <v>57</v>
+      <c r="R53" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S53" s="13" t="n">
         <v>0</v>
@@ -8377,154 +8377,154 @@
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20" t="n">
-        <v>26144301</v>
+        <v>26285207</v>
       </c>
       <c r="F54" s="20" t="n">
-        <v>26285207</v>
+        <v>23261542</v>
       </c>
       <c r="G54" s="20" t="n">
-        <v>23261542</v>
+        <v>35223799</v>
       </c>
       <c r="H54" s="20" t="n">
-        <v>35223799</v>
+        <v>37461519</v>
       </c>
       <c r="I54" s="20" t="n">
-        <v>37461519</v>
+        <v>35232544</v>
       </c>
       <c r="J54" s="20" t="n">
-        <v>35232544</v>
+        <v>32710128</v>
       </c>
       <c r="K54" s="20" t="n">
-        <v>32710128</v>
+        <v>36447958</v>
       </c>
       <c r="L54" s="20" t="n">
-        <v>36447958</v>
+        <v>34083949</v>
       </c>
       <c r="M54" s="20" t="n">
-        <v>34083949</v>
+        <v>32362216</v>
       </c>
       <c r="N54" s="20" t="n">
-        <v>32362216</v>
+        <v>29345860</v>
       </c>
       <c r="O54" s="20" t="n">
-        <v>29345860</v>
+        <v>32</v>
       </c>
       <c r="P54" s="20" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="20" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="R54" s="20" t="n">
-        <v>25</v>
+        <v>25826273</v>
       </c>
       <c r="S54" s="20" t="n">
-        <v>25826273</v>
+        <v>51689755</v>
       </c>
       <c r="T54" s="20" t="n">
-        <v>51689755</v>
+        <v>49169256</v>
       </c>
       <c r="U54" s="20" t="n">
-        <v>49169256</v>
+        <v>48844204</v>
       </c>
       <c r="V54" s="20" t="n">
-        <v>48844204</v>
+        <v>42913621</v>
       </c>
       <c r="W54" s="20" t="n">
-        <v>42913621</v>
+        <v>55101151</v>
       </c>
       <c r="X54" s="20" t="n">
-        <v>55101151</v>
+        <v>67348088</v>
       </c>
       <c r="Y54" s="20" t="n">
-        <v>67348088</v>
+        <v>75216101</v>
       </c>
       <c r="Z54" s="20" t="n">
-        <v>75216101</v>
+        <v>78370436</v>
       </c>
       <c r="AA54" s="20" t="n">
-        <v>78370436</v>
+        <v>84724117</v>
       </c>
       <c r="AB54" s="20" t="n">
-        <v>84724117</v>
+        <v>83653566</v>
       </c>
       <c r="AC54" s="20" t="n">
-        <v>83653566</v>
+        <v>111106419</v>
       </c>
       <c r="AD54" s="20" t="n">
-        <v>111106419</v>
+        <v>90854065</v>
       </c>
       <c r="AE54" s="20" t="n">
-        <v>90854065</v>
+        <v>124500980</v>
       </c>
       <c r="AF54" s="20" t="n">
-        <v>124500980</v>
+        <v>121298880</v>
       </c>
       <c r="AG54" s="20" t="n">
-        <v>121298880</v>
+        <v>114212036</v>
       </c>
       <c r="AH54" s="20" t="n">
-        <v>114212036</v>
+        <v>89402622</v>
       </c>
       <c r="AI54" s="20" t="n">
-        <v>89402622</v>
+        <v>120578768</v>
       </c>
       <c r="AJ54" s="20" t="n">
-        <v>120578768</v>
+        <v>126484725</v>
       </c>
       <c r="AK54" s="20" t="n">
-        <v>126484725</v>
+        <v>127066952</v>
       </c>
       <c r="AL54" s="20" t="n">
-        <v>127066952</v>
+        <v>135292297</v>
       </c>
       <c r="AM54" s="20" t="n">
-        <v>135292297</v>
+        <v>132919081</v>
       </c>
       <c r="AN54" s="20" t="n">
-        <v>132919081</v>
+        <v>127470667</v>
       </c>
       <c r="AO54" s="20" t="n">
-        <v>127470667</v>
+        <v>146185417</v>
       </c>
       <c r="AP54" s="20" t="n">
-        <v>146185417</v>
+        <v>120678354</v>
       </c>
       <c r="AQ54" s="20" t="n">
-        <v>120678354</v>
+        <v>173612731</v>
       </c>
       <c r="AR54" s="20" t="n">
-        <v>173612731</v>
+        <v>187316082</v>
       </c>
       <c r="AS54" s="20" t="n">
-        <v>187316082</v>
+        <v>124307251</v>
       </c>
       <c r="AT54" s="20" t="n">
-        <v>124307251</v>
+        <v>102344184</v>
       </c>
       <c r="AU54" s="20" t="n">
-        <v>102344184</v>
+        <v>98064186</v>
       </c>
       <c r="AV54" s="20" t="n">
-        <v>98064186</v>
+        <v>107258109</v>
       </c>
       <c r="AW54" s="20" t="n">
-        <v>107258109</v>
+        <v>114094126</v>
       </c>
       <c r="AX54" s="20" t="n">
-        <v>114094126</v>
+        <v>122928341</v>
       </c>
       <c r="AY54" s="20" t="n">
-        <v>122928341</v>
+        <v>114384348</v>
       </c>
       <c r="AZ54" s="20" t="n">
-        <v>114384348</v>
+        <v>122334431</v>
       </c>
       <c r="BA54" s="20" t="n">
-        <v>122334431</v>
+        <v>188744181</v>
       </c>
       <c r="BB54" s="20" t="n">
-        <v>188744181</v>
+        <v>172609764</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8970,154 +8970,154 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="n">
-        <v>32637000000</v>
+        <v>33080622222</v>
       </c>
       <c r="F61" s="13" t="n">
-        <v>33080622222</v>
+        <v>34754125000</v>
       </c>
       <c r="G61" s="13" t="n">
-        <v>34754125000</v>
+        <v>38488050000</v>
       </c>
       <c r="H61" s="13" t="n">
-        <v>38488050000</v>
+        <v>40833781955</v>
       </c>
       <c r="I61" s="13" t="n">
-        <v>40833781955</v>
+        <v>43304937500</v>
       </c>
       <c r="J61" s="13" t="n">
-        <v>43304937500</v>
+        <v>44483520000</v>
       </c>
       <c r="K61" s="13" t="n">
-        <v>44483520000</v>
+        <v>41567746575</v>
       </c>
       <c r="L61" s="13" t="n">
-        <v>41567746575</v>
+        <v>40968947368</v>
       </c>
       <c r="M61" s="13" t="n">
-        <v>40968947368</v>
+        <v>39393282759</v>
       </c>
       <c r="N61" s="13" t="n">
-        <v>39393282759</v>
+        <v>39599000000</v>
       </c>
       <c r="O61" s="13" t="n">
-        <v>39599000000</v>
+        <v>42405773050</v>
       </c>
       <c r="P61" s="13" t="n">
-        <v>42405773050</v>
+        <v>45380150259</v>
       </c>
       <c r="Q61" s="13" t="n">
-        <v>45380150259</v>
+        <v>45416516949</v>
       </c>
       <c r="R61" s="13" t="n">
-        <v>45416516949</v>
+        <v>55183518519</v>
       </c>
       <c r="S61" s="13" t="n">
-        <v>55183518519</v>
+        <v>56430859259</v>
       </c>
       <c r="T61" s="13" t="n">
-        <v>56430859259</v>
+        <v>59074340136</v>
       </c>
       <c r="U61" s="13" t="n">
-        <v>59074340136</v>
+        <v>59631872000</v>
       </c>
       <c r="V61" s="13" t="n">
-        <v>59631872000</v>
+        <v>79758161290</v>
       </c>
       <c r="W61" s="13" t="n">
-        <v>79758161290</v>
+        <v>74270857143</v>
       </c>
       <c r="X61" s="13" t="n">
-        <v>74270857143</v>
+        <v>94046065217</v>
       </c>
       <c r="Y61" s="13" t="n">
-        <v>94046065217</v>
+        <v>95832156977</v>
       </c>
       <c r="Z61" s="13" t="n">
-        <v>95832156977</v>
+        <v>114864901639</v>
       </c>
       <c r="AA61" s="13" t="n">
-        <v>114864901639</v>
+        <v>123156875912</v>
       </c>
       <c r="AB61" s="13" t="n">
-        <v>123156875912</v>
+        <v>121413693069</v>
       </c>
       <c r="AC61" s="13" t="n">
-        <v>121413693069</v>
+        <v>131277181159</v>
       </c>
       <c r="AD61" s="13" t="n">
-        <v>131277181159</v>
+        <v>136793142857</v>
       </c>
       <c r="AE61" s="13" t="n">
-        <v>136793142857</v>
+        <v>134420607330</v>
       </c>
       <c r="AF61" s="13" t="n">
-        <v>134420607330</v>
+        <v>135279613734</v>
       </c>
       <c r="AG61" s="13" t="n">
-        <v>135279613734</v>
+        <v>153710220126</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>153710220126</v>
+        <v>153490779661</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>153490779661</v>
+        <v>153596937500</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>153596937500</v>
+        <v>165851480620</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>165851480620</v>
+        <v>146189016129</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>146189016129</v>
+        <v>161530714286</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>161530714286</v>
+        <v>164045579710</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>164045579710</v>
-      </c>
-      <c r="AO61" s="13" t="n">
         <v>151405523810</v>
       </c>
-      <c r="AP61" s="13" t="s">
-        <v>57</v>
+      <c r="AO61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP61" s="13" t="n">
+        <v>157470761194</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>157470761194</v>
+        <v>157278934156</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>157278934156</v>
+        <v>159451663507</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>159451663507</v>
+        <v>180144983333</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>180144983333</v>
+        <v>147223413793</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>147223413793</v>
+        <v>154823311111</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>154823311111</v>
+        <v>159744236842</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>159744236842</v>
+        <v>128625058140</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>128625058140</v>
+        <v>131960933333</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>131960933333</v>
+        <v>120627328125</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>120627328125</v>
+        <v>124624642276</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>124624642276</v>
+        <v>132988846369</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>132988846369</v>
+        <v>154858129032</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9129,154 +9129,154 @@
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="15" t="n">
-        <v>41470479784</v>
+        <v>41781645631</v>
       </c>
       <c r="F62" s="15" t="n">
-        <v>41781645631</v>
+        <v>44402133987</v>
       </c>
       <c r="G62" s="15" t="n">
-        <v>44402133987</v>
+        <v>46835741107</v>
       </c>
       <c r="H62" s="15" t="n">
-        <v>46835741107</v>
+        <v>51899022573</v>
       </c>
       <c r="I62" s="15" t="n">
-        <v>51899022573</v>
+        <v>54566297368</v>
       </c>
       <c r="J62" s="15" t="n">
-        <v>54566297368</v>
+        <v>52379128272</v>
       </c>
       <c r="K62" s="15" t="n">
-        <v>52379128272</v>
+        <v>50781768116</v>
       </c>
       <c r="L62" s="15" t="n">
-        <v>50781768116</v>
+        <v>49079002513</v>
       </c>
       <c r="M62" s="15" t="n">
-        <v>49079002513</v>
+        <v>47683649718</v>
       </c>
       <c r="N62" s="15" t="n">
-        <v>47683649718</v>
+        <v>47400332143</v>
       </c>
       <c r="O62" s="15" t="n">
-        <v>47400332143</v>
+        <v>47784200599</v>
       </c>
       <c r="P62" s="15" t="n">
-        <v>47784200599</v>
+        <v>49941232737</v>
       </c>
       <c r="Q62" s="15" t="n">
-        <v>49941232737</v>
+        <v>52601884000</v>
       </c>
       <c r="R62" s="15" t="n">
-        <v>52601884000</v>
+        <v>53130656827</v>
       </c>
       <c r="S62" s="15" t="n">
-        <v>53130656827</v>
+        <v>56523448980</v>
       </c>
       <c r="T62" s="15" t="n">
-        <v>56523448980</v>
+        <v>59573253425</v>
       </c>
       <c r="U62" s="15" t="n">
-        <v>59573253425</v>
+        <v>67020181818</v>
       </c>
       <c r="V62" s="15" t="n">
-        <v>67020181818</v>
+        <v>74637582043</v>
       </c>
       <c r="W62" s="15" t="n">
-        <v>74637582043</v>
+        <v>82870252577</v>
       </c>
       <c r="X62" s="15" t="n">
-        <v>82870252577</v>
+        <v>95011432292</v>
       </c>
       <c r="Y62" s="15" t="n">
-        <v>95011432292</v>
+        <v>108414695890</v>
       </c>
       <c r="Z62" s="15" t="n">
-        <v>108414695890</v>
+        <v>121158180124</v>
       </c>
       <c r="AA62" s="15" t="n">
-        <v>121158180124</v>
+        <v>126838935583</v>
       </c>
       <c r="AB62" s="15" t="n">
-        <v>126838935583</v>
+        <v>131221183844</v>
       </c>
       <c r="AC62" s="15" t="n">
-        <v>131221183844</v>
+        <v>147395667401</v>
       </c>
       <c r="AD62" s="15" t="n">
-        <v>147395667401</v>
+        <v>165169488024</v>
       </c>
       <c r="AE62" s="15" t="n">
-        <v>165169488024</v>
+        <v>171515746835</v>
       </c>
       <c r="AF62" s="15" t="n">
-        <v>171515746835</v>
+        <v>177050080597</v>
       </c>
       <c r="AG62" s="15" t="n">
-        <v>177050080597</v>
+        <v>182525156146</v>
       </c>
       <c r="AH62" s="15" t="n">
-        <v>182525156146</v>
+        <v>196622665254</v>
       </c>
       <c r="AI62" s="15" t="n">
-        <v>196622665254</v>
+        <v>206047483871</v>
       </c>
       <c r="AJ62" s="15" t="n">
-        <v>206047483871</v>
+        <v>209075247761</v>
       </c>
       <c r="AK62" s="15" t="n">
-        <v>209075247761</v>
+        <v>214848072581</v>
       </c>
       <c r="AL62" s="15" t="n">
-        <v>214848072581</v>
+        <v>209962012788</v>
       </c>
       <c r="AM62" s="15" t="n">
-        <v>209962012788</v>
+        <v>213596756281</v>
       </c>
       <c r="AN62" s="15" t="n">
-        <v>213596756281</v>
+        <v>205427252717</v>
       </c>
       <c r="AO62" s="15" t="n">
-        <v>205427252717</v>
+        <v>174153933014</v>
       </c>
       <c r="AP62" s="15" t="n">
-        <v>174153933014</v>
+        <v>198533386059</v>
       </c>
       <c r="AQ62" s="15" t="n">
-        <v>198533386059</v>
+        <v>203246957537</v>
       </c>
       <c r="AR62" s="15" t="n">
-        <v>203246957537</v>
+        <v>210268359779</v>
       </c>
       <c r="AS62" s="15" t="n">
-        <v>210268359779</v>
+        <v>201226377834</v>
       </c>
       <c r="AT62" s="15" t="n">
-        <v>201226377834</v>
+        <v>195812489552</v>
       </c>
       <c r="AU62" s="15" t="n">
-        <v>195812489552</v>
+        <v>180847013158</v>
       </c>
       <c r="AV62" s="15" t="n">
-        <v>180847013158</v>
+        <v>174584012953</v>
       </c>
       <c r="AW62" s="15" t="n">
-        <v>174584012953</v>
+        <v>170183527094</v>
       </c>
       <c r="AX62" s="15" t="n">
-        <v>170183527094</v>
+        <v>168155187500</v>
       </c>
       <c r="AY62" s="15" t="n">
-        <v>168155187500</v>
+        <v>172609536785</v>
       </c>
       <c r="AZ62" s="15" t="n">
-        <v>172609536785</v>
+        <v>189227000000</v>
       </c>
       <c r="BA62" s="15" t="n">
-        <v>189227000000</v>
+        <v>227843570743</v>
       </c>
       <c r="BB62" s="15" t="n">
-        <v>227843570743</v>
+        <v>258750737443</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9288,154 +9288,154 @@
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13" t="n">
-        <v>86981560000</v>
+        <v>87470880000</v>
       </c>
       <c r="F63" s="13" t="n">
-        <v>87470880000</v>
+        <v>87842714286</v>
       </c>
       <c r="G63" s="13" t="n">
-        <v>87842714286</v>
+        <v>97410681818</v>
       </c>
       <c r="H63" s="13" t="n">
-        <v>97410681818</v>
+        <v>100864681818</v>
       </c>
       <c r="I63" s="13" t="n">
-        <v>100864681818</v>
+        <v>106407200000</v>
       </c>
       <c r="J63" s="13" t="n">
-        <v>106407200000</v>
+        <v>125876090909</v>
       </c>
       <c r="K63" s="13" t="n">
-        <v>125876090909</v>
+        <v>119166826087</v>
       </c>
       <c r="L63" s="13" t="n">
-        <v>119166826087</v>
+        <v>118473347826</v>
       </c>
       <c r="M63" s="13" t="n">
-        <v>118473347826</v>
+        <v>109783400000</v>
       </c>
       <c r="N63" s="13" t="n">
-        <v>109783400000</v>
+        <v>106989870968</v>
       </c>
       <c r="O63" s="13" t="n">
-        <v>106989870968</v>
+        <v>103115960000</v>
       </c>
       <c r="P63" s="13" t="n">
-        <v>103115960000</v>
+        <v>102910476190</v>
       </c>
       <c r="Q63" s="13" t="n">
-        <v>102910476190</v>
+        <v>102926882353</v>
       </c>
       <c r="R63" s="13" t="n">
-        <v>102926882353</v>
+        <v>101541166667</v>
       </c>
       <c r="S63" s="13" t="n">
-        <v>101541166667</v>
+        <v>116070068966</v>
       </c>
       <c r="T63" s="13" t="n">
-        <v>116070068966</v>
+        <v>115663629630</v>
       </c>
       <c r="U63" s="13" t="n">
-        <v>115663629630</v>
+        <v>121356750000</v>
       </c>
       <c r="V63" s="13" t="n">
-        <v>121356750000</v>
+        <v>120400370370</v>
       </c>
       <c r="W63" s="13" t="n">
-        <v>120400370370</v>
+        <v>137059592593</v>
       </c>
       <c r="X63" s="13" t="n">
-        <v>137059592593</v>
+        <v>145776026316</v>
       </c>
       <c r="Y63" s="13" t="n">
-        <v>145776026316</v>
+        <v>175249600000</v>
       </c>
       <c r="Z63" s="13" t="n">
-        <v>175249600000</v>
+        <v>187216206897</v>
       </c>
       <c r="AA63" s="13" t="n">
-        <v>187216206897</v>
+        <v>187125891892</v>
       </c>
       <c r="AB63" s="13" t="n">
-        <v>187125891892</v>
+        <v>221672200000</v>
       </c>
       <c r="AC63" s="13" t="n">
-        <v>221672200000</v>
+        <v>224972772727</v>
       </c>
       <c r="AD63" s="13" t="n">
-        <v>224972772727</v>
+        <v>233262240000</v>
       </c>
       <c r="AE63" s="13" t="n">
-        <v>233262240000</v>
+        <v>229137038462</v>
       </c>
       <c r="AF63" s="13" t="n">
-        <v>229137038462</v>
+        <v>240264068966</v>
       </c>
       <c r="AG63" s="13" t="n">
-        <v>240264068966</v>
+        <v>248755037037</v>
       </c>
       <c r="AH63" s="13" t="n">
-        <v>248755037037</v>
+        <v>264225520000</v>
       </c>
       <c r="AI63" s="13" t="n">
-        <v>264225520000</v>
+        <v>283762760000</v>
       </c>
       <c r="AJ63" s="13" t="n">
-        <v>283762760000</v>
+        <v>304617400000</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>304617400000</v>
+        <v>295022800000</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>295022800000</v>
+        <v>291974560000</v>
       </c>
       <c r="AM63" s="13" t="n">
-        <v>291974560000</v>
+        <v>294188250000</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>294188250000</v>
+        <v>292760566667</v>
       </c>
       <c r="AO63" s="13" t="n">
-        <v>292760566667</v>
+        <v>290940266667</v>
       </c>
       <c r="AP63" s="13" t="n">
-        <v>290940266667</v>
+        <v>314387760000</v>
       </c>
       <c r="AQ63" s="13" t="n">
-        <v>314387760000</v>
+        <v>305810687500</v>
       </c>
       <c r="AR63" s="13" t="n">
-        <v>305810687500</v>
+        <v>288264833333</v>
       </c>
       <c r="AS63" s="13" t="n">
-        <v>288264833333</v>
+        <v>304046440000</v>
       </c>
       <c r="AT63" s="13" t="n">
-        <v>304046440000</v>
+        <v>298051875000</v>
       </c>
       <c r="AU63" s="13" t="n">
-        <v>298051875000</v>
+        <v>299493590909</v>
       </c>
       <c r="AV63" s="13" t="n">
-        <v>299493590909</v>
+        <v>320305222222</v>
       </c>
       <c r="AW63" s="13" t="n">
-        <v>320305222222</v>
+        <v>297076000000</v>
       </c>
       <c r="AX63" s="13" t="n">
-        <v>297076000000</v>
+        <v>306492318182</v>
       </c>
       <c r="AY63" s="13" t="n">
-        <v>306492318182</v>
+        <v>341390789474</v>
       </c>
       <c r="AZ63" s="13" t="n">
-        <v>341390789474</v>
+        <v>349904774194</v>
       </c>
       <c r="BA63" s="13" t="n">
-        <v>349904774194</v>
+        <v>361868875000</v>
       </c>
       <c r="BB63" s="13" t="n">
-        <v>361868875000</v>
+        <v>416346878788</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9447,154 +9447,154 @@
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15" t="n">
-        <v>51291849624</v>
+        <v>50427747664</v>
       </c>
       <c r="F64" s="15" t="n">
-        <v>50427747664</v>
+        <v>50049357143</v>
       </c>
       <c r="G64" s="15" t="n">
-        <v>50049357143</v>
+        <v>51624788321</v>
       </c>
       <c r="H64" s="15" t="n">
-        <v>51624788321</v>
+        <v>53703433071</v>
       </c>
       <c r="I64" s="15" t="n">
-        <v>53703433071</v>
+        <v>57219445455</v>
       </c>
       <c r="J64" s="15" t="n">
-        <v>57219445455</v>
+        <v>59750782946</v>
       </c>
       <c r="K64" s="15" t="n">
-        <v>59750782946</v>
+        <v>59590792793</v>
       </c>
       <c r="L64" s="15" t="n">
-        <v>59590792793</v>
+        <v>58172024390</v>
       </c>
       <c r="M64" s="15" t="n">
-        <v>58172024390</v>
+        <v>57118642276</v>
       </c>
       <c r="N64" s="15" t="n">
-        <v>57118642276</v>
+        <v>57376186567</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>57376186567</v>
+        <v>57074179688</v>
       </c>
       <c r="P64" s="15" t="n">
-        <v>57074179688</v>
+        <v>59861714286</v>
       </c>
       <c r="Q64" s="15" t="n">
-        <v>59861714286</v>
+        <v>62345738095</v>
       </c>
       <c r="R64" s="15" t="n">
-        <v>62345738095</v>
+        <v>70427808511</v>
       </c>
       <c r="S64" s="15" t="n">
-        <v>70427808511</v>
+        <v>77571348485</v>
       </c>
       <c r="T64" s="15" t="n">
-        <v>77571348485</v>
+        <v>81661775362</v>
       </c>
       <c r="U64" s="15" t="n">
-        <v>81661775362</v>
+        <v>86756261745</v>
       </c>
       <c r="V64" s="15" t="n">
-        <v>86756261745</v>
+        <v>93892619469</v>
       </c>
       <c r="W64" s="15" t="n">
-        <v>93892619469</v>
+        <v>108401100000</v>
       </c>
       <c r="X64" s="15" t="n">
-        <v>108401100000</v>
+        <v>126302810606</v>
       </c>
       <c r="Y64" s="15" t="n">
-        <v>126302810606</v>
+        <v>134366963636</v>
       </c>
       <c r="Z64" s="15" t="n">
-        <v>134366963636</v>
+        <v>146431720588</v>
       </c>
       <c r="AA64" s="15" t="n">
-        <v>146431720588</v>
+        <v>156627792000</v>
       </c>
       <c r="AB64" s="15" t="n">
-        <v>156627792000</v>
+        <v>167326544643</v>
       </c>
       <c r="AC64" s="15" t="n">
-        <v>167326544643</v>
+        <v>180539606838</v>
       </c>
       <c r="AD64" s="15" t="n">
-        <v>180539606838</v>
+        <v>194697228070</v>
       </c>
       <c r="AE64" s="15" t="n">
-        <v>194697228070</v>
+        <v>200962888000</v>
       </c>
       <c r="AF64" s="15" t="n">
-        <v>200962888000</v>
+        <v>207958362832</v>
       </c>
       <c r="AG64" s="15" t="n">
-        <v>207958362832</v>
+        <v>224925224000</v>
       </c>
       <c r="AH64" s="15" t="n">
-        <v>224925224000</v>
+        <v>233658794872</v>
       </c>
       <c r="AI64" s="15" t="n">
-        <v>233658794872</v>
+        <v>239804279070</v>
       </c>
       <c r="AJ64" s="15" t="n">
-        <v>239804279070</v>
+        <v>241311066667</v>
       </c>
       <c r="AK64" s="15" t="n">
-        <v>241311066667</v>
+        <v>241765196850</v>
       </c>
       <c r="AL64" s="15" t="n">
-        <v>241765196850</v>
+        <v>239988392308</v>
       </c>
       <c r="AM64" s="15" t="n">
-        <v>239988392308</v>
+        <v>242628598214</v>
       </c>
       <c r="AN64" s="15" t="n">
-        <v>242628598214</v>
+        <v>242980456000</v>
       </c>
       <c r="AO64" s="15" t="n">
-        <v>242980456000</v>
+        <v>235522441667</v>
       </c>
       <c r="AP64" s="15" t="n">
-        <v>235522441667</v>
+        <v>235126383333</v>
       </c>
       <c r="AQ64" s="15" t="n">
-        <v>235126383333</v>
+        <v>228081610687</v>
       </c>
       <c r="AR64" s="15" t="n">
-        <v>228081610687</v>
+        <v>229131218750</v>
       </c>
       <c r="AS64" s="15" t="n">
-        <v>229131218750</v>
+        <v>232236776786</v>
       </c>
       <c r="AT64" s="15" t="n">
-        <v>232236776786</v>
+        <v>234484037037</v>
       </c>
       <c r="AU64" s="15" t="n">
-        <v>234484037037</v>
+        <v>230709265625</v>
       </c>
       <c r="AV64" s="15" t="n">
-        <v>230709265625</v>
+        <v>229777909836</v>
       </c>
       <c r="AW64" s="15" t="n">
-        <v>229777909836</v>
+        <v>229704330508</v>
       </c>
       <c r="AX64" s="15" t="n">
-        <v>229704330508</v>
+        <v>230892975000</v>
       </c>
       <c r="AY64" s="15" t="n">
-        <v>230892975000</v>
+        <v>240577892562</v>
       </c>
       <c r="AZ64" s="15" t="n">
-        <v>240577892562</v>
+        <v>260431156250</v>
       </c>
       <c r="BA64" s="15" t="n">
-        <v>260431156250</v>
+        <v>285484305785</v>
       </c>
       <c r="BB64" s="15" t="n">
-        <v>285484305785</v>
+        <v>320859732143</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9701,8 +9701,8 @@
       <c r="Q66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R66" s="13" t="s">
-        <v>57</v>
+      <c r="R66" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S66" s="13" t="n">
         <v>0</v>
@@ -9737,8 +9737,8 @@
       <c r="AC66" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD66" s="13" t="n">
-        <v>0</v>
+      <c r="AD66" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE66" s="13" t="s">
         <v>57</v>

--- a/database/industries/folad/folad/product/monthly.xlsx
+++ b/database/industries/folad/folad/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\folad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F4DD0-6DD6-4368-8839-35DECF691708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C59C92-2E92-48B7-B844-E968888BF69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
